--- a/teaching/traditional_assets/database/data/turkey/turkey_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_drugs_biotechnology.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ibse_rtalb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,28 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0445</v>
+        <v>0.324</v>
       </c>
       <c r="E2">
-        <v>0.0405</v>
+        <v>0.487</v>
       </c>
       <c r="G2">
-        <v>-0.2961876832844575</v>
+        <v>0.01933333333333333</v>
       </c>
       <c r="H2">
-        <v>-0.5982404692082112</v>
+        <v>-0.0156969696969697</v>
       </c>
       <c r="I2">
-        <v>-0.4310850439882697</v>
+        <v>0.3121212121212121</v>
       </c>
       <c r="J2">
-        <v>-0.4310850439882697</v>
+        <v>0.2748420977929175</v>
       </c>
       <c r="K2">
-        <v>0.896</v>
+        <v>6.33</v>
       </c>
       <c r="L2">
-        <v>0.2627565982404692</v>
+        <v>0.3836363636363637</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +638,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.149</v>
+        <v>0.38</v>
       </c>
       <c r="V2">
-        <v>0.01056737588652482</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="W2">
-        <v>0.07466666666666667</v>
+        <v>0.462043795620438</v>
       </c>
       <c r="X2">
-        <v>0.1545099733967805</v>
+        <v>0.1094422875883839</v>
       </c>
       <c r="Y2">
-        <v>-0.07984330673011385</v>
+        <v>0.352601508032054</v>
       </c>
       <c r="Z2">
-        <v>0.4022175041283322</v>
+        <v>1.216186334488096</v>
       </c>
       <c r="AA2">
-        <v>-0.1733899504600142</v>
+        <v>0.3342592034777871</v>
       </c>
       <c r="AB2">
-        <v>0.1543983546452811</v>
+        <v>0.1088806284434573</v>
       </c>
       <c r="AC2">
-        <v>-0.3277883051052952</v>
+        <v>0.2253785750343298</v>
       </c>
       <c r="AD2">
-        <v>0.016</v>
+        <v>2.21</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.016</v>
+        <v>2.21</v>
       </c>
       <c r="AG2">
-        <v>-0.133</v>
+        <v>1.83</v>
       </c>
       <c r="AH2">
-        <v>0.001133465570983281</v>
+        <v>0.01304527477716782</v>
       </c>
       <c r="AI2">
-        <v>0.001166520851560222</v>
+        <v>0.1041961338991042</v>
       </c>
       <c r="AJ2">
-        <v>-0.009522445765017543</v>
+        <v>0.01082648050641898</v>
       </c>
       <c r="AK2">
-        <v>-0.009803198938601017</v>
+        <v>0.08785405664906386</v>
       </c>
       <c r="AL2">
-        <v>0.131</v>
+        <v>0.3</v>
       </c>
       <c r="AM2">
-        <v>-2.249</v>
+        <v>-0.462</v>
       </c>
       <c r="AN2">
-        <v>-0.01203007518796992</v>
+        <v>0.4177693761814745</v>
       </c>
       <c r="AO2">
-        <v>-11.22137404580153</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="AP2">
-        <v>0.1</v>
+        <v>0.3459357277882798</v>
       </c>
       <c r="AQ2">
-        <v>0.6536238328145844</v>
+        <v>-11.14718614718615</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0445</v>
+        <v>0.324</v>
       </c>
       <c r="E3">
-        <v>0.0405</v>
+        <v>0.487</v>
       </c>
       <c r="G3">
-        <v>-0.2961876832844575</v>
+        <v>0.01933333333333333</v>
       </c>
       <c r="H3">
-        <v>-0.5982404692082112</v>
+        <v>-0.0156969696969697</v>
       </c>
       <c r="I3">
-        <v>-0.4310850439882697</v>
+        <v>0.3121212121212121</v>
       </c>
       <c r="J3">
-        <v>-0.4310850439882697</v>
+        <v>0.2748420977929175</v>
       </c>
       <c r="K3">
-        <v>0.896</v>
+        <v>6.33</v>
       </c>
       <c r="L3">
-        <v>0.2627565982404692</v>
+        <v>0.3836363636363637</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +769,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.149</v>
+        <v>0.38</v>
       </c>
       <c r="V3">
-        <v>0.01056737588652482</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="W3">
-        <v>0.07466666666666667</v>
+        <v>0.462043795620438</v>
       </c>
       <c r="X3">
-        <v>0.1545099733967805</v>
+        <v>0.1094422875883839</v>
       </c>
       <c r="Y3">
-        <v>-0.07984330673011385</v>
+        <v>0.352601508032054</v>
       </c>
       <c r="Z3">
-        <v>0.4022175041283322</v>
+        <v>1.216186334488096</v>
       </c>
       <c r="AA3">
-        <v>-0.1733899504600142</v>
+        <v>0.3342592034777871</v>
       </c>
       <c r="AB3">
-        <v>0.1543983546452811</v>
+        <v>0.1088806284434573</v>
       </c>
       <c r="AC3">
-        <v>-0.3277883051052952</v>
+        <v>0.2253785750343298</v>
       </c>
       <c r="AD3">
-        <v>0.016</v>
+        <v>2.21</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.016</v>
+        <v>2.21</v>
       </c>
       <c r="AG3">
-        <v>-0.133</v>
+        <v>1.83</v>
       </c>
       <c r="AH3">
-        <v>0.001133465570983281</v>
+        <v>0.01304527477716782</v>
       </c>
       <c r="AI3">
-        <v>0.001166520851560222</v>
+        <v>0.1041961338991042</v>
       </c>
       <c r="AJ3">
-        <v>-0.009522445765017543</v>
+        <v>0.01082648050641898</v>
       </c>
       <c r="AK3">
-        <v>-0.009803198938601017</v>
+        <v>0.08785405664906386</v>
       </c>
       <c r="AL3">
-        <v>0.131</v>
+        <v>0.3</v>
       </c>
       <c r="AM3">
-        <v>-2.249</v>
+        <v>-0.462</v>
       </c>
       <c r="AN3">
-        <v>-0.01203007518796992</v>
+        <v>0.4177693761814745</v>
       </c>
       <c r="AO3">
-        <v>-11.22137404580153</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="AP3">
+        <v>0.3459357277882798</v>
+      </c>
+      <c r="AQ3">
+        <v>-11.14718614718615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RTA Laboratuvarlari Biyolojik Urunler Ilac ve Makine Sanayi Ticaret A.S. (IBSE:RTALB)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IBSE:RTALB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Drugs (Biotechnology)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0130452747771678</v>
+      </c>
+      <c r="F2">
+        <v>0.23</v>
+      </c>
+      <c r="G2">
+        <v>167.2</v>
+      </c>
+      <c r="H2">
+        <v>137.044628150278</v>
+      </c>
+      <c r="I2">
+        <v>169.03</v>
+      </c>
+      <c r="J2">
+        <v>175.628928150278</v>
+      </c>
+      <c r="K2">
+        <v>2.21</v>
+      </c>
+      <c r="L2">
+        <v>38.9643</v>
+      </c>
+      <c r="M2">
+        <v>0.108880628443457</v>
+      </c>
+      <c r="N2">
+        <v>0.105383298101866</v>
+      </c>
+      <c r="O2">
+        <v>0.066387683180236</v>
+      </c>
+      <c r="P2">
+        <v>0.022698</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.109442287588384</v>
+      </c>
+      <c r="T2">
+        <v>0.130081504028398</v>
+      </c>
+      <c r="U2">
+        <v>0.978524934462762</v>
+      </c>
+      <c r="V2">
+        <v>1.19419659770855</v>
+      </c>
+      <c r="W2">
+        <v>4.542002423171523</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.0158</v>
+      </c>
+      <c r="AA2">
+        <v>167.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.09569739542691996</v>
+      </c>
+      <c r="AC2">
+        <v>0.08511241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>5.29</v>
+      </c>
+      <c r="AH2">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>1.29</v>
+      </c>
+      <c r="AJ2">
+        <v>2.21</v>
+      </c>
+      <c r="AK2">
+        <v>2.21</v>
+      </c>
+      <c r="AL2">
+        <v>0.3</v>
+      </c>
+      <c r="AM2">
+        <v>2.21</v>
+      </c>
+      <c r="AN2">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1084867053948454</v>
+      </c>
+      <c r="C2">
+        <v>170.1283857989473</v>
+      </c>
+      <c r="D2">
+        <v>169.7483857989473</v>
+      </c>
+      <c r="E2">
+        <v>-2.21</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.38</v>
+      </c>
+      <c r="H2">
+        <v>167.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.29</v>
+      </c>
+      <c r="K2">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L2">
+        <v>5.15</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>5.15</v>
+      </c>
+      <c r="O2">
+        <v>1.133</v>
+      </c>
+      <c r="P2">
+        <v>4.017</v>
+      </c>
+      <c r="Q2">
+        <v>4.157</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1084867053948454</v>
+      </c>
+      <c r="T2">
+        <v>0.9685394778129184</v>
+      </c>
+      <c r="U2">
+        <v>0.0227</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2">
+        <v>0.017706</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.1083018546429768</v>
+      </c>
+      <c r="C3">
+        <v>168.7735018813117</v>
+      </c>
+      <c r="D3">
+        <v>170.0876018813117</v>
+      </c>
+      <c r="E3">
+        <v>-0.5159</v>
+      </c>
+      <c r="F3">
+        <v>1.6941</v>
+      </c>
+      <c r="G3">
+        <v>0.38</v>
+      </c>
+      <c r="H3">
+        <v>167.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.29</v>
+      </c>
+      <c r="K3">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L3">
+        <v>5.15</v>
+      </c>
+      <c r="M3">
+        <v>0.03845607</v>
+      </c>
+      <c r="N3">
+        <v>5.111543930000001</v>
+      </c>
+      <c r="O3">
+        <v>1.1245396646</v>
+      </c>
+      <c r="P3">
+        <v>3.9870042654</v>
+      </c>
+      <c r="Q3">
+        <v>4.1270042654</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1092169642858351</v>
+      </c>
+      <c r="T3">
+        <v>0.9761703949108382</v>
+      </c>
+      <c r="U3">
+        <v>0.0227</v>
+      </c>
+      <c r="V3">
+        <v>0.22</v>
+      </c>
+      <c r="W3">
+        <v>0.017706</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>133.9190406091938</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1081170038911081</v>
+      </c>
+      <c r="C4">
+        <v>167.4199764208448</v>
+      </c>
+      <c r="D4">
+        <v>170.4281764208449</v>
+      </c>
+      <c r="E4">
+        <v>1.1782</v>
+      </c>
+      <c r="F4">
+        <v>3.3882</v>
+      </c>
+      <c r="G4">
+        <v>0.38</v>
+      </c>
+      <c r="H4">
+        <v>167.2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.29</v>
+      </c>
+      <c r="K4">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L4">
+        <v>5.15</v>
+      </c>
+      <c r="M4">
+        <v>0.07691214</v>
+      </c>
+      <c r="N4">
+        <v>5.07308786</v>
+      </c>
+      <c r="O4">
+        <v>1.1160793292</v>
+      </c>
+      <c r="P4">
+        <v>3.9570085308</v>
+      </c>
+      <c r="Q4">
+        <v>4.0970085308</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1099621264194981</v>
+      </c>
+      <c r="T4">
+        <v>0.9839570450107566</v>
+      </c>
+      <c r="U4">
+        <v>0.0227</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.017706</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>66.95952030459691</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1079321531392394</v>
+      </c>
+      <c r="C5">
+        <v>166.0678175942307</v>
+      </c>
+      <c r="D5">
+        <v>170.7701175942308</v>
+      </c>
+      <c r="E5">
+        <v>2.8723</v>
+      </c>
+      <c r="F5">
+        <v>5.0823</v>
+      </c>
+      <c r="G5">
+        <v>0.38</v>
+      </c>
+      <c r="H5">
+        <v>167.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.29</v>
+      </c>
+      <c r="K5">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L5">
+        <v>5.15</v>
+      </c>
+      <c r="M5">
+        <v>0.11536821</v>
+      </c>
+      <c r="N5">
+        <v>5.034631790000001</v>
+      </c>
+      <c r="O5">
+        <v>1.1076189938</v>
+      </c>
+      <c r="P5">
+        <v>3.927012796200001</v>
+      </c>
+      <c r="Q5">
+        <v>4.0670127962</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1107226527208654</v>
+      </c>
+      <c r="T5">
+        <v>0.9919042445972712</v>
+      </c>
+      <c r="U5">
+        <v>0.0227</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <v>0.017706</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>44.63968020306461</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1077473023873708</v>
+      </c>
+      <c r="C6">
+        <v>164.7170336439067</v>
+      </c>
+      <c r="D6">
+        <v>171.1134336439067</v>
+      </c>
+      <c r="E6">
+        <v>4.5664</v>
+      </c>
+      <c r="F6">
+        <v>6.7764</v>
+      </c>
+      <c r="G6">
+        <v>0.38</v>
+      </c>
+      <c r="H6">
+        <v>167.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.29</v>
+      </c>
+      <c r="K6">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L6">
+        <v>5.15</v>
+      </c>
+      <c r="M6">
+        <v>0.15382428</v>
+      </c>
+      <c r="N6">
+        <v>4.99617572</v>
+      </c>
+      <c r="O6">
+        <v>1.0991586584</v>
+      </c>
+      <c r="P6">
+        <v>3.8970170616</v>
+      </c>
+      <c r="Q6">
+        <v>4.0370170616</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1114990233201779</v>
+      </c>
+      <c r="T6">
+        <v>1.000017010841838</v>
+      </c>
+      <c r="U6">
+        <v>0.0227</v>
+      </c>
+      <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
+        <v>0.017706</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>33.47976015229845</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1075624516355021</v>
+      </c>
+      <c r="C7">
+        <v>163.367632878726</v>
+      </c>
+      <c r="D7">
+        <v>171.458132878726</v>
+      </c>
+      <c r="E7">
+        <v>6.2605</v>
+      </c>
+      <c r="F7">
+        <v>8.470499999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.38</v>
+      </c>
+      <c r="H7">
+        <v>167.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.29</v>
+      </c>
+      <c r="K7">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L7">
+        <v>5.15</v>
+      </c>
+      <c r="M7">
+        <v>0.19228035</v>
+      </c>
+      <c r="N7">
+        <v>4.95771965</v>
+      </c>
+      <c r="O7">
+        <v>1.090698323</v>
+      </c>
+      <c r="P7">
+        <v>3.867021327000001</v>
+      </c>
+      <c r="Q7">
+        <v>4.007021327</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1122917385636865</v>
+      </c>
+      <c r="T7">
+        <v>1.008300572165238</v>
+      </c>
+      <c r="U7">
+        <v>0.0227</v>
+      </c>
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.017706</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>26.78380812183877</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1073776008836335</v>
+      </c>
+      <c r="C8">
+        <v>162.0196236746282</v>
+      </c>
+      <c r="D8">
+        <v>171.8042236746282</v>
+      </c>
+      <c r="E8">
+        <v>7.9546</v>
+      </c>
+      <c r="F8">
+        <v>10.1646</v>
+      </c>
+      <c r="G8">
+        <v>0.38</v>
+      </c>
+      <c r="H8">
+        <v>167.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.29</v>
+      </c>
+      <c r="K8">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L8">
+        <v>5.15</v>
+      </c>
+      <c r="M8">
+        <v>0.23073642</v>
+      </c>
+      <c r="N8">
+        <v>4.91926358</v>
+      </c>
+      <c r="O8">
+        <v>1.0822379876</v>
+      </c>
+      <c r="P8">
+        <v>3.8370255924</v>
+      </c>
+      <c r="Q8">
+        <v>3.9770255924</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1131013200889718</v>
+      </c>
+      <c r="T8">
+        <v>1.016760379474242</v>
+      </c>
+      <c r="U8">
+        <v>0.0227</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.017706</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>22.3198401015323</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1071927501317648</v>
+      </c>
+      <c r="C9">
+        <v>160.6730144753173</v>
+      </c>
+      <c r="D9">
+        <v>172.1517144753173</v>
+      </c>
+      <c r="E9">
+        <v>9.648700000000002</v>
+      </c>
+      <c r="F9">
+        <v>11.8587</v>
+      </c>
+      <c r="G9">
+        <v>0.38</v>
+      </c>
+      <c r="H9">
+        <v>167.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.29</v>
+      </c>
+      <c r="K9">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L9">
+        <v>5.15</v>
+      </c>
+      <c r="M9">
+        <v>0.26919249</v>
+      </c>
+      <c r="N9">
+        <v>4.88080751</v>
+      </c>
+      <c r="O9">
+        <v>1.0737776522</v>
+      </c>
+      <c r="P9">
+        <v>3.8070298578</v>
+      </c>
+      <c r="Q9">
+        <v>3.9470298578</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1139283119696396</v>
+      </c>
+      <c r="T9">
+        <v>1.025402118123225</v>
+      </c>
+      <c r="U9">
+        <v>0.0227</v>
+      </c>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.017706</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>19.13129151559912</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1070078993798962</v>
+      </c>
+      <c r="C10">
+        <v>159.3278137929487</v>
+      </c>
+      <c r="D10">
+        <v>172.5006137929487</v>
+      </c>
+      <c r="E10">
+        <v>11.3428</v>
+      </c>
+      <c r="F10">
+        <v>13.5528</v>
+      </c>
+      <c r="G10">
+        <v>0.38</v>
+      </c>
+      <c r="H10">
+        <v>167.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.29</v>
+      </c>
+      <c r="K10">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L10">
+        <v>5.15</v>
+      </c>
+      <c r="M10">
+        <v>0.30764856</v>
+      </c>
+      <c r="N10">
+        <v>4.842351440000001</v>
+      </c>
+      <c r="O10">
+        <v>1.0653173168</v>
+      </c>
+      <c r="P10">
+        <v>3.777034123200001</v>
+      </c>
+      <c r="Q10">
+        <v>3.917034123200001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1147732819346697</v>
+      </c>
+      <c r="T10">
+        <v>1.034231720655882</v>
+      </c>
+      <c r="U10">
+        <v>0.0227</v>
+      </c>
+      <c r="V10">
+        <v>0.22</v>
+      </c>
+      <c r="W10">
+        <v>0.017706</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>16.73988007614923</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1068230486280275</v>
+      </c>
+      <c r="C11">
+        <v>157.9840302088242</v>
+      </c>
+      <c r="D11">
+        <v>172.8509302088242</v>
+      </c>
+      <c r="E11">
+        <v>13.0369</v>
+      </c>
+      <c r="F11">
+        <v>15.2469</v>
+      </c>
+      <c r="G11">
+        <v>0.38</v>
+      </c>
+      <c r="H11">
+        <v>167.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.29</v>
+      </c>
+      <c r="K11">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L11">
+        <v>5.15</v>
+      </c>
+      <c r="M11">
+        <v>0.34610463</v>
+      </c>
+      <c r="N11">
+        <v>4.80389537</v>
+      </c>
+      <c r="O11">
+        <v>1.0568569814</v>
+      </c>
+      <c r="P11">
+        <v>3.7470383886</v>
+      </c>
+      <c r="Q11">
+        <v>3.8870383886</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1156368226681621</v>
+      </c>
+      <c r="T11">
+        <v>1.043255380387058</v>
+      </c>
+      <c r="U11">
+        <v>0.0227</v>
+      </c>
+      <c r="V11">
+        <v>0.22</v>
+      </c>
+      <c r="W11">
+        <v>0.017706</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>14.87989340102154</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>0.1</v>
       </c>
-      <c r="AQ3">
-        <v>0.6536238328145844</v>
+      <c r="B12">
+        <v>0.1066381978761588</v>
+      </c>
+      <c r="C12">
+        <v>156.6416723740955</v>
+      </c>
+      <c r="D12">
+        <v>173.2026723740955</v>
+      </c>
+      <c r="E12">
+        <v>14.731</v>
+      </c>
+      <c r="F12">
+        <v>16.941</v>
+      </c>
+      <c r="G12">
+        <v>0.38</v>
+      </c>
+      <c r="H12">
+        <v>167.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.29</v>
+      </c>
+      <c r="K12">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L12">
+        <v>5.15</v>
+      </c>
+      <c r="M12">
+        <v>0.3845607</v>
+      </c>
+      <c r="N12">
+        <v>4.765439300000001</v>
+      </c>
+      <c r="O12">
+        <v>1.048396646</v>
+      </c>
+      <c r="P12">
+        <v>3.717042654000001</v>
+      </c>
+      <c r="Q12">
+        <v>3.857042654</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.116519553195732</v>
+      </c>
+      <c r="T12">
+        <v>1.052479565890038</v>
+      </c>
+      <c r="U12">
+        <v>0.0227</v>
+      </c>
+      <c r="V12">
+        <v>0.22</v>
+      </c>
+      <c r="W12">
+        <v>0.017706</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>13.39190406091938</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1065906271242902</v>
+      </c>
+      <c r="C13">
+        <v>155.0383238273179</v>
+      </c>
+      <c r="D13">
+        <v>173.2934238273179</v>
+      </c>
+      <c r="E13">
+        <v>16.4251</v>
+      </c>
+      <c r="F13">
+        <v>18.6351</v>
+      </c>
+      <c r="G13">
+        <v>0.38</v>
+      </c>
+      <c r="H13">
+        <v>167.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.29</v>
+      </c>
+      <c r="K13">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L13">
+        <v>5.15</v>
+      </c>
+      <c r="M13">
+        <v>0.4528329300000001</v>
+      </c>
+      <c r="N13">
+        <v>4.69716707</v>
+      </c>
+      <c r="O13">
+        <v>1.0333767554</v>
+      </c>
+      <c r="P13">
+        <v>3.6637903146</v>
+      </c>
+      <c r="Q13">
+        <v>3.8037903146</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.117422120364371</v>
+      </c>
+      <c r="T13">
+        <v>1.061911036460501</v>
+      </c>
+      <c r="U13">
+        <v>0.0243</v>
+      </c>
+      <c r="V13">
+        <v>0.22</v>
+      </c>
+      <c r="W13">
+        <v>0.018954</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>11.37284781828918</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1064182563724215</v>
+      </c>
+      <c r="C14">
+        <v>153.6738562761728</v>
+      </c>
+      <c r="D14">
+        <v>173.6230562761729</v>
+      </c>
+      <c r="E14">
+        <v>18.1192</v>
+      </c>
+      <c r="F14">
+        <v>20.3292</v>
+      </c>
+      <c r="G14">
+        <v>0.38</v>
+      </c>
+      <c r="H14">
+        <v>167.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.29</v>
+      </c>
+      <c r="K14">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L14">
+        <v>5.15</v>
+      </c>
+      <c r="M14">
+        <v>0.4939995600000001</v>
+      </c>
+      <c r="N14">
+        <v>4.656000440000001</v>
+      </c>
+      <c r="O14">
+        <v>1.0243200968</v>
+      </c>
+      <c r="P14">
+        <v>3.6316803432</v>
+      </c>
+      <c r="Q14">
+        <v>3.7716803432</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1183452004232063</v>
+      </c>
+      <c r="T14">
+        <v>1.071556858634838</v>
+      </c>
+      <c r="U14">
+        <v>0.0243</v>
+      </c>
+      <c r="V14">
+        <v>0.22</v>
+      </c>
+      <c r="W14">
+        <v>0.018954</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>10.42511050009842</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1064689656205528</v>
+      </c>
+      <c r="C15">
+        <v>151.8826525474408</v>
+      </c>
+      <c r="D15">
+        <v>173.5259525474409</v>
+      </c>
+      <c r="E15">
+        <v>19.8133</v>
+      </c>
+      <c r="F15">
+        <v>22.0233</v>
+      </c>
+      <c r="G15">
+        <v>0.38</v>
+      </c>
+      <c r="H15">
+        <v>167.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.29</v>
+      </c>
+      <c r="K15">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L15">
+        <v>5.15</v>
+      </c>
+      <c r="M15">
+        <v>0.58361745</v>
+      </c>
+      <c r="N15">
+        <v>4.56638255</v>
+      </c>
+      <c r="O15">
+        <v>1.004604161</v>
+      </c>
+      <c r="P15">
+        <v>3.561778389</v>
+      </c>
+      <c r="Q15">
+        <v>3.701778389</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1192895007132791</v>
+      </c>
+      <c r="T15">
+        <v>1.081424423847665</v>
+      </c>
+      <c r="U15">
+        <v>0.0265</v>
+      </c>
+      <c r="V15">
+        <v>0.22</v>
+      </c>
+      <c r="W15">
+        <v>0.02067</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>8.824273503131204</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1063137548686842</v>
+      </c>
+      <c r="C16">
+        <v>150.4861105661385</v>
+      </c>
+      <c r="D16">
+        <v>173.8235105661385</v>
+      </c>
+      <c r="E16">
+        <v>21.5074</v>
+      </c>
+      <c r="F16">
+        <v>23.7174</v>
+      </c>
+      <c r="G16">
+        <v>0.38</v>
+      </c>
+      <c r="H16">
+        <v>167.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.29</v>
+      </c>
+      <c r="K16">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L16">
+        <v>5.15</v>
+      </c>
+      <c r="M16">
+        <v>0.6285111000000001</v>
+      </c>
+      <c r="N16">
+        <v>4.5214889</v>
+      </c>
+      <c r="O16">
+        <v>0.9947275580000001</v>
+      </c>
+      <c r="P16">
+        <v>3.526761342</v>
+      </c>
+      <c r="Q16">
+        <v>3.666761342</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1202557614752142</v>
+      </c>
+      <c r="T16">
+        <v>1.091521467321256</v>
+      </c>
+      <c r="U16">
+        <v>0.0265</v>
+      </c>
+      <c r="V16">
+        <v>0.22</v>
+      </c>
+      <c r="W16">
+        <v>0.02067</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>8.193968252907545</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1062872441168155</v>
+      </c>
+      <c r="C17">
+        <v>148.8429369923164</v>
+      </c>
+      <c r="D17">
+        <v>173.8744369923164</v>
+      </c>
+      <c r="E17">
+        <v>23.2015</v>
+      </c>
+      <c r="F17">
+        <v>25.4115</v>
+      </c>
+      <c r="G17">
+        <v>0.38</v>
+      </c>
+      <c r="H17">
+        <v>167.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.29</v>
+      </c>
+      <c r="K17">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L17">
+        <v>5.15</v>
+      </c>
+      <c r="M17">
+        <v>0.7013574</v>
+      </c>
+      <c r="N17">
+        <v>4.4486426</v>
+      </c>
+      <c r="O17">
+        <v>0.9787013720000001</v>
+      </c>
+      <c r="P17">
+        <v>3.469941228</v>
+      </c>
+      <c r="Q17">
+        <v>3.609941228</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1212447577844889</v>
+      </c>
+      <c r="T17">
+        <v>1.101856088288344</v>
+      </c>
+      <c r="U17">
+        <v>0.0276</v>
+      </c>
+      <c r="V17">
+        <v>0.22</v>
+      </c>
+      <c r="W17">
+        <v>0.021528</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>7.342903917460627</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1061406133649468</v>
+      </c>
+      <c r="C18">
+        <v>147.4310504783366</v>
+      </c>
+      <c r="D18">
+        <v>174.1566504783366</v>
+      </c>
+      <c r="E18">
+        <v>24.8956</v>
+      </c>
+      <c r="F18">
+        <v>27.1056</v>
+      </c>
+      <c r="G18">
+        <v>0.38</v>
+      </c>
+      <c r="H18">
+        <v>167.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.29</v>
+      </c>
+      <c r="K18">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L18">
+        <v>5.15</v>
+      </c>
+      <c r="M18">
+        <v>0.74811456</v>
+      </c>
+      <c r="N18">
+        <v>4.40188544</v>
+      </c>
+      <c r="O18">
+        <v>0.9684147968</v>
+      </c>
+      <c r="P18">
+        <v>3.4334706432</v>
+      </c>
+      <c r="Q18">
+        <v>3.5734706432</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1222573016249367</v>
+      </c>
+      <c r="T18">
+        <v>1.112436771659409</v>
+      </c>
+      <c r="U18">
+        <v>0.0276</v>
+      </c>
+      <c r="V18">
+        <v>0.22</v>
+      </c>
+      <c r="W18">
+        <v>0.021528</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>6.883972422619338</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1059939826130782</v>
+      </c>
+      <c r="C19">
+        <v>146.0200815682688</v>
+      </c>
+      <c r="D19">
+        <v>174.4397815682688</v>
+      </c>
+      <c r="E19">
+        <v>26.5897</v>
+      </c>
+      <c r="F19">
+        <v>28.7997</v>
+      </c>
+      <c r="G19">
+        <v>0.38</v>
+      </c>
+      <c r="H19">
+        <v>167.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.29</v>
+      </c>
+      <c r="K19">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L19">
+        <v>5.15</v>
+      </c>
+      <c r="M19">
+        <v>0.7948717200000001</v>
+      </c>
+      <c r="N19">
+        <v>4.355128280000001</v>
+      </c>
+      <c r="O19">
+        <v>0.9581282216000001</v>
+      </c>
+      <c r="P19">
+        <v>3.397000058400001</v>
+      </c>
+      <c r="Q19">
+        <v>3.5370000584</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1232942441121424</v>
+      </c>
+      <c r="T19">
+        <v>1.123272411256284</v>
+      </c>
+      <c r="U19">
+        <v>0.0276</v>
+      </c>
+      <c r="V19">
+        <v>0.22</v>
+      </c>
+      <c r="W19">
+        <v>0.021528</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>6.479032868347613</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1060579518612096</v>
+      </c>
+      <c r="C20">
+        <v>144.2023494511975</v>
+      </c>
+      <c r="D20">
+        <v>174.3161494511975</v>
+      </c>
+      <c r="E20">
+        <v>28.2838</v>
+      </c>
+      <c r="F20">
+        <v>30.4938</v>
+      </c>
+      <c r="G20">
+        <v>0.38</v>
+      </c>
+      <c r="H20">
+        <v>167.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.29</v>
+      </c>
+      <c r="K20">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L20">
+        <v>5.15</v>
+      </c>
+      <c r="M20">
+        <v>0.8873695799999999</v>
+      </c>
+      <c r="N20">
+        <v>4.262630420000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9377786924000001</v>
+      </c>
+      <c r="P20">
+        <v>3.3248517276</v>
+      </c>
+      <c r="Q20">
+        <v>3.4648517276</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1243564778795238</v>
+      </c>
+      <c r="T20">
+        <v>1.134372334745764</v>
+      </c>
+      <c r="U20">
+        <v>0.0291</v>
+      </c>
+      <c r="V20">
+        <v>0.22</v>
+      </c>
+      <c r="W20">
+        <v>0.022698</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>5.80366976294139</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1059230211093409</v>
+      </c>
+      <c r="C21">
+        <v>142.7692328139253</v>
+      </c>
+      <c r="D21">
+        <v>174.5771328139253</v>
+      </c>
+      <c r="E21">
+        <v>29.9779</v>
+      </c>
+      <c r="F21">
+        <v>32.1879</v>
+      </c>
+      <c r="G21">
+        <v>0.38</v>
+      </c>
+      <c r="H21">
+        <v>167.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.29</v>
+      </c>
+      <c r="K21">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L21">
+        <v>5.15</v>
+      </c>
+      <c r="M21">
+        <v>0.9366678899999999</v>
+      </c>
+      <c r="N21">
+        <v>4.213332110000001</v>
+      </c>
+      <c r="O21">
+        <v>0.9269330642000001</v>
+      </c>
+      <c r="P21">
+        <v>3.286399045800001</v>
+      </c>
+      <c r="Q21">
+        <v>3.4263990458</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1254449396411616</v>
+      </c>
+      <c r="T21">
+        <v>1.145746330420171</v>
+      </c>
+      <c r="U21">
+        <v>0.0291</v>
+      </c>
+      <c r="V21">
+        <v>0.22</v>
+      </c>
+      <c r="W21">
+        <v>0.022698</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>5.498213459628685</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1057880903574722</v>
+      </c>
+      <c r="C22">
+        <v>141.3368988286954</v>
+      </c>
+      <c r="D22">
+        <v>174.8388988286954</v>
+      </c>
+      <c r="E22">
+        <v>31.672</v>
+      </c>
+      <c r="F22">
+        <v>33.882</v>
+      </c>
+      <c r="G22">
+        <v>0.38</v>
+      </c>
+      <c r="H22">
+        <v>167.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.29</v>
+      </c>
+      <c r="K22">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L22">
+        <v>5.15</v>
+      </c>
+      <c r="M22">
+        <v>0.9859662</v>
+      </c>
+      <c r="N22">
+        <v>4.1640338</v>
+      </c>
+      <c r="O22">
+        <v>0.9160874360000001</v>
+      </c>
+      <c r="P22">
+        <v>3.247946364</v>
+      </c>
+      <c r="Q22">
+        <v>3.387946364</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1265606129468403</v>
+      </c>
+      <c r="T22">
+        <v>1.157404675986438</v>
+      </c>
+      <c r="U22">
+        <v>0.0291</v>
+      </c>
+      <c r="V22">
+        <v>0.22</v>
+      </c>
+      <c r="W22">
+        <v>0.022698</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>5.223302786647251</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1056531596056036</v>
+      </c>
+      <c r="C23">
+        <v>139.9053510213885</v>
+      </c>
+      <c r="D23">
+        <v>175.1014510213885</v>
+      </c>
+      <c r="E23">
+        <v>33.3661</v>
+      </c>
+      <c r="F23">
+        <v>35.5761</v>
+      </c>
+      <c r="G23">
+        <v>0.38</v>
+      </c>
+      <c r="H23">
+        <v>167.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.29</v>
+      </c>
+      <c r="K23">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L23">
+        <v>5.15</v>
+      </c>
+      <c r="M23">
+        <v>1.03526451</v>
+      </c>
+      <c r="N23">
+        <v>4.11473549</v>
+      </c>
+      <c r="O23">
+        <v>0.9052418078000001</v>
+      </c>
+      <c r="P23">
+        <v>3.2094936822</v>
+      </c>
+      <c r="Q23">
+        <v>3.3494936822</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1277045311463336</v>
+      </c>
+      <c r="T23">
+        <v>1.169358169541723</v>
+      </c>
+      <c r="U23">
+        <v>0.0291</v>
+      </c>
+      <c r="V23">
+        <v>0.22</v>
+      </c>
+      <c r="W23">
+        <v>0.022698</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>4.97457408252119</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1055182288537349</v>
+      </c>
+      <c r="C24">
+        <v>138.4745929390954</v>
+      </c>
+      <c r="D24">
+        <v>175.3647929390954</v>
+      </c>
+      <c r="E24">
+        <v>35.0602</v>
+      </c>
+      <c r="F24">
+        <v>37.2702</v>
+      </c>
+      <c r="G24">
+        <v>0.38</v>
+      </c>
+      <c r="H24">
+        <v>167.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.29</v>
+      </c>
+      <c r="K24">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L24">
+        <v>5.15</v>
+      </c>
+      <c r="M24">
+        <v>1.08456282</v>
+      </c>
+      <c r="N24">
+        <v>4.06543718</v>
+      </c>
+      <c r="O24">
+        <v>0.8943961796</v>
+      </c>
+      <c r="P24">
+        <v>3.1710410004</v>
+      </c>
+      <c r="Q24">
+        <v>3.311041000399999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1288777805817114</v>
+      </c>
+      <c r="T24">
+        <v>1.18161816293176</v>
+      </c>
+      <c r="U24">
+        <v>0.0291</v>
+      </c>
+      <c r="V24">
+        <v>0.22</v>
+      </c>
+      <c r="W24">
+        <v>0.022698</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>4.748457078770227</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1053832981018662</v>
+      </c>
+      <c r="C25">
+        <v>137.0446281502779</v>
+      </c>
+      <c r="D25">
+        <v>175.6289281502779</v>
+      </c>
+      <c r="E25">
+        <v>36.7543</v>
+      </c>
+      <c r="F25">
+        <v>38.9643</v>
+      </c>
+      <c r="G25">
+        <v>0.38</v>
+      </c>
+      <c r="H25">
+        <v>167.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.29</v>
+      </c>
+      <c r="K25">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L25">
+        <v>5.15</v>
+      </c>
+      <c r="M25">
+        <v>1.13386113</v>
+      </c>
+      <c r="N25">
+        <v>4.016138870000001</v>
+      </c>
+      <c r="O25">
+        <v>0.8835505514000002</v>
+      </c>
+      <c r="P25">
+        <v>3.132588318600001</v>
+      </c>
+      <c r="Q25">
+        <v>3.2725883186</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1300815040283977</v>
+      </c>
+      <c r="T25">
+        <v>1.194196597708552</v>
+      </c>
+      <c r="U25">
+        <v>0.0291</v>
+      </c>
+      <c r="V25">
+        <v>0.22</v>
+      </c>
+      <c r="W25">
+        <v>0.022698</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>4.542002423171523</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1138782873499976</v>
+      </c>
+      <c r="C26">
+        <v>120.1385388648892</v>
+      </c>
+      <c r="D26">
+        <v>160.4169388648892</v>
+      </c>
+      <c r="E26">
+        <v>38.4484</v>
+      </c>
+      <c r="F26">
+        <v>40.6584</v>
+      </c>
+      <c r="G26">
+        <v>0.38</v>
+      </c>
+      <c r="H26">
+        <v>167.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>5.29</v>
+      </c>
+      <c r="K26">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L26">
+        <v>5.15</v>
+      </c>
+      <c r="M26">
+        <v>3.05751168</v>
+      </c>
+      <c r="N26">
+        <v>2.09248832</v>
+      </c>
+      <c r="O26">
+        <v>0.4603474304</v>
+      </c>
+      <c r="P26">
+        <v>1.6321408896</v>
+      </c>
+      <c r="Q26">
+        <v>1.7721408896</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1313169044078916</v>
+      </c>
+      <c r="T26">
+        <v>1.207106043926837</v>
+      </c>
+      <c r="U26">
+        <v>0.0752</v>
+      </c>
+      <c r="V26">
+        <v>0.22</v>
+      </c>
+      <c r="W26">
+        <v>0.05865600000000001</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>1.684376231066434</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1141029365981289</v>
+      </c>
+      <c r="C27">
+        <v>118.0778420372598</v>
+      </c>
+      <c r="D27">
+        <v>160.0503420372598</v>
+      </c>
+      <c r="E27">
+        <v>40.1425</v>
+      </c>
+      <c r="F27">
+        <v>42.3525</v>
+      </c>
+      <c r="G27">
+        <v>0.38</v>
+      </c>
+      <c r="H27">
+        <v>167.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>5.29</v>
+      </c>
+      <c r="K27">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L27">
+        <v>5.15</v>
+      </c>
+      <c r="M27">
+        <v>3.184908</v>
+      </c>
+      <c r="N27">
+        <v>1.965092</v>
+      </c>
+      <c r="O27">
+        <v>0.4323202400000001</v>
+      </c>
+      <c r="P27">
+        <v>1.53277176</v>
+      </c>
+      <c r="Q27">
+        <v>1.67277176</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1325852487975052</v>
+      </c>
+      <c r="T27">
+        <v>1.220359742044277</v>
+      </c>
+      <c r="U27">
+        <v>0.0752</v>
+      </c>
+      <c r="V27">
+        <v>0.22</v>
+      </c>
+      <c r="W27">
+        <v>0.05865600000000001</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>1.617001181823777</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1143275858462603</v>
+      </c>
+      <c r="C28">
+        <v>116.0188169384358</v>
+      </c>
+      <c r="D28">
+        <v>159.6854169384358</v>
+      </c>
+      <c r="E28">
+        <v>41.8366</v>
+      </c>
+      <c r="F28">
+        <v>44.0466</v>
+      </c>
+      <c r="G28">
+        <v>0.38</v>
+      </c>
+      <c r="H28">
+        <v>167.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>5.29</v>
+      </c>
+      <c r="K28">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L28">
+        <v>5.15</v>
+      </c>
+      <c r="M28">
+        <v>3.31230432</v>
+      </c>
+      <c r="N28">
+        <v>1.83769568</v>
+      </c>
+      <c r="O28">
+        <v>0.4042930496000001</v>
+      </c>
+      <c r="P28">
+        <v>1.4334026304</v>
+      </c>
+      <c r="Q28">
+        <v>1.5734026304</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1338878727652166</v>
+      </c>
+      <c r="T28">
+        <v>1.233971648218945</v>
+      </c>
+      <c r="U28">
+        <v>0.0752</v>
+      </c>
+      <c r="V28">
+        <v>0.22</v>
+      </c>
+      <c r="W28">
+        <v>0.05865600000000001</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>1.554808828676708</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1233508535950871</v>
+      </c>
+      <c r="C29">
+        <v>100.9274799621188</v>
+      </c>
+      <c r="D29">
+        <v>146.2881799621188</v>
+      </c>
+      <c r="E29">
+        <v>43.5307</v>
+      </c>
+      <c r="F29">
+        <v>45.7407</v>
+      </c>
+      <c r="G29">
+        <v>0.38</v>
+      </c>
+      <c r="H29">
+        <v>167.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>5.29</v>
+      </c>
+      <c r="K29">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L29">
+        <v>5.15</v>
+      </c>
+      <c r="M29">
+        <v>5.28305085</v>
+      </c>
+      <c r="N29">
+        <v>-0.1330508500000001</v>
+      </c>
+      <c r="O29">
+        <v>-0.02927118700000001</v>
+      </c>
+      <c r="P29">
+        <v>-0.103779663</v>
+      </c>
+      <c r="Q29">
+        <v>0.03622033699999963</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1354161239494661</v>
+      </c>
+      <c r="T29">
+        <v>1.249941269726738</v>
+      </c>
+      <c r="U29">
+        <v>0.1155</v>
+      </c>
+      <c r="V29">
+        <v>0.2144594160020247</v>
+      </c>
+      <c r="W29">
+        <v>0.09072993745176615</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.9748155272819303</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1243478535950871</v>
+      </c>
+      <c r="C30">
+        <v>97.8897392489059</v>
+      </c>
+      <c r="D30">
+        <v>144.9445392489059</v>
+      </c>
+      <c r="E30">
+        <v>45.2248</v>
+      </c>
+      <c r="F30">
+        <v>47.4348</v>
+      </c>
+      <c r="G30">
+        <v>0.38</v>
+      </c>
+      <c r="H30">
+        <v>167.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5.29</v>
+      </c>
+      <c r="K30">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L30">
+        <v>5.15</v>
+      </c>
+      <c r="M30">
+        <v>5.4787194</v>
+      </c>
+      <c r="N30">
+        <v>-0.3287193999999998</v>
+      </c>
+      <c r="O30">
+        <v>-0.07231826799999995</v>
+      </c>
+      <c r="P30">
+        <v>-0.2564011319999998</v>
+      </c>
+      <c r="Q30">
+        <v>-0.1164011320000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1370774590043198</v>
+      </c>
+      <c r="T30">
+        <v>1.26730156513961</v>
+      </c>
+      <c r="U30">
+        <v>0.1155</v>
+      </c>
+      <c r="V30">
+        <v>0.2068001511448095</v>
+      </c>
+      <c r="W30">
+        <v>0.09161458254277451</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.9400006870218613</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1253448535950871</v>
+      </c>
+      <c r="C31">
+        <v>94.8764562760087</v>
+      </c>
+      <c r="D31">
+        <v>143.6253562760087</v>
+      </c>
+      <c r="E31">
+        <v>46.91889999999999</v>
+      </c>
+      <c r="F31">
+        <v>49.12889999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.38</v>
+      </c>
+      <c r="H31">
+        <v>167.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5.29</v>
+      </c>
+      <c r="K31">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L31">
+        <v>5.15</v>
+      </c>
+      <c r="M31">
+        <v>5.674387949999999</v>
+      </c>
+      <c r="N31">
+        <v>-0.5243879499999986</v>
+      </c>
+      <c r="O31">
+        <v>-0.1153653489999997</v>
+      </c>
+      <c r="P31">
+        <v>-0.4090226009999989</v>
+      </c>
+      <c r="Q31">
+        <v>-0.2690226009999993</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1387855922297327</v>
+      </c>
+      <c r="T31">
+        <v>1.285150882958477</v>
+      </c>
+      <c r="U31">
+        <v>0.1155</v>
+      </c>
+      <c r="V31">
+        <v>0.1996691114501609</v>
+      </c>
+      <c r="W31">
+        <v>0.0924382176275064</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.9075868702280043</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1263418535950871</v>
+      </c>
+      <c r="C32">
+        <v>91.88696927506604</v>
+      </c>
+      <c r="D32">
+        <v>142.329969275066</v>
+      </c>
+      <c r="E32">
+        <v>48.613</v>
+      </c>
+      <c r="F32">
+        <v>50.823</v>
+      </c>
+      <c r="G32">
+        <v>0.38</v>
+      </c>
+      <c r="H32">
+        <v>167.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5.29</v>
+      </c>
+      <c r="K32">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L32">
+        <v>5.15</v>
+      </c>
+      <c r="M32">
+        <v>5.8700565</v>
+      </c>
+      <c r="N32">
+        <v>-0.7200564999999992</v>
+      </c>
+      <c r="O32">
+        <v>-0.1584124299999998</v>
+      </c>
+      <c r="P32">
+        <v>-0.5616440699999994</v>
+      </c>
+      <c r="Q32">
+        <v>-0.4216440699999997</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1405425292615861</v>
+      </c>
+      <c r="T32">
+        <v>1.303510181286456</v>
+      </c>
+      <c r="U32">
+        <v>0.1155</v>
+      </c>
+      <c r="V32">
+        <v>0.1930134744018222</v>
+      </c>
+      <c r="W32">
+        <v>0.09320694370658952</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.8773339745537374</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1273388535950871</v>
+      </c>
+      <c r="C33">
+        <v>88.92064013881921</v>
+      </c>
+      <c r="D33">
+        <v>141.0577401388192</v>
+      </c>
+      <c r="E33">
+        <v>50.3071</v>
+      </c>
+      <c r="F33">
+        <v>52.5171</v>
+      </c>
+      <c r="G33">
+        <v>0.38</v>
+      </c>
+      <c r="H33">
+        <v>167.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>5.29</v>
+      </c>
+      <c r="K33">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L33">
+        <v>5.15</v>
+      </c>
+      <c r="M33">
+        <v>6.065725049999999</v>
+      </c>
+      <c r="N33">
+        <v>-0.9157250499999989</v>
+      </c>
+      <c r="O33">
+        <v>-0.2014595109999998</v>
+      </c>
+      <c r="P33">
+        <v>-0.7142655389999992</v>
+      </c>
+      <c r="Q33">
+        <v>-0.5742655389999995</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1423503920045076</v>
+      </c>
+      <c r="T33">
+        <v>1.322401633189158</v>
+      </c>
+      <c r="U33">
+        <v>0.1155</v>
+      </c>
+      <c r="V33">
+        <v>0.186787233292086</v>
+      </c>
+      <c r="W33">
+        <v>0.09392607455476405</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.8490328786003911</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1283358535950871</v>
+      </c>
+      <c r="C34">
+        <v>85.97685337299592</v>
+      </c>
+      <c r="D34">
+        <v>139.8080533729959</v>
+      </c>
+      <c r="E34">
+        <v>52.0012</v>
+      </c>
+      <c r="F34">
+        <v>54.2112</v>
+      </c>
+      <c r="G34">
+        <v>0.38</v>
+      </c>
+      <c r="H34">
+        <v>167.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>5.29</v>
+      </c>
+      <c r="K34">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L34">
+        <v>5.15</v>
+      </c>
+      <c r="M34">
+        <v>6.261393599999999</v>
+      </c>
+      <c r="N34">
+        <v>-1.111393599999999</v>
+      </c>
+      <c r="O34">
+        <v>-0.2445065919999997</v>
+      </c>
+      <c r="P34">
+        <v>-0.866887007999999</v>
+      </c>
+      <c r="Q34">
+        <v>-0.7268870079999993</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1442114271810445</v>
+      </c>
+      <c r="T34">
+        <v>1.341848716030175</v>
+      </c>
+      <c r="U34">
+        <v>0.1155</v>
+      </c>
+      <c r="V34">
+        <v>0.1809501322517083</v>
+      </c>
+      <c r="W34">
+        <v>0.09460025972492768</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.8225006011441289</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1407702876049449</v>
+      </c>
+      <c r="C35">
+        <v>70.37197468287465</v>
+      </c>
+      <c r="D35">
+        <v>125.8972746828747</v>
+      </c>
+      <c r="E35">
+        <v>53.6953</v>
+      </c>
+      <c r="F35">
+        <v>55.9053</v>
+      </c>
+      <c r="G35">
+        <v>0.38</v>
+      </c>
+      <c r="H35">
+        <v>167.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>5.29</v>
+      </c>
+      <c r="K35">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L35">
+        <v>5.15</v>
+      </c>
+      <c r="M35">
+        <v>8.201307510000001</v>
+      </c>
+      <c r="N35">
+        <v>-3.051307510000001</v>
+      </c>
+      <c r="O35">
+        <v>-0.6712876522000002</v>
+      </c>
+      <c r="P35">
+        <v>-2.380019857800001</v>
+      </c>
+      <c r="Q35">
+        <v>-2.240019857800001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1478316484969673</v>
+      </c>
+      <c r="T35">
+        <v>1.379678599484917</v>
+      </c>
+      <c r="U35">
+        <v>0.1467</v>
+      </c>
+      <c r="V35">
+        <v>0.1381487035595864</v>
+      </c>
+      <c r="W35">
+        <v>0.1264335851878087</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.6279486525435747</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1420792876049449</v>
+      </c>
+      <c r="C36">
+        <v>67.37283459525989</v>
+      </c>
+      <c r="D36">
+        <v>124.5922345952599</v>
+      </c>
+      <c r="E36">
+        <v>55.3894</v>
+      </c>
+      <c r="F36">
+        <v>57.5994</v>
+      </c>
+      <c r="G36">
+        <v>0.38</v>
+      </c>
+      <c r="H36">
+        <v>167.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>5.29</v>
+      </c>
+      <c r="K36">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L36">
+        <v>5.15</v>
+      </c>
+      <c r="M36">
+        <v>8.449831980000001</v>
+      </c>
+      <c r="N36">
+        <v>-3.29983198</v>
+      </c>
+      <c r="O36">
+        <v>-0.7259630356000001</v>
+      </c>
+      <c r="P36">
+        <v>-2.5738689444</v>
+      </c>
+      <c r="Q36">
+        <v>-2.433868944400001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1498321280196486</v>
+      </c>
+      <c r="T36">
+        <v>1.400582820689234</v>
+      </c>
+      <c r="U36">
+        <v>0.1467</v>
+      </c>
+      <c r="V36">
+        <v>0.1340855063960692</v>
+      </c>
+      <c r="W36">
+        <v>0.1270296562116967</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.6094795745275872</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1433882876049449</v>
+      </c>
+      <c r="C37">
+        <v>64.40047278810894</v>
+      </c>
+      <c r="D37">
+        <v>123.313972788109</v>
+      </c>
+      <c r="E37">
+        <v>57.0835</v>
+      </c>
+      <c r="F37">
+        <v>59.2935</v>
+      </c>
+      <c r="G37">
+        <v>0.38</v>
+      </c>
+      <c r="H37">
+        <v>167.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5.29</v>
+      </c>
+      <c r="K37">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L37">
+        <v>5.15</v>
+      </c>
+      <c r="M37">
+        <v>8.69835645</v>
+      </c>
+      <c r="N37">
+        <v>-3.54835645</v>
+      </c>
+      <c r="O37">
+        <v>-0.780638419</v>
+      </c>
+      <c r="P37">
+        <v>-2.767718031</v>
+      </c>
+      <c r="Q37">
+        <v>-2.627718031000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1518941607584124</v>
+      </c>
+      <c r="T37">
+        <v>1.422130248699838</v>
+      </c>
+      <c r="U37">
+        <v>0.1467</v>
+      </c>
+      <c r="V37">
+        <v>0.1302544919276101</v>
+      </c>
+      <c r="W37">
+        <v>0.1275916660342196</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.5920658723982276</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1446972876049449</v>
+      </c>
+      <c r="C38">
+        <v>61.45407343116391</v>
+      </c>
+      <c r="D38">
+        <v>122.0616734311639</v>
+      </c>
+      <c r="E38">
+        <v>58.77759999999999</v>
+      </c>
+      <c r="F38">
+        <v>60.98759999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.38</v>
+      </c>
+      <c r="H38">
+        <v>167.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5.29</v>
+      </c>
+      <c r="K38">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L38">
+        <v>5.15</v>
+      </c>
+      <c r="M38">
+        <v>8.946880919999998</v>
+      </c>
+      <c r="N38">
+        <v>-3.796880919999998</v>
+      </c>
+      <c r="O38">
+        <v>-0.8353138023999995</v>
+      </c>
+      <c r="P38">
+        <v>-2.961567117599998</v>
+      </c>
+      <c r="Q38">
+        <v>-2.821567117599999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1540206320202626</v>
+      </c>
+      <c r="T38">
+        <v>1.444351033835772</v>
+      </c>
+      <c r="U38">
+        <v>0.1467</v>
+      </c>
+      <c r="V38">
+        <v>0.1266363115962876</v>
+      </c>
+      <c r="W38">
+        <v>0.1281224530888246</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.5756195981649437</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1460062876049449</v>
+      </c>
+      <c r="C39">
+        <v>58.53285350124026</v>
+      </c>
+      <c r="D39">
+        <v>120.8345535012403</v>
+      </c>
+      <c r="E39">
+        <v>60.4717</v>
+      </c>
+      <c r="F39">
+        <v>62.6817</v>
+      </c>
+      <c r="G39">
+        <v>0.38</v>
+      </c>
+      <c r="H39">
+        <v>167.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5.29</v>
+      </c>
+      <c r="K39">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L39">
+        <v>5.15</v>
+      </c>
+      <c r="M39">
+        <v>9.195405389999999</v>
+      </c>
+      <c r="N39">
+        <v>-4.045405389999999</v>
+      </c>
+      <c r="O39">
+        <v>-0.8899891857999999</v>
+      </c>
+      <c r="P39">
+        <v>-3.155416204199999</v>
+      </c>
+      <c r="Q39">
+        <v>-3.0154162042</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1562146103062985</v>
+      </c>
+      <c r="T39">
+        <v>1.467277240722054</v>
+      </c>
+      <c r="U39">
+        <v>0.1467</v>
+      </c>
+      <c r="V39">
+        <v>0.1232137085801717</v>
+      </c>
+      <c r="W39">
+        <v>0.1286245489512888</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.5600623117280532</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1473152876049449</v>
+      </c>
+      <c r="C40">
+        <v>55.63606114954764</v>
+      </c>
+      <c r="D40">
+        <v>119.6318611495476</v>
+      </c>
+      <c r="E40">
+        <v>62.1658</v>
+      </c>
+      <c r="F40">
+        <v>64.3758</v>
+      </c>
+      <c r="G40">
+        <v>0.38</v>
+      </c>
+      <c r="H40">
+        <v>167.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>5.29</v>
+      </c>
+      <c r="K40">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L40">
+        <v>5.15</v>
+      </c>
+      <c r="M40">
+        <v>9.443929859999999</v>
+      </c>
+      <c r="N40">
+        <v>-4.293929859999999</v>
+      </c>
+      <c r="O40">
+        <v>-0.9446645691999997</v>
+      </c>
+      <c r="P40">
+        <v>-3.349265290799999</v>
+      </c>
+      <c r="Q40">
+        <v>-3.209265290799999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1584793620854323</v>
+      </c>
+      <c r="T40">
+        <v>1.490943002669185</v>
+      </c>
+      <c r="U40">
+        <v>0.1467</v>
+      </c>
+      <c r="V40">
+        <v>0.119971242564904</v>
+      </c>
+      <c r="W40">
+        <v>0.1291002187157286</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.5453238298404729</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1486242876049449</v>
+      </c>
+      <c r="C41">
+        <v>52.76297416555175</v>
+      </c>
+      <c r="D41">
+        <v>118.4528741655518</v>
+      </c>
+      <c r="E41">
+        <v>63.8599</v>
+      </c>
+      <c r="F41">
+        <v>66.0699</v>
+      </c>
+      <c r="G41">
+        <v>0.38</v>
+      </c>
+      <c r="H41">
+        <v>167.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>5.29</v>
+      </c>
+      <c r="K41">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L41">
+        <v>5.15</v>
+      </c>
+      <c r="M41">
+        <v>9.69245433</v>
+      </c>
+      <c r="N41">
+        <v>-4.54245433</v>
+      </c>
+      <c r="O41">
+        <v>-0.9993399526</v>
+      </c>
+      <c r="P41">
+        <v>-3.5431143774</v>
+      </c>
+      <c r="Q41">
+        <v>-3.403114377400001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1608183680212591</v>
+      </c>
+      <c r="T41">
+        <v>1.515384691237532</v>
+      </c>
+      <c r="U41">
+        <v>0.1467</v>
+      </c>
+      <c r="V41">
+        <v>0.1168950568581116</v>
+      </c>
+      <c r="W41">
+        <v>0.129551495158915</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.5313411675368709</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1499332876049449</v>
+      </c>
+      <c r="C42">
+        <v>49.91289853078331</v>
+      </c>
+      <c r="D42">
+        <v>117.2968985307833</v>
+      </c>
+      <c r="E42">
+        <v>65.554</v>
+      </c>
+      <c r="F42">
+        <v>67.764</v>
+      </c>
+      <c r="G42">
+        <v>0.38</v>
+      </c>
+      <c r="H42">
+        <v>167.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>5.29</v>
+      </c>
+      <c r="K42">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L42">
+        <v>5.15</v>
+      </c>
+      <c r="M42">
+        <v>9.9409788</v>
+      </c>
+      <c r="N42">
+        <v>-4.7909788</v>
+      </c>
+      <c r="O42">
+        <v>-1.054015336</v>
+      </c>
+      <c r="P42">
+        <v>-3.736963464</v>
+      </c>
+      <c r="Q42">
+        <v>-3.596963464</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1632353408216134</v>
+      </c>
+      <c r="T42">
+        <v>1.540641102758157</v>
+      </c>
+      <c r="U42">
+        <v>0.1467</v>
+      </c>
+      <c r="V42">
+        <v>0.1139726804366588</v>
+      </c>
+      <c r="W42">
+        <v>0.1299802077799422</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.5180576383484492</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1512422876049449</v>
+      </c>
+      <c r="C43">
+        <v>47.08516705650813</v>
+      </c>
+      <c r="D43">
+        <v>116.1632670565081</v>
+      </c>
+      <c r="E43">
+        <v>67.24810000000001</v>
+      </c>
+      <c r="F43">
+        <v>69.4581</v>
+      </c>
+      <c r="G43">
+        <v>0.38</v>
+      </c>
+      <c r="H43">
+        <v>167.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>5.29</v>
+      </c>
+      <c r="K43">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L43">
+        <v>5.15</v>
+      </c>
+      <c r="M43">
+        <v>10.18950327</v>
+      </c>
+      <c r="N43">
+        <v>-5.039503269999999</v>
+      </c>
+      <c r="O43">
+        <v>-1.1086907194</v>
+      </c>
+      <c r="P43">
+        <v>-3.930812550599999</v>
+      </c>
+      <c r="Q43">
+        <v>-3.7908125506</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1657342449033357</v>
+      </c>
+      <c r="T43">
+        <v>1.566753663821855</v>
+      </c>
+      <c r="U43">
+        <v>0.1467</v>
+      </c>
+      <c r="V43">
+        <v>0.111192858962594</v>
+      </c>
+      <c r="W43">
+        <v>0.1303880075901875</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.505422086193609</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1717876876534815</v>
+      </c>
+      <c r="C44">
+        <v>30.0910082600555</v>
+      </c>
+      <c r="D44">
+        <v>100.8632082600555</v>
+      </c>
+      <c r="E44">
+        <v>68.9422</v>
+      </c>
+      <c r="F44">
+        <v>71.15219999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.38</v>
+      </c>
+      <c r="H44">
+        <v>167.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>5.29</v>
+      </c>
+      <c r="K44">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L44">
+        <v>5.15</v>
+      </c>
+      <c r="M44">
+        <v>13.53314844</v>
+      </c>
+      <c r="N44">
+        <v>-8.383148439999999</v>
+      </c>
+      <c r="O44">
+        <v>-1.8442926568</v>
+      </c>
+      <c r="P44">
+        <v>-6.5388557832</v>
+      </c>
+      <c r="Q44">
+        <v>-6.3988557832</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1699855250715598</v>
+      </c>
+      <c r="T44">
+        <v>1.611177863135311</v>
+      </c>
+      <c r="U44">
+        <v>0.1902</v>
+      </c>
+      <c r="V44">
+        <v>0.08372035561593236</v>
+      </c>
+      <c r="W44">
+        <v>0.1742763883618497</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3805470709815106</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1735316876534815</v>
+      </c>
+      <c r="C45">
+        <v>27.28168887818987</v>
+      </c>
+      <c r="D45">
+        <v>99.74798887818987</v>
+      </c>
+      <c r="E45">
+        <v>70.63630000000001</v>
+      </c>
+      <c r="F45">
+        <v>72.8463</v>
+      </c>
+      <c r="G45">
+        <v>0.38</v>
+      </c>
+      <c r="H45">
+        <v>167.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>5.29</v>
+      </c>
+      <c r="K45">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L45">
+        <v>5.15</v>
+      </c>
+      <c r="M45">
+        <v>13.85536626</v>
+      </c>
+      <c r="N45">
+        <v>-8.70536626</v>
+      </c>
+      <c r="O45">
+        <v>-1.9151805772</v>
+      </c>
+      <c r="P45">
+        <v>-6.7901856828</v>
+      </c>
+      <c r="Q45">
+        <v>-6.6501856828</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1726905342833415</v>
+      </c>
+      <c r="T45">
+        <v>1.63944414143593</v>
+      </c>
+      <c r="U45">
+        <v>0.1902</v>
+      </c>
+      <c r="V45">
+        <v>0.08177337060160834</v>
+      </c>
+      <c r="W45">
+        <v>0.1746467049115741</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3716971390982197</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1752756876534816</v>
+      </c>
+      <c r="C46">
+        <v>24.49676120932564</v>
+      </c>
+      <c r="D46">
+        <v>98.65716120932565</v>
+      </c>
+      <c r="E46">
+        <v>72.33040000000001</v>
+      </c>
+      <c r="F46">
+        <v>74.54040000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.38</v>
+      </c>
+      <c r="H46">
+        <v>167.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>5.29</v>
+      </c>
+      <c r="K46">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L46">
+        <v>5.15</v>
+      </c>
+      <c r="M46">
+        <v>14.17758408</v>
+      </c>
+      <c r="N46">
+        <v>-9.02758408</v>
+      </c>
+      <c r="O46">
+        <v>-1.9860684976</v>
+      </c>
+      <c r="P46">
+        <v>-7.041515582400001</v>
+      </c>
+      <c r="Q46">
+        <v>-6.901515582400001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1754921509669726</v>
+      </c>
+      <c r="T46">
+        <v>1.668719929675858</v>
+      </c>
+      <c r="U46">
+        <v>0.1902</v>
+      </c>
+      <c r="V46">
+        <v>0.07991488490611723</v>
+      </c>
+      <c r="W46">
+        <v>0.1750001888908565</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.3632494768459874</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1770196876534816</v>
+      </c>
+      <c r="C47">
+        <v>21.7354336786603</v>
+      </c>
+      <c r="D47">
+        <v>97.5899336786603</v>
+      </c>
+      <c r="E47">
+        <v>74.0245</v>
+      </c>
+      <c r="F47">
+        <v>76.2345</v>
+      </c>
+      <c r="G47">
+        <v>0.38</v>
+      </c>
+      <c r="H47">
+        <v>167.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>5.29</v>
+      </c>
+      <c r="K47">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L47">
+        <v>5.15</v>
+      </c>
+      <c r="M47">
+        <v>14.4998019</v>
+      </c>
+      <c r="N47">
+        <v>-9.349801899999999</v>
+      </c>
+      <c r="O47">
+        <v>-2.056956418</v>
+      </c>
+      <c r="P47">
+        <v>-7.292845481999999</v>
+      </c>
+      <c r="Q47">
+        <v>-7.152845481999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1783956446209176</v>
+      </c>
+      <c r="T47">
+        <v>1.6990602920336</v>
+      </c>
+      <c r="U47">
+        <v>0.1902</v>
+      </c>
+      <c r="V47">
+        <v>0.07813899857487019</v>
+      </c>
+      <c r="W47">
+        <v>0.1753379624710597</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.3551772662494099</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1787636876534816</v>
+      </c>
+      <c r="C48">
+        <v>18.99694859639904</v>
+      </c>
+      <c r="D48">
+        <v>96.54554859639904</v>
+      </c>
+      <c r="E48">
+        <v>75.71860000000001</v>
+      </c>
+      <c r="F48">
+        <v>77.9286</v>
+      </c>
+      <c r="G48">
+        <v>0.38</v>
+      </c>
+      <c r="H48">
+        <v>167.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5.29</v>
+      </c>
+      <c r="K48">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L48">
+        <v>5.15</v>
+      </c>
+      <c r="M48">
+        <v>14.82201972</v>
+      </c>
+      <c r="N48">
+        <v>-9.672019720000002</v>
+      </c>
+      <c r="O48">
+        <v>-2.127844338400001</v>
+      </c>
+      <c r="P48">
+        <v>-7.544175381600001</v>
+      </c>
+      <c r="Q48">
+        <v>-7.404175381600001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1814066750768605</v>
+      </c>
+      <c r="T48">
+        <v>1.730524371515704</v>
+      </c>
+      <c r="U48">
+        <v>0.1902</v>
+      </c>
+      <c r="V48">
+        <v>0.07644032469280779</v>
+      </c>
+      <c r="W48">
+        <v>0.175661050243428</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.3474560213309444</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1805076876534815</v>
+      </c>
+      <c r="C49">
+        <v>16.28058036380531</v>
+      </c>
+      <c r="D49">
+        <v>95.52328036380533</v>
+      </c>
+      <c r="E49">
+        <v>77.41270000000002</v>
+      </c>
+      <c r="F49">
+        <v>79.62270000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.38</v>
+      </c>
+      <c r="H49">
+        <v>167.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>5.29</v>
+      </c>
+      <c r="K49">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L49">
+        <v>5.15</v>
+      </c>
+      <c r="M49">
+        <v>15.14423754</v>
+      </c>
+      <c r="N49">
+        <v>-9.994237540000002</v>
+      </c>
+      <c r="O49">
+        <v>-2.198732258800001</v>
+      </c>
+      <c r="P49">
+        <v>-7.795505281200001</v>
+      </c>
+      <c r="Q49">
+        <v>-7.655505281200002</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1845313293235937</v>
+      </c>
+      <c r="T49">
+        <v>1.76317577475185</v>
+      </c>
+      <c r="U49">
+        <v>0.1902</v>
+      </c>
+      <c r="V49">
+        <v>0.07481393480572678</v>
+      </c>
+      <c r="W49">
+        <v>0.1759703895999508</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.3400633400260308</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1822516876534815</v>
+      </c>
+      <c r="C50">
+        <v>13.58563379202836</v>
+      </c>
+      <c r="D50">
+        <v>94.52243379202837</v>
+      </c>
+      <c r="E50">
+        <v>79.10680000000001</v>
+      </c>
+      <c r="F50">
+        <v>81.3168</v>
+      </c>
+      <c r="G50">
+        <v>0.38</v>
+      </c>
+      <c r="H50">
+        <v>167.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>5.29</v>
+      </c>
+      <c r="K50">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L50">
+        <v>5.15</v>
+      </c>
+      <c r="M50">
+        <v>15.46645536</v>
+      </c>
+      <c r="N50">
+        <v>-10.31645536</v>
+      </c>
+      <c r="O50">
+        <v>-2.2696201792</v>
+      </c>
+      <c r="P50">
+        <v>-8.0468351808</v>
+      </c>
+      <c r="Q50">
+        <v>-7.906835180800001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1877761625798167</v>
+      </c>
+      <c r="T50">
+        <v>1.797083001189385</v>
+      </c>
+      <c r="U50">
+        <v>0.1902</v>
+      </c>
+      <c r="V50">
+        <v>0.0732553111639408</v>
+      </c>
+      <c r="W50">
+        <v>0.1762668398166185</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.3329786871088218</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1839956876534815</v>
+      </c>
+      <c r="C51">
+        <v>10.91144252552149</v>
+      </c>
+      <c r="D51">
+        <v>93.54234252552149</v>
+      </c>
+      <c r="E51">
+        <v>80.8009</v>
+      </c>
+      <c r="F51">
+        <v>83.01089999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.38</v>
+      </c>
+      <c r="H51">
+        <v>167.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5.29</v>
+      </c>
+      <c r="K51">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L51">
+        <v>5.15</v>
+      </c>
+      <c r="M51">
+        <v>15.78867318</v>
+      </c>
+      <c r="N51">
+        <v>-10.63867318</v>
+      </c>
+      <c r="O51">
+        <v>-2.3405080996</v>
+      </c>
+      <c r="P51">
+        <v>-8.2981650804</v>
+      </c>
+      <c r="Q51">
+        <v>-8.1581650804</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1911482441990287</v>
+      </c>
+      <c r="T51">
+        <v>1.832319922781334</v>
+      </c>
+      <c r="U51">
+        <v>0.1902</v>
+      </c>
+      <c r="V51">
+        <v>0.07176030481365631</v>
+      </c>
+      <c r="W51">
+        <v>0.1765511900244426</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.3261832036984377</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1857396876534815</v>
+      </c>
+      <c r="C52">
+        <v>8.257367562538391</v>
+      </c>
+      <c r="D52">
+        <v>92.58236756253839</v>
+      </c>
+      <c r="E52">
+        <v>82.495</v>
+      </c>
+      <c r="F52">
+        <v>84.705</v>
+      </c>
+      <c r="G52">
+        <v>0.38</v>
+      </c>
+      <c r="H52">
+        <v>167.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>5.29</v>
+      </c>
+      <c r="K52">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L52">
+        <v>5.15</v>
+      </c>
+      <c r="M52">
+        <v>16.110891</v>
+      </c>
+      <c r="N52">
+        <v>-10.960891</v>
+      </c>
+      <c r="O52">
+        <v>-2.41139602</v>
+      </c>
+      <c r="P52">
+        <v>-8.549494979999999</v>
+      </c>
+      <c r="Q52">
+        <v>-8.409494979999998</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1946552090830093</v>
+      </c>
+      <c r="T52">
+        <v>1.86896632123696</v>
+      </c>
+      <c r="U52">
+        <v>0.1902</v>
+      </c>
+      <c r="V52">
+        <v>0.07032509871738317</v>
+      </c>
+      <c r="W52">
+        <v>0.1768241662239537</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.319659539624469</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1874836876534816</v>
+      </c>
+      <c r="C53">
+        <v>5.622795865804079</v>
+      </c>
+      <c r="D53">
+        <v>91.64189586580409</v>
+      </c>
+      <c r="E53">
+        <v>84.18910000000001</v>
+      </c>
+      <c r="F53">
+        <v>86.3991</v>
+      </c>
+      <c r="G53">
+        <v>0.38</v>
+      </c>
+      <c r="H53">
+        <v>167.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5.29</v>
+      </c>
+      <c r="K53">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L53">
+        <v>5.15</v>
+      </c>
+      <c r="M53">
+        <v>16.43310882</v>
+      </c>
+      <c r="N53">
+        <v>-11.28310882</v>
+      </c>
+      <c r="O53">
+        <v>-2.4822839404</v>
+      </c>
+      <c r="P53">
+        <v>-8.8008248796</v>
+      </c>
+      <c r="Q53">
+        <v>-8.6608248796</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1983053153908259</v>
+      </c>
+      <c r="T53">
+        <v>1.907108491058123</v>
+      </c>
+      <c r="U53">
+        <v>0.1902</v>
+      </c>
+      <c r="V53">
+        <v>0.06894617521312074</v>
+      </c>
+      <c r="W53">
+        <v>0.1770864374744645</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.3133917055141853</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1892276876534815</v>
+      </c>
+      <c r="C54">
+        <v>3.007139057013021</v>
+      </c>
+      <c r="D54">
+        <v>90.72033905701302</v>
+      </c>
+      <c r="E54">
+        <v>85.8832</v>
+      </c>
+      <c r="F54">
+        <v>88.0932</v>
+      </c>
+      <c r="G54">
+        <v>0.38</v>
+      </c>
+      <c r="H54">
+        <v>167.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5.29</v>
+      </c>
+      <c r="K54">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L54">
+        <v>5.15</v>
+      </c>
+      <c r="M54">
+        <v>16.75532664</v>
+      </c>
+      <c r="N54">
+        <v>-11.60532664</v>
+      </c>
+      <c r="O54">
+        <v>-2.5531718608</v>
+      </c>
+      <c r="P54">
+        <v>-9.052154779199999</v>
+      </c>
+      <c r="Q54">
+        <v>-8.912154779199998</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.202107509461468</v>
+      </c>
+      <c r="T54">
+        <v>1.946839917955167</v>
+      </c>
+      <c r="U54">
+        <v>0.1902</v>
+      </c>
+      <c r="V54">
+        <v>0.06762028722825306</v>
+      </c>
+      <c r="W54">
+        <v>0.1773386213691863</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.3073649419466048</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1909716876534815</v>
+      </c>
+      <c r="C55">
+        <v>0.4098321893118282</v>
+      </c>
+      <c r="D55">
+        <v>89.81713218931183</v>
+      </c>
+      <c r="E55">
+        <v>87.57730000000001</v>
+      </c>
+      <c r="F55">
+        <v>89.7873</v>
+      </c>
+      <c r="G55">
+        <v>0.38</v>
+      </c>
+      <c r="H55">
+        <v>167.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>5.29</v>
+      </c>
+      <c r="K55">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L55">
+        <v>5.15</v>
+      </c>
+      <c r="M55">
+        <v>17.07754446</v>
+      </c>
+      <c r="N55">
+        <v>-11.92754446</v>
+      </c>
+      <c r="O55">
+        <v>-2.624059781200001</v>
+      </c>
+      <c r="P55">
+        <v>-9.3034846788</v>
+      </c>
+      <c r="Q55">
+        <v>-9.1634846788</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.206071499024478</v>
+      </c>
+      <c r="T55">
+        <v>1.988262043869107</v>
+      </c>
+      <c r="U55">
+        <v>0.1902</v>
+      </c>
+      <c r="V55">
+        <v>0.06634443275224827</v>
+      </c>
+      <c r="W55">
+        <v>0.1775812888905224</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.3015656034193103</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1927156876534815</v>
+      </c>
+      <c r="C56">
+        <v>-2.169667407613517</v>
+      </c>
+      <c r="D56">
+        <v>88.9317325923865</v>
+      </c>
+      <c r="E56">
+        <v>89.27140000000001</v>
+      </c>
+      <c r="F56">
+        <v>91.48140000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.38</v>
+      </c>
+      <c r="H56">
+        <v>167.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.29</v>
+      </c>
+      <c r="K56">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L56">
+        <v>5.15</v>
+      </c>
+      <c r="M56">
+        <v>17.39976228</v>
+      </c>
+      <c r="N56">
+        <v>-12.24976228</v>
+      </c>
+      <c r="O56">
+        <v>-2.6949477016</v>
+      </c>
+      <c r="P56">
+        <v>-9.5548145784</v>
+      </c>
+      <c r="Q56">
+        <v>-9.414814578400001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2102078359597928</v>
+      </c>
+      <c r="T56">
+        <v>2.031485131779305</v>
+      </c>
+      <c r="U56">
+        <v>0.1902</v>
+      </c>
+      <c r="V56">
+        <v>0.06511583214572515</v>
+      </c>
+      <c r="W56">
+        <v>0.1778149687258831</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2959810552078416</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1944596876534815</v>
+      </c>
+      <c r="C57">
+        <v>-4.731881214808439</v>
+      </c>
+      <c r="D57">
+        <v>88.06361878519157</v>
+      </c>
+      <c r="E57">
+        <v>90.96550000000001</v>
+      </c>
+      <c r="F57">
+        <v>93.1755</v>
+      </c>
+      <c r="G57">
+        <v>0.38</v>
+      </c>
+      <c r="H57">
+        <v>167.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.29</v>
+      </c>
+      <c r="K57">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L57">
+        <v>5.15</v>
+      </c>
+      <c r="M57">
+        <v>17.7219801</v>
+      </c>
+      <c r="N57">
+        <v>-12.5719801</v>
+      </c>
+      <c r="O57">
+        <v>-2.765835622</v>
+      </c>
+      <c r="P57">
+        <v>-9.806144478</v>
+      </c>
+      <c r="Q57">
+        <v>-9.666144478</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2145280100922326</v>
+      </c>
+      <c r="T57">
+        <v>2.076629245818845</v>
+      </c>
+      <c r="U57">
+        <v>0.1902</v>
+      </c>
+      <c r="V57">
+        <v>0.0639319079248938</v>
+      </c>
+      <c r="W57">
+        <v>0.1780401511126852</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.29059958147679</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1962036876534815</v>
+      </c>
+      <c r="C58">
+        <v>-7.277310548255187</v>
+      </c>
+      <c r="D58">
+        <v>87.21228945174482</v>
+      </c>
+      <c r="E58">
+        <v>92.65960000000001</v>
+      </c>
+      <c r="F58">
+        <v>94.86960000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.38</v>
+      </c>
+      <c r="H58">
+        <v>167.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>5.29</v>
+      </c>
+      <c r="K58">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L58">
+        <v>5.15</v>
+      </c>
+      <c r="M58">
+        <v>18.04419792</v>
+      </c>
+      <c r="N58">
+        <v>-12.89419792</v>
+      </c>
+      <c r="O58">
+        <v>-2.836723542400001</v>
+      </c>
+      <c r="P58">
+        <v>-10.0574743776</v>
+      </c>
+      <c r="Q58">
+        <v>-9.917474377600001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.219044555776147</v>
+      </c>
+      <c r="T58">
+        <v>2.123825365042001</v>
+      </c>
+      <c r="U58">
+        <v>0.1902</v>
+      </c>
+      <c r="V58">
+        <v>0.06279026671194926</v>
+      </c>
+      <c r="W58">
+        <v>0.1782572912713873</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2854103032361329</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1979476876534815</v>
+      </c>
+      <c r="C59">
+        <v>-9.806437524239641</v>
+      </c>
+      <c r="D59">
+        <v>86.37726247576038</v>
+      </c>
+      <c r="E59">
+        <v>94.35370000000002</v>
+      </c>
+      <c r="F59">
+        <v>96.56370000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.38</v>
+      </c>
+      <c r="H59">
+        <v>167.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>5.29</v>
+      </c>
+      <c r="K59">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L59">
+        <v>5.15</v>
+      </c>
+      <c r="M59">
+        <v>18.36641574</v>
+      </c>
+      <c r="N59">
+        <v>-13.21641574</v>
+      </c>
+      <c r="O59">
+        <v>-2.907611462800001</v>
+      </c>
+      <c r="P59">
+        <v>-10.3088042772</v>
+      </c>
+      <c r="Q59">
+        <v>-10.1688042772</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2237711733523365</v>
+      </c>
+      <c r="T59">
+        <v>2.173216652601117</v>
+      </c>
+      <c r="U59">
+        <v>0.1902</v>
+      </c>
+      <c r="V59">
+        <v>0.06168868308542382</v>
+      </c>
+      <c r="W59">
+        <v>0.1784668124771524</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2804031049337447</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1996916876534816</v>
+      </c>
+      <c r="C60">
+        <v>-12.31972596978584</v>
+      </c>
+      <c r="D60">
+        <v>85.55807403021416</v>
+      </c>
+      <c r="E60">
+        <v>96.0478</v>
+      </c>
+      <c r="F60">
+        <v>98.25779999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.38</v>
+      </c>
+      <c r="H60">
+        <v>167.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.29</v>
+      </c>
+      <c r="K60">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L60">
+        <v>5.15</v>
+      </c>
+      <c r="M60">
+        <v>18.68863356</v>
+      </c>
+      <c r="N60">
+        <v>-13.53863356</v>
+      </c>
+      <c r="O60">
+        <v>-2.9784993832</v>
+      </c>
+      <c r="P60">
+        <v>-10.5601341768</v>
+      </c>
+      <c r="Q60">
+        <v>-10.4201341768</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2287228679559635</v>
+      </c>
+      <c r="T60">
+        <v>2.224959906234477</v>
+      </c>
+      <c r="U60">
+        <v>0.1902</v>
+      </c>
+      <c r="V60">
+        <v>0.06062508510119239</v>
+      </c>
+      <c r="W60">
+        <v>0.1786691088137532</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2755685686417836</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2014356876534815</v>
+      </c>
+      <c r="C61">
+        <v>-14.81762228177097</v>
+      </c>
+      <c r="D61">
+        <v>84.75427771822903</v>
+      </c>
+      <c r="E61">
+        <v>97.7419</v>
+      </c>
+      <c r="F61">
+        <v>99.95189999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.38</v>
+      </c>
+      <c r="H61">
+        <v>167.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>5.29</v>
+      </c>
+      <c r="K61">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L61">
+        <v>5.15</v>
+      </c>
+      <c r="M61">
+        <v>19.01085138</v>
+      </c>
+      <c r="N61">
+        <v>-13.86085138</v>
+      </c>
+      <c r="O61">
+        <v>-3.0493873036</v>
+      </c>
+      <c r="P61">
+        <v>-10.8114640764</v>
+      </c>
+      <c r="Q61">
+        <v>-10.6714640764</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2339161086378162</v>
+      </c>
+      <c r="T61">
+        <v>2.279227221020683</v>
+      </c>
+      <c r="U61">
+        <v>0.1902</v>
+      </c>
+      <c r="V61">
+        <v>0.05959754128591795</v>
+      </c>
+      <c r="W61">
+        <v>0.1788645476474184</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2708979149359907</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2031796876534815</v>
+      </c>
+      <c r="C62">
+        <v>-17.30055623806371</v>
+      </c>
+      <c r="D62">
+        <v>83.9654437619363</v>
+      </c>
+      <c r="E62">
+        <v>99.43600000000001</v>
+      </c>
+      <c r="F62">
+        <v>101.646</v>
+      </c>
+      <c r="G62">
+        <v>0.38</v>
+      </c>
+      <c r="H62">
+        <v>167.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>5.29</v>
+      </c>
+      <c r="K62">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L62">
+        <v>5.15</v>
+      </c>
+      <c r="M62">
+        <v>19.3330692</v>
+      </c>
+      <c r="N62">
+        <v>-14.1830692</v>
+      </c>
+      <c r="O62">
+        <v>-3.120275224</v>
+      </c>
+      <c r="P62">
+        <v>-11.062793976</v>
+      </c>
+      <c r="Q62">
+        <v>-10.922793976</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2393690113537617</v>
+      </c>
+      <c r="T62">
+        <v>2.336207901546201</v>
+      </c>
+      <c r="U62">
+        <v>0.1902</v>
+      </c>
+      <c r="V62">
+        <v>0.05860424893115264</v>
+      </c>
+      <c r="W62">
+        <v>0.1790534718532948</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2663829496870574</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2049236876534815</v>
+      </c>
+      <c r="C63">
+        <v>-19.76894176378335</v>
+      </c>
+      <c r="D63">
+        <v>83.19115823621665</v>
+      </c>
+      <c r="E63">
+        <v>101.1301</v>
+      </c>
+      <c r="F63">
+        <v>103.3401</v>
+      </c>
+      <c r="G63">
+        <v>0.38</v>
+      </c>
+      <c r="H63">
+        <v>167.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.29</v>
+      </c>
+      <c r="K63">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L63">
+        <v>5.15</v>
+      </c>
+      <c r="M63">
+        <v>19.65528702</v>
+      </c>
+      <c r="N63">
+        <v>-14.50528702</v>
+      </c>
+      <c r="O63">
+        <v>-3.1911631444</v>
+      </c>
+      <c r="P63">
+        <v>-11.3141238756</v>
+      </c>
+      <c r="Q63">
+        <v>-11.1741238756</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2451015501064222</v>
+      </c>
+      <c r="T63">
+        <v>2.396110668252514</v>
+      </c>
+      <c r="U63">
+        <v>0.1902</v>
+      </c>
+      <c r="V63">
+        <v>0.05764352353883866</v>
+      </c>
+      <c r="W63">
+        <v>0.1792362018229129</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2620160160856303</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2066676876534815</v>
+      </c>
+      <c r="C64">
+        <v>-22.22317765555024</v>
+      </c>
+      <c r="D64">
+        <v>82.43102234444976</v>
+      </c>
+      <c r="E64">
+        <v>102.8242</v>
+      </c>
+      <c r="F64">
+        <v>105.0342</v>
+      </c>
+      <c r="G64">
+        <v>0.38</v>
+      </c>
+      <c r="H64">
+        <v>167.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>5.29</v>
+      </c>
+      <c r="K64">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L64">
+        <v>5.15</v>
+      </c>
+      <c r="M64">
+        <v>19.97750484</v>
+      </c>
+      <c r="N64">
+        <v>-14.82750484</v>
+      </c>
+      <c r="O64">
+        <v>-3.262051064800001</v>
+      </c>
+      <c r="P64">
+        <v>-11.5654537752</v>
+      </c>
+      <c r="Q64">
+        <v>-11.4254537752</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2511358014250123</v>
+      </c>
+      <c r="T64">
+        <v>2.459166212153896</v>
+      </c>
+      <c r="U64">
+        <v>0.1902</v>
+      </c>
+      <c r="V64">
+        <v>0.05671378928821223</v>
+      </c>
+      <c r="W64">
+        <v>0.179413037277382</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2577899513100556</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2084116876534815</v>
+      </c>
+      <c r="C65">
+        <v>-24.66364826638957</v>
+      </c>
+      <c r="D65">
+        <v>81.68465173361044</v>
+      </c>
+      <c r="E65">
+        <v>104.5183</v>
+      </c>
+      <c r="F65">
+        <v>106.7283</v>
+      </c>
+      <c r="G65">
+        <v>0.38</v>
+      </c>
+      <c r="H65">
+        <v>167.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>5.29</v>
+      </c>
+      <c r="K65">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L65">
+        <v>5.15</v>
+      </c>
+      <c r="M65">
+        <v>20.29972266</v>
+      </c>
+      <c r="N65">
+        <v>-15.14972266</v>
+      </c>
+      <c r="O65">
+        <v>-3.3329389852</v>
+      </c>
+      <c r="P65">
+        <v>-11.8167836748</v>
+      </c>
+      <c r="Q65">
+        <v>-11.6767836748</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2574962284905531</v>
+      </c>
+      <c r="T65">
+        <v>2.525630163833731</v>
+      </c>
+      <c r="U65">
+        <v>0.1902</v>
+      </c>
+      <c r="V65">
+        <v>0.05581357041062156</v>
+      </c>
+      <c r="W65">
+        <v>0.1795842589078998</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2536980473210071</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2101556876534815</v>
+      </c>
+      <c r="C66">
+        <v>-27.09072415376058</v>
+      </c>
+      <c r="D66">
+        <v>80.95167584623943</v>
+      </c>
+      <c r="E66">
+        <v>106.2124</v>
+      </c>
+      <c r="F66">
+        <v>108.4224</v>
+      </c>
+      <c r="G66">
+        <v>0.38</v>
+      </c>
+      <c r="H66">
+        <v>167.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5.29</v>
+      </c>
+      <c r="K66">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L66">
+        <v>5.15</v>
+      </c>
+      <c r="M66">
+        <v>20.62194048</v>
+      </c>
+      <c r="N66">
+        <v>-15.47194048</v>
+      </c>
+      <c r="O66">
+        <v>-3.4038269056</v>
+      </c>
+      <c r="P66">
+        <v>-12.0681135744</v>
+      </c>
+      <c r="Q66">
+        <v>-11.9281135744</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2642100126152908</v>
+      </c>
+      <c r="T66">
+        <v>2.595786557273557</v>
+      </c>
+      <c r="U66">
+        <v>0.1902</v>
+      </c>
+      <c r="V66">
+        <v>0.0549414833729556</v>
+      </c>
+      <c r="W66">
+        <v>0.1797501298624639</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2497340153316164</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2118996876534815</v>
+      </c>
+      <c r="C67">
+        <v>-29.50476269300655</v>
+      </c>
+      <c r="D67">
+        <v>80.23173730699345</v>
+      </c>
+      <c r="E67">
+        <v>107.9065</v>
+      </c>
+      <c r="F67">
+        <v>110.1165</v>
+      </c>
+      <c r="G67">
+        <v>0.38</v>
+      </c>
+      <c r="H67">
+        <v>167.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>5.29</v>
+      </c>
+      <c r="K67">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L67">
+        <v>5.15</v>
+      </c>
+      <c r="M67">
+        <v>20.9441583</v>
+      </c>
+      <c r="N67">
+        <v>-15.7941583</v>
+      </c>
+      <c r="O67">
+        <v>-3.474714826</v>
+      </c>
+      <c r="P67">
+        <v>-12.319443474</v>
+      </c>
+      <c r="Q67">
+        <v>-12.179443474</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2713074415471561</v>
+      </c>
+      <c r="T67">
+        <v>2.669951887481372</v>
+      </c>
+      <c r="U67">
+        <v>0.1902</v>
+      </c>
+      <c r="V67">
+        <v>0.05409622978260244</v>
+      </c>
+      <c r="W67">
+        <v>0.179910897095349</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2458919535572838</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2136436876534815</v>
+      </c>
+      <c r="C68">
+        <v>-31.90610865835913</v>
+      </c>
+      <c r="D68">
+        <v>79.52449134164088</v>
+      </c>
+      <c r="E68">
+        <v>109.6006</v>
+      </c>
+      <c r="F68">
+        <v>111.8106</v>
+      </c>
+      <c r="G68">
+        <v>0.38</v>
+      </c>
+      <c r="H68">
+        <v>167.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>5.29</v>
+      </c>
+      <c r="K68">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L68">
+        <v>5.15</v>
+      </c>
+      <c r="M68">
+        <v>21.26637612</v>
+      </c>
+      <c r="N68">
+        <v>-16.11637612000001</v>
+      </c>
+      <c r="O68">
+        <v>-3.545602746400001</v>
+      </c>
+      <c r="P68">
+        <v>-12.57077337360001</v>
+      </c>
+      <c r="Q68">
+        <v>-12.4307733736</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2788223662985431</v>
+      </c>
+      <c r="T68">
+        <v>2.748479884172001</v>
+      </c>
+      <c r="U68">
+        <v>0.1902</v>
+      </c>
+      <c r="V68">
+        <v>0.05327658993741149</v>
+      </c>
+      <c r="W68">
+        <v>0.1800667925939043</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2421663178973248</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2153876876534815</v>
+      </c>
+      <c r="C69">
+        <v>-34.29509477348168</v>
+      </c>
+      <c r="D69">
+        <v>78.82960522651832</v>
+      </c>
+      <c r="E69">
+        <v>111.2947</v>
+      </c>
+      <c r="F69">
+        <v>113.5047</v>
+      </c>
+      <c r="G69">
+        <v>0.38</v>
+      </c>
+      <c r="H69">
+        <v>167.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5.29</v>
+      </c>
+      <c r="K69">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L69">
+        <v>5.15</v>
+      </c>
+      <c r="M69">
+        <v>21.58859394</v>
+      </c>
+      <c r="N69">
+        <v>-16.43859394</v>
+      </c>
+      <c r="O69">
+        <v>-3.616490666799999</v>
+      </c>
+      <c r="P69">
+        <v>-12.8221032732</v>
+      </c>
+      <c r="Q69">
+        <v>-12.6821032732</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2867927410348627</v>
+      </c>
+      <c r="T69">
+        <v>2.831767153389335</v>
+      </c>
+      <c r="U69">
+        <v>0.1902</v>
+      </c>
+      <c r="V69">
+        <v>0.05248141695327102</v>
+      </c>
+      <c r="W69">
+        <v>0.1802180344954879</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2385518952421412</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2171316876534815</v>
+      </c>
+      <c r="C70">
+        <v>-36.67204223339901</v>
+      </c>
+      <c r="D70">
+        <v>78.146757766601</v>
+      </c>
+      <c r="E70">
+        <v>112.9888</v>
+      </c>
+      <c r="F70">
+        <v>115.1988</v>
+      </c>
+      <c r="G70">
+        <v>0.38</v>
+      </c>
+      <c r="H70">
+        <v>167.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>5.29</v>
+      </c>
+      <c r="K70">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L70">
+        <v>5.15</v>
+      </c>
+      <c r="M70">
+        <v>21.91081176</v>
+      </c>
+      <c r="N70">
+        <v>-16.76081176</v>
+      </c>
+      <c r="O70">
+        <v>-3.6873785872</v>
+      </c>
+      <c r="P70">
+        <v>-13.0734331728</v>
+      </c>
+      <c r="Q70">
+        <v>-12.9334331728</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2952612641922021</v>
+      </c>
+      <c r="T70">
+        <v>2.920259876932751</v>
+      </c>
+      <c r="U70">
+        <v>0.1902</v>
+      </c>
+      <c r="V70">
+        <v>0.05170963140984056</v>
+      </c>
+      <c r="W70">
+        <v>0.1803648281058483</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2350437791356389</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2188756876534815</v>
+      </c>
+      <c r="C71">
+        <v>-39.03726119953299</v>
+      </c>
+      <c r="D71">
+        <v>77.47563880046702</v>
+      </c>
+      <c r="E71">
+        <v>114.6829</v>
+      </c>
+      <c r="F71">
+        <v>116.8929</v>
+      </c>
+      <c r="G71">
+        <v>0.38</v>
+      </c>
+      <c r="H71">
+        <v>167.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>5.29</v>
+      </c>
+      <c r="K71">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L71">
+        <v>5.15</v>
+      </c>
+      <c r="M71">
+        <v>22.23302958</v>
+      </c>
+      <c r="N71">
+        <v>-17.08302958</v>
+      </c>
+      <c r="O71">
+        <v>-3.758266507600001</v>
+      </c>
+      <c r="P71">
+        <v>-13.3247630724</v>
+      </c>
+      <c r="Q71">
+        <v>-13.1847630724</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3042761436822731</v>
+      </c>
+      <c r="T71">
+        <v>3.014461808446711</v>
+      </c>
+      <c r="U71">
+        <v>0.1902</v>
+      </c>
+      <c r="V71">
+        <v>0.05096021646187186</v>
+      </c>
+      <c r="W71">
+        <v>0.180507366828952</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.231637347553963</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2206196876534816</v>
+      </c>
+      <c r="C72">
+        <v>-41.39105126944762</v>
+      </c>
+      <c r="D72">
+        <v>76.81594873055239</v>
+      </c>
+      <c r="E72">
+        <v>116.377</v>
+      </c>
+      <c r="F72">
+        <v>118.587</v>
+      </c>
+      <c r="G72">
+        <v>0.38</v>
+      </c>
+      <c r="H72">
+        <v>167.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>5.29</v>
+      </c>
+      <c r="K72">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L72">
+        <v>5.15</v>
+      </c>
+      <c r="M72">
+        <v>22.5552474</v>
+      </c>
+      <c r="N72">
+        <v>-17.4052474</v>
+      </c>
+      <c r="O72">
+        <v>-3.829154428</v>
+      </c>
+      <c r="P72">
+        <v>-13.576092972</v>
+      </c>
+      <c r="Q72">
+        <v>-13.436092972</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3138920151383489</v>
+      </c>
+      <c r="T72">
+        <v>3.114943868728268</v>
+      </c>
+      <c r="U72">
+        <v>0.1902</v>
+      </c>
+      <c r="V72">
+        <v>0.0502322133695594</v>
+      </c>
+      <c r="W72">
+        <v>0.1806458330171098</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2283282425889065</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2223636876534815</v>
+      </c>
+      <c r="C73">
+        <v>-43.73370192279775</v>
+      </c>
+      <c r="D73">
+        <v>76.16739807720225</v>
+      </c>
+      <c r="E73">
+        <v>118.0711</v>
+      </c>
+      <c r="F73">
+        <v>120.2811</v>
+      </c>
+      <c r="G73">
+        <v>0.38</v>
+      </c>
+      <c r="H73">
+        <v>167.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5.29</v>
+      </c>
+      <c r="K73">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L73">
+        <v>5.15</v>
+      </c>
+      <c r="M73">
+        <v>22.87746522</v>
+      </c>
+      <c r="N73">
+        <v>-17.72746522</v>
+      </c>
+      <c r="O73">
+        <v>-3.9000423484</v>
+      </c>
+      <c r="P73">
+        <v>-13.8274228716</v>
+      </c>
+      <c r="Q73">
+        <v>-13.6874228716</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3241710501431195</v>
+      </c>
+      <c r="T73">
+        <v>3.222355726270621</v>
+      </c>
+      <c r="U73">
+        <v>0.1902</v>
+      </c>
+      <c r="V73">
+        <v>0.04952471740660787</v>
+      </c>
+      <c r="W73">
+        <v>0.1807803987492632</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2251123518482177</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2241076876534815</v>
+      </c>
+      <c r="C74">
+        <v>-46.06549294487665</v>
+      </c>
+      <c r="D74">
+        <v>75.52970705512334</v>
+      </c>
+      <c r="E74">
+        <v>119.7652</v>
+      </c>
+      <c r="F74">
+        <v>121.9752</v>
+      </c>
+      <c r="G74">
+        <v>0.38</v>
+      </c>
+      <c r="H74">
+        <v>167.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>5.29</v>
+      </c>
+      <c r="K74">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L74">
+        <v>5.15</v>
+      </c>
+      <c r="M74">
+        <v>23.19968304</v>
+      </c>
+      <c r="N74">
+        <v>-18.04968304</v>
+      </c>
+      <c r="O74">
+        <v>-3.9709302688</v>
+      </c>
+      <c r="P74">
+        <v>-14.0787527712</v>
+      </c>
+      <c r="Q74">
+        <v>-13.9387527712</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3351843019339452</v>
+      </c>
+      <c r="T74">
+        <v>3.337439859351715</v>
+      </c>
+      <c r="U74">
+        <v>0.1902</v>
+      </c>
+      <c r="V74">
+        <v>0.04883687410929387</v>
+      </c>
+      <c r="W74">
+        <v>0.1809112265444123</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2219857914058813</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2258516876534815</v>
+      </c>
+      <c r="C75">
+        <v>-48.38669482906354</v>
+      </c>
+      <c r="D75">
+        <v>74.90260517093645</v>
+      </c>
+      <c r="E75">
+        <v>121.4593</v>
+      </c>
+      <c r="F75">
+        <v>123.6693</v>
+      </c>
+      <c r="G75">
+        <v>0.38</v>
+      </c>
+      <c r="H75">
+        <v>167.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>5.29</v>
+      </c>
+      <c r="K75">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L75">
+        <v>5.15</v>
+      </c>
+      <c r="M75">
+        <v>23.52190086</v>
+      </c>
+      <c r="N75">
+        <v>-18.37190086</v>
+      </c>
+      <c r="O75">
+        <v>-4.041818189199999</v>
+      </c>
+      <c r="P75">
+        <v>-14.3300826708</v>
+      </c>
+      <c r="Q75">
+        <v>-14.1900826708</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3470133501537209</v>
+      </c>
+      <c r="T75">
+        <v>3.461048743031408</v>
+      </c>
+      <c r="U75">
+        <v>0.1902</v>
+      </c>
+      <c r="V75">
+        <v>0.04816787583382409</v>
+      </c>
+      <c r="W75">
+        <v>0.1810384700164067</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.218944890153746</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2275956876534815</v>
+      </c>
+      <c r="C76">
+        <v>-50.69756915938814</v>
+      </c>
+      <c r="D76">
+        <v>74.28583084061187</v>
+      </c>
+      <c r="E76">
+        <v>123.1534</v>
+      </c>
+      <c r="F76">
+        <v>125.3634</v>
+      </c>
+      <c r="G76">
+        <v>0.38</v>
+      </c>
+      <c r="H76">
+        <v>167.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>5.29</v>
+      </c>
+      <c r="K76">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L76">
+        <v>5.15</v>
+      </c>
+      <c r="M76">
+        <v>23.84411868</v>
+      </c>
+      <c r="N76">
+        <v>-18.69411868</v>
+      </c>
+      <c r="O76">
+        <v>-4.1127061096</v>
+      </c>
+      <c r="P76">
+        <v>-14.5814125704</v>
+      </c>
+      <c r="Q76">
+        <v>-14.4414125704</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3597523251596333</v>
+      </c>
+      <c r="T76">
+        <v>3.59416600237877</v>
+      </c>
+      <c r="U76">
+        <v>0.1902</v>
+      </c>
+      <c r="V76">
+        <v>0.04751695859282647</v>
+      </c>
+      <c r="W76">
+        <v>0.1811622744756444</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2159861754219384</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2293396876534816</v>
+      </c>
+      <c r="C77">
+        <v>-52.99836897434837</v>
+      </c>
+      <c r="D77">
+        <v>73.67913102565164</v>
+      </c>
+      <c r="E77">
+        <v>124.8475</v>
+      </c>
+      <c r="F77">
+        <v>127.0575</v>
+      </c>
+      <c r="G77">
+        <v>0.38</v>
+      </c>
+      <c r="H77">
+        <v>167.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>5.29</v>
+      </c>
+      <c r="K77">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L77">
+        <v>5.15</v>
+      </c>
+      <c r="M77">
+        <v>24.1663365</v>
+      </c>
+      <c r="N77">
+        <v>-19.0163365</v>
+      </c>
+      <c r="O77">
+        <v>-4.18359403</v>
+      </c>
+      <c r="P77">
+        <v>-14.83274247</v>
+      </c>
+      <c r="Q77">
+        <v>-14.69274247</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3735104181660187</v>
+      </c>
+      <c r="T77">
+        <v>3.737932642473921</v>
+      </c>
+      <c r="U77">
+        <v>0.1902</v>
+      </c>
+      <c r="V77">
+        <v>0.04688339914492211</v>
+      </c>
+      <c r="W77">
+        <v>0.1812827774826358</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.213106359749646</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2310836876534815</v>
+      </c>
+      <c r="C78">
+        <v>-55.28933911304442</v>
+      </c>
+      <c r="D78">
+        <v>73.08226088695558</v>
+      </c>
+      <c r="E78">
+        <v>126.5416</v>
+      </c>
+      <c r="F78">
+        <v>128.7516</v>
+      </c>
+      <c r="G78">
+        <v>0.38</v>
+      </c>
+      <c r="H78">
+        <v>167.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>5.29</v>
+      </c>
+      <c r="K78">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L78">
+        <v>5.15</v>
+      </c>
+      <c r="M78">
+        <v>24.48855432</v>
+      </c>
+      <c r="N78">
+        <v>-19.33855432</v>
+      </c>
+      <c r="O78">
+        <v>-4.2544819504</v>
+      </c>
+      <c r="P78">
+        <v>-15.0840723696</v>
+      </c>
+      <c r="Q78">
+        <v>-14.9440723696</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3884150189229361</v>
+      </c>
+      <c r="T78">
+        <v>3.893679835910334</v>
+      </c>
+      <c r="U78">
+        <v>0.1902</v>
+      </c>
+      <c r="V78">
+        <v>0.04626651231406788</v>
+      </c>
+      <c r="W78">
+        <v>0.1814001093578643</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2103023287003085</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2328276876534815</v>
+      </c>
+      <c r="C79">
+        <v>-57.57071654462426</v>
+      </c>
+      <c r="D79">
+        <v>72.49498345537573</v>
+      </c>
+      <c r="E79">
+        <v>128.2357</v>
+      </c>
+      <c r="F79">
+        <v>130.4457</v>
+      </c>
+      <c r="G79">
+        <v>0.38</v>
+      </c>
+      <c r="H79">
+        <v>167.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>5.29</v>
+      </c>
+      <c r="K79">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L79">
+        <v>5.15</v>
+      </c>
+      <c r="M79">
+        <v>24.81077214</v>
+      </c>
+      <c r="N79">
+        <v>-19.66077214</v>
+      </c>
+      <c r="O79">
+        <v>-4.325369870799999</v>
+      </c>
+      <c r="P79">
+        <v>-15.3354022692</v>
+      </c>
+      <c r="Q79">
+        <v>-15.1954022692</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4046156719195855</v>
+      </c>
+      <c r="T79">
+        <v>4.06297026355861</v>
+      </c>
+      <c r="U79">
+        <v>0.1902</v>
+      </c>
+      <c r="V79">
+        <v>0.04566564851778129</v>
+      </c>
+      <c r="W79">
+        <v>0.181514393651918</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2075711296262785</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2345716876534815</v>
+      </c>
+      <c r="C80">
+        <v>-59.84273068197112</v>
+      </c>
+      <c r="D80">
+        <v>71.91706931802889</v>
+      </c>
+      <c r="E80">
+        <v>129.9298</v>
+      </c>
+      <c r="F80">
+        <v>132.1398</v>
+      </c>
+      <c r="G80">
+        <v>0.38</v>
+      </c>
+      <c r="H80">
+        <v>167.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>5.29</v>
+      </c>
+      <c r="K80">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L80">
+        <v>5.15</v>
+      </c>
+      <c r="M80">
+        <v>25.13298996</v>
+      </c>
+      <c r="N80">
+        <v>-19.98298996</v>
+      </c>
+      <c r="O80">
+        <v>-4.396257791200001</v>
+      </c>
+      <c r="P80">
+        <v>-15.5867321688</v>
+      </c>
+      <c r="Q80">
+        <v>-15.4467321688</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4222891115522939</v>
+      </c>
+      <c r="T80">
+        <v>4.247650730084001</v>
+      </c>
+      <c r="U80">
+        <v>0.1902</v>
+      </c>
+      <c r="V80">
+        <v>0.04508019148550203</v>
+      </c>
+      <c r="W80">
+        <v>0.1816257475794575</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2049099612977364</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2363156876534815</v>
+      </c>
+      <c r="C81">
+        <v>-62.10560368050594</v>
+      </c>
+      <c r="D81">
+        <v>71.34829631949407</v>
+      </c>
+      <c r="E81">
+        <v>131.6239</v>
+      </c>
+      <c r="F81">
+        <v>133.8339</v>
+      </c>
+      <c r="G81">
+        <v>0.38</v>
+      </c>
+      <c r="H81">
+        <v>167.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>5.29</v>
+      </c>
+      <c r="K81">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L81">
+        <v>5.15</v>
+      </c>
+      <c r="M81">
+        <v>25.45520778</v>
+      </c>
+      <c r="N81">
+        <v>-20.30520778</v>
+      </c>
+      <c r="O81">
+        <v>-4.467145711600001</v>
+      </c>
+      <c r="P81">
+        <v>-15.8380620684</v>
+      </c>
+      <c r="Q81">
+        <v>-15.6980620684</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.441645735911927</v>
+      </c>
+      <c r="T81">
+        <v>4.449919812468954</v>
+      </c>
+      <c r="U81">
+        <v>0.1902</v>
+      </c>
+      <c r="V81">
+        <v>0.04450955615024251</v>
+      </c>
+      <c r="W81">
+        <v>0.1817342824202239</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2023161643192841</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2380596876534815</v>
+      </c>
+      <c r="C82">
+        <v>-64.35955072292238</v>
+      </c>
+      <c r="D82">
+        <v>70.78844927707762</v>
+      </c>
+      <c r="E82">
+        <v>133.318</v>
+      </c>
+      <c r="F82">
+        <v>135.528</v>
+      </c>
+      <c r="G82">
+        <v>0.38</v>
+      </c>
+      <c r="H82">
+        <v>167.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>5.29</v>
+      </c>
+      <c r="K82">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L82">
+        <v>5.15</v>
+      </c>
+      <c r="M82">
+        <v>25.7774256</v>
+      </c>
+      <c r="N82">
+        <v>-20.6274256</v>
+      </c>
+      <c r="O82">
+        <v>-4.538033632</v>
+      </c>
+      <c r="P82">
+        <v>-16.089391968</v>
+      </c>
+      <c r="Q82">
+        <v>-15.949391968</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4629380227075234</v>
+      </c>
+      <c r="T82">
+        <v>4.672415803092402</v>
+      </c>
+      <c r="U82">
+        <v>0.1902</v>
+      </c>
+      <c r="V82">
+        <v>0.04395318669836448</v>
+      </c>
+      <c r="W82">
+        <v>0.1818401038899711</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1997872122652931</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2398036876534816</v>
+      </c>
+      <c r="C83">
+        <v>-66.60478029062043</v>
+      </c>
+      <c r="D83">
+        <v>70.23731970937959</v>
+      </c>
+      <c r="E83">
+        <v>135.0121</v>
+      </c>
+      <c r="F83">
+        <v>137.2221</v>
+      </c>
+      <c r="G83">
+        <v>0.38</v>
+      </c>
+      <c r="H83">
+        <v>167.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>5.29</v>
+      </c>
+      <c r="K83">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L83">
+        <v>5.15</v>
+      </c>
+      <c r="M83">
+        <v>26.09964342</v>
+      </c>
+      <c r="N83">
+        <v>-20.94964342</v>
+      </c>
+      <c r="O83">
+        <v>-4.6089215524</v>
+      </c>
+      <c r="P83">
+        <v>-16.3407218676</v>
+      </c>
+      <c r="Q83">
+        <v>-16.2007218676</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4864716028500247</v>
+      </c>
+      <c r="T83">
+        <v>4.918332424307793</v>
+      </c>
+      <c r="U83">
+        <v>0.1902</v>
+      </c>
+      <c r="V83">
+        <v>0.04341055476381677</v>
+      </c>
+      <c r="W83">
+        <v>0.1819433124839221</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1973207034718945</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2415476876534815</v>
+      </c>
+      <c r="C84">
+        <v>-68.84149442255863</v>
+      </c>
+      <c r="D84">
+        <v>69.69470557744138</v>
+      </c>
+      <c r="E84">
+        <v>136.7062</v>
+      </c>
+      <c r="F84">
+        <v>138.9162</v>
+      </c>
+      <c r="G84">
+        <v>0.38</v>
+      </c>
+      <c r="H84">
+        <v>167.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>5.29</v>
+      </c>
+      <c r="K84">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L84">
+        <v>5.15</v>
+      </c>
+      <c r="M84">
+        <v>26.42186124</v>
+      </c>
+      <c r="N84">
+        <v>-21.27186124</v>
+      </c>
+      <c r="O84">
+        <v>-4.6798094728</v>
+      </c>
+      <c r="P84">
+        <v>-16.5920517672</v>
+      </c>
+      <c r="Q84">
+        <v>-16.4520517672</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5126200252305816</v>
+      </c>
+      <c r="T84">
+        <v>5.191573114547114</v>
+      </c>
+      <c r="U84">
+        <v>0.1902</v>
+      </c>
+      <c r="V84">
+        <v>0.04288115775450193</v>
+      </c>
+      <c r="W84">
+        <v>0.1820440037950937</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1949143534295543</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2432916876534815</v>
+      </c>
+      <c r="C85">
+        <v>-71.06988896219998</v>
+      </c>
+      <c r="D85">
+        <v>69.16041103780002</v>
+      </c>
+      <c r="E85">
+        <v>138.4003</v>
+      </c>
+      <c r="F85">
+        <v>140.6103</v>
+      </c>
+      <c r="G85">
+        <v>0.38</v>
+      </c>
+      <c r="H85">
+        <v>167.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>5.29</v>
+      </c>
+      <c r="K85">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L85">
+        <v>5.15</v>
+      </c>
+      <c r="M85">
+        <v>26.74407906</v>
+      </c>
+      <c r="N85">
+        <v>-21.59407906</v>
+      </c>
+      <c r="O85">
+        <v>-4.750697393199999</v>
+      </c>
+      <c r="P85">
+        <v>-16.8433816668</v>
+      </c>
+      <c r="Q85">
+        <v>-16.7033816668</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5418447325970864</v>
+      </c>
+      <c r="T85">
+        <v>5.496959768344003</v>
+      </c>
+      <c r="U85">
+        <v>0.1902</v>
+      </c>
+      <c r="V85">
+        <v>0.04236451729962842</v>
+      </c>
+      <c r="W85">
+        <v>0.1821422688096107</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1925659877255838</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2450356876534815</v>
+      </c>
+      <c r="C86">
+        <v>-73.29015379318498</v>
+      </c>
+      <c r="D86">
+        <v>68.63424620681501</v>
+      </c>
+      <c r="E86">
+        <v>140.0944</v>
+      </c>
+      <c r="F86">
+        <v>142.3044</v>
+      </c>
+      <c r="G86">
+        <v>0.38</v>
+      </c>
+      <c r="H86">
+        <v>167.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>5.29</v>
+      </c>
+      <c r="K86">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L86">
+        <v>5.15</v>
+      </c>
+      <c r="M86">
+        <v>27.06629688</v>
+      </c>
+      <c r="N86">
+        <v>-21.91629688</v>
+      </c>
+      <c r="O86">
+        <v>-4.821585313599999</v>
+      </c>
+      <c r="P86">
+        <v>-17.0947115664</v>
+      </c>
+      <c r="Q86">
+        <v>-16.9547115664</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5747225283844042</v>
+      </c>
+      <c r="T86">
+        <v>5.840519753865501</v>
+      </c>
+      <c r="U86">
+        <v>0.1902</v>
+      </c>
+      <c r="V86">
+        <v>0.04186017780796618</v>
+      </c>
+      <c r="W86">
+        <v>0.1822381941809249</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1902735354907554</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2467796876534815</v>
+      </c>
+      <c r="C87">
+        <v>-75.50247306432827</v>
+      </c>
+      <c r="D87">
+        <v>68.11602693567174</v>
+      </c>
+      <c r="E87">
+        <v>141.7885</v>
+      </c>
+      <c r="F87">
+        <v>143.9985</v>
+      </c>
+      <c r="G87">
+        <v>0.38</v>
+      </c>
+      <c r="H87">
+        <v>167.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>5.29</v>
+      </c>
+      <c r="K87">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L87">
+        <v>5.15</v>
+      </c>
+      <c r="M87">
+        <v>27.3885147</v>
+      </c>
+      <c r="N87">
+        <v>-22.2385147</v>
+      </c>
+      <c r="O87">
+        <v>-4.892473234000001</v>
+      </c>
+      <c r="P87">
+        <v>-17.346041466</v>
+      </c>
+      <c r="Q87">
+        <v>-17.206041466</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6119840302766978</v>
+      </c>
+      <c r="T87">
+        <v>6.229887737456535</v>
+      </c>
+      <c r="U87">
+        <v>0.1902</v>
+      </c>
+      <c r="V87">
+        <v>0.04136770512787245</v>
+      </c>
+      <c r="W87">
+        <v>0.1823318624846787</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1880350233085111</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2485236876534815</v>
+      </c>
+      <c r="C88">
+        <v>-77.70702540449867</v>
+      </c>
+      <c r="D88">
+        <v>67.60557459550134</v>
+      </c>
+      <c r="E88">
+        <v>143.4826</v>
+      </c>
+      <c r="F88">
+        <v>145.6926</v>
+      </c>
+      <c r="G88">
+        <v>0.38</v>
+      </c>
+      <c r="H88">
+        <v>167.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>5.29</v>
+      </c>
+      <c r="K88">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L88">
+        <v>5.15</v>
+      </c>
+      <c r="M88">
+        <v>27.71073252</v>
+      </c>
+      <c r="N88">
+        <v>-22.56073252</v>
+      </c>
+      <c r="O88">
+        <v>-4.9633611544</v>
+      </c>
+      <c r="P88">
+        <v>-17.5973713656</v>
+      </c>
+      <c r="Q88">
+        <v>-17.4573713656</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6545686038678904</v>
+      </c>
+      <c r="T88">
+        <v>6.67487971870343</v>
+      </c>
+      <c r="U88">
+        <v>0.1902</v>
+      </c>
+      <c r="V88">
+        <v>0.04088668530080417</v>
+      </c>
+      <c r="W88">
+        <v>0.1824233524557871</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1858485695491098</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2502676876534815</v>
+      </c>
+      <c r="C89">
+        <v>-79.90398412790965</v>
+      </c>
+      <c r="D89">
+        <v>67.10271587209034</v>
+      </c>
+      <c r="E89">
+        <v>145.1767</v>
+      </c>
+      <c r="F89">
+        <v>147.3867</v>
+      </c>
+      <c r="G89">
+        <v>0.38</v>
+      </c>
+      <c r="H89">
+        <v>167.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>5.29</v>
+      </c>
+      <c r="K89">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L89">
+        <v>5.15</v>
+      </c>
+      <c r="M89">
+        <v>28.03295034</v>
+      </c>
+      <c r="N89">
+        <v>-22.88295034</v>
+      </c>
+      <c r="O89">
+        <v>-5.0342490748</v>
+      </c>
+      <c r="P89">
+        <v>-17.8487012652</v>
+      </c>
+      <c r="Q89">
+        <v>-17.7087012652</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.7037046503192667</v>
+      </c>
+      <c r="T89">
+        <v>7.18833200475754</v>
+      </c>
+      <c r="U89">
+        <v>0.1902</v>
+      </c>
+      <c r="V89">
+        <v>0.04041672340079493</v>
+      </c>
+      <c r="W89">
+        <v>0.1825127392091688</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1837123790945223</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2520116876534815</v>
+      </c>
+      <c r="C90">
+        <v>-82.09351743031512</v>
+      </c>
+      <c r="D90">
+        <v>66.6072825696849</v>
+      </c>
+      <c r="E90">
+        <v>146.8708</v>
+      </c>
+      <c r="F90">
+        <v>149.0808</v>
+      </c>
+      <c r="G90">
+        <v>0.38</v>
+      </c>
+      <c r="H90">
+        <v>167.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>5.29</v>
+      </c>
+      <c r="K90">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L90">
+        <v>5.15</v>
+      </c>
+      <c r="M90">
+        <v>28.35516816</v>
+      </c>
+      <c r="N90">
+        <v>-23.20516816</v>
+      </c>
+      <c r="O90">
+        <v>-5.1051369952</v>
+      </c>
+      <c r="P90">
+        <v>-18.1000311648</v>
+      </c>
+      <c r="Q90">
+        <v>-17.9600311648</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7610300378458722</v>
+      </c>
+      <c r="T90">
+        <v>7.787359671820669</v>
+      </c>
+      <c r="U90">
+        <v>0.1902</v>
+      </c>
+      <c r="V90">
+        <v>0.03995744245305861</v>
+      </c>
+      <c r="W90">
+        <v>0.1826000944454282</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1816247384229938</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2537556876534815</v>
+      </c>
+      <c r="C91">
+        <v>-84.27578857657778</v>
+      </c>
+      <c r="D91">
+        <v>66.11911142342223</v>
+      </c>
+      <c r="E91">
+        <v>148.5649</v>
+      </c>
+      <c r="F91">
+        <v>150.7749</v>
+      </c>
+      <c r="G91">
+        <v>0.38</v>
+      </c>
+      <c r="H91">
+        <v>167.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>5.29</v>
+      </c>
+      <c r="K91">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L91">
+        <v>5.15</v>
+      </c>
+      <c r="M91">
+        <v>28.67738598</v>
+      </c>
+      <c r="N91">
+        <v>-23.52738598</v>
+      </c>
+      <c r="O91">
+        <v>-5.176024915599999</v>
+      </c>
+      <c r="P91">
+        <v>-18.3513610644</v>
+      </c>
+      <c r="Q91">
+        <v>-18.2113610644</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8287782231045879</v>
+      </c>
+      <c r="T91">
+        <v>8.495301460168003</v>
+      </c>
+      <c r="U91">
+        <v>0.1902</v>
+      </c>
+      <c r="V91">
+        <v>0.03950848242549616</v>
+      </c>
+      <c r="W91">
+        <v>0.1826854866426706</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1795840110249827</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2554996876534815</v>
+      </c>
+      <c r="C92">
+        <v>-86.45095608004966</v>
+      </c>
+      <c r="D92">
+        <v>65.63804391995033</v>
+      </c>
+      <c r="E92">
+        <v>150.259</v>
+      </c>
+      <c r="F92">
+        <v>152.469</v>
+      </c>
+      <c r="G92">
+        <v>0.38</v>
+      </c>
+      <c r="H92">
+        <v>167.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>5.29</v>
+      </c>
+      <c r="K92">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L92">
+        <v>5.15</v>
+      </c>
+      <c r="M92">
+        <v>28.9996038</v>
+      </c>
+      <c r="N92">
+        <v>-23.8496038</v>
+      </c>
+      <c r="O92">
+        <v>-5.246912835999999</v>
+      </c>
+      <c r="P92">
+        <v>-18.602690964</v>
+      </c>
+      <c r="Q92">
+        <v>-18.462690964</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.9100760454150469</v>
+      </c>
+      <c r="T92">
+        <v>9.344831606184805</v>
+      </c>
+      <c r="U92">
+        <v>0.1902</v>
+      </c>
+      <c r="V92">
+        <v>0.0390694992874351</v>
+      </c>
+      <c r="W92">
+        <v>0.1827689812355298</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1775886331247051</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2572436876534815</v>
+      </c>
+      <c r="C93">
+        <v>-88.61917387417766</v>
+      </c>
+      <c r="D93">
+        <v>65.16392612582236</v>
+      </c>
+      <c r="E93">
+        <v>151.9531</v>
+      </c>
+      <c r="F93">
+        <v>154.1631</v>
+      </c>
+      <c r="G93">
+        <v>0.38</v>
+      </c>
+      <c r="H93">
+        <v>167.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>5.29</v>
+      </c>
+      <c r="K93">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L93">
+        <v>5.15</v>
+      </c>
+      <c r="M93">
+        <v>29.32182162000001</v>
+      </c>
+      <c r="N93">
+        <v>-24.17182162</v>
+      </c>
+      <c r="O93">
+        <v>-5.3178007564</v>
+      </c>
+      <c r="P93">
+        <v>-18.8540208636</v>
+      </c>
+      <c r="Q93">
+        <v>-18.7140208636</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.009440050461163</v>
+      </c>
+      <c r="T93">
+        <v>10.38314622909423</v>
+      </c>
+      <c r="U93">
+        <v>0.1902</v>
+      </c>
+      <c r="V93">
+        <v>0.03864016413043031</v>
+      </c>
+      <c r="W93">
+        <v>0.1828506407823922</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1756371096837742</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2589876876534816</v>
+      </c>
+      <c r="C94">
+        <v>-90.78059147672573</v>
+      </c>
+      <c r="D94">
+        <v>64.69660852327428</v>
+      </c>
+      <c r="E94">
+        <v>153.6472</v>
+      </c>
+      <c r="F94">
+        <v>155.8572</v>
+      </c>
+      <c r="G94">
+        <v>0.38</v>
+      </c>
+      <c r="H94">
+        <v>167.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>5.29</v>
+      </c>
+      <c r="K94">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L94">
+        <v>5.15</v>
+      </c>
+      <c r="M94">
+        <v>29.64403944</v>
+      </c>
+      <c r="N94">
+        <v>-24.49403944</v>
+      </c>
+      <c r="O94">
+        <v>-5.3886886768</v>
+      </c>
+      <c r="P94">
+        <v>-19.1053507632</v>
+      </c>
+      <c r="Q94">
+        <v>-18.9653507632</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.133645056768809</v>
+      </c>
+      <c r="T94">
+        <v>11.68103950773101</v>
+      </c>
+      <c r="U94">
+        <v>0.1902</v>
+      </c>
+      <c r="V94">
+        <v>0.03822016234640389</v>
+      </c>
+      <c r="W94">
+        <v>0.182930525121714</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1737280106654723</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2607316876534815</v>
+      </c>
+      <c r="C95">
+        <v>-92.93535414698103</v>
+      </c>
+      <c r="D95">
+        <v>64.23594585301898</v>
+      </c>
+      <c r="E95">
+        <v>155.3413</v>
+      </c>
+      <c r="F95">
+        <v>157.5513</v>
+      </c>
+      <c r="G95">
+        <v>0.38</v>
+      </c>
+      <c r="H95">
+        <v>167.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>5.29</v>
+      </c>
+      <c r="K95">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L95">
+        <v>5.15</v>
+      </c>
+      <c r="M95">
+        <v>29.96625726</v>
+      </c>
+      <c r="N95">
+        <v>-24.81625726</v>
+      </c>
+      <c r="O95">
+        <v>-5.4595765972</v>
+      </c>
+      <c r="P95">
+        <v>-19.3566806628</v>
+      </c>
+      <c r="Q95">
+        <v>-19.2166806628</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.293337207735782</v>
+      </c>
+      <c r="T95">
+        <v>13.34975943740687</v>
+      </c>
+      <c r="U95">
+        <v>0.1902</v>
+      </c>
+      <c r="V95">
+        <v>0.03780919285880815</v>
+      </c>
+      <c r="W95">
+        <v>0.1830086915182547</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1718599675400371</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2624756876534816</v>
+      </c>
+      <c r="C96">
+        <v>-95.08360303629127</v>
+      </c>
+      <c r="D96">
+        <v>63.78179696370875</v>
+      </c>
+      <c r="E96">
+        <v>157.0354</v>
+      </c>
+      <c r="F96">
+        <v>159.2454</v>
+      </c>
+      <c r="G96">
+        <v>0.38</v>
+      </c>
+      <c r="H96">
+        <v>167.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>5.29</v>
+      </c>
+      <c r="K96">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L96">
+        <v>5.15</v>
+      </c>
+      <c r="M96">
+        <v>30.28847508</v>
+      </c>
+      <c r="N96">
+        <v>-25.13847508000001</v>
+      </c>
+      <c r="O96">
+        <v>-5.530464517600001</v>
+      </c>
+      <c r="P96">
+        <v>-19.6080105624</v>
+      </c>
+      <c r="Q96">
+        <v>-19.4680105624</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.506260075691746</v>
+      </c>
+      <c r="T96">
+        <v>15.57471934364135</v>
+      </c>
+      <c r="U96">
+        <v>0.1902</v>
+      </c>
+      <c r="V96">
+        <v>0.03740696740286339</v>
+      </c>
+      <c r="W96">
+        <v>0.1830851947999754</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1700316700130153</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2642196876534815</v>
+      </c>
+      <c r="C97">
+        <v>-97.22547533226108</v>
+      </c>
+      <c r="D97">
+        <v>63.33402466773892</v>
+      </c>
+      <c r="E97">
+        <v>158.7295</v>
+      </c>
+      <c r="F97">
+        <v>160.9395</v>
+      </c>
+      <c r="G97">
+        <v>0.38</v>
+      </c>
+      <c r="H97">
+        <v>167.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>5.29</v>
+      </c>
+      <c r="K97">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L97">
+        <v>5.15</v>
+      </c>
+      <c r="M97">
+        <v>30.6106929</v>
+      </c>
+      <c r="N97">
+        <v>-25.46069290000001</v>
+      </c>
+      <c r="O97">
+        <v>-5.601352438000001</v>
+      </c>
+      <c r="P97">
+        <v>-19.85934046200001</v>
+      </c>
+      <c r="Q97">
+        <v>-19.71934046200001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.804352090830096</v>
+      </c>
+      <c r="T97">
+        <v>18.68966321236963</v>
+      </c>
+      <c r="U97">
+        <v>0.1902</v>
+      </c>
+      <c r="V97">
+        <v>0.03701320985125429</v>
+      </c>
+      <c r="W97">
+        <v>0.1831600874862914</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1682418629602468</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2659636876534815</v>
+      </c>
+      <c r="C98">
+        <v>-99.36110439691706</v>
+      </c>
+      <c r="D98">
+        <v>62.89249560308295</v>
+      </c>
+      <c r="E98">
+        <v>160.4236</v>
+      </c>
+      <c r="F98">
+        <v>162.6336</v>
+      </c>
+      <c r="G98">
+        <v>0.38</v>
+      </c>
+      <c r="H98">
+        <v>167.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>5.29</v>
+      </c>
+      <c r="K98">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L98">
+        <v>5.15</v>
+      </c>
+      <c r="M98">
+        <v>30.93291072</v>
+      </c>
+      <c r="N98">
+        <v>-25.78291072</v>
+      </c>
+      <c r="O98">
+        <v>-5.672240358400001</v>
+      </c>
+      <c r="P98">
+        <v>-20.1106703616</v>
+      </c>
+      <c r="Q98">
+        <v>-19.9706703616</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.251490113537615</v>
+      </c>
+      <c r="T98">
+        <v>23.36207901546199</v>
+      </c>
+      <c r="U98">
+        <v>0.1902</v>
+      </c>
+      <c r="V98">
+        <v>0.0366276555819704</v>
+      </c>
+      <c r="W98">
+        <v>0.1832334199083092</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1664893435544108</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2677076876534815</v>
+      </c>
+      <c r="C99">
+        <v>-101.4906198991333</v>
+      </c>
+      <c r="D99">
+        <v>62.45708010086668</v>
+      </c>
+      <c r="E99">
+        <v>162.1177</v>
+      </c>
+      <c r="F99">
+        <v>164.3277</v>
+      </c>
+      <c r="G99">
+        <v>0.38</v>
+      </c>
+      <c r="H99">
+        <v>167.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>5.29</v>
+      </c>
+      <c r="K99">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L99">
+        <v>5.15</v>
+      </c>
+      <c r="M99">
+        <v>31.25512854</v>
+      </c>
+      <c r="N99">
+        <v>-26.10512854</v>
+      </c>
+      <c r="O99">
+        <v>-5.7431282788</v>
+      </c>
+      <c r="P99">
+        <v>-20.3620002612</v>
+      </c>
+      <c r="Q99">
+        <v>-20.2220002612</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.996720151383486</v>
+      </c>
+      <c r="T99">
+        <v>31.14943868728265</v>
+      </c>
+      <c r="U99">
+        <v>0.1902</v>
+      </c>
+      <c r="V99">
+        <v>0.03625005088524906</v>
+      </c>
+      <c r="W99">
+        <v>0.1833052403216257</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1647729585693138</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2694516876534815</v>
+      </c>
+      <c r="C100">
+        <v>-103.6141479415941</v>
+      </c>
+      <c r="D100">
+        <v>62.02765205840588</v>
+      </c>
+      <c r="E100">
+        <v>163.8118</v>
+      </c>
+      <c r="F100">
+        <v>166.0218</v>
+      </c>
+      <c r="G100">
+        <v>0.38</v>
+      </c>
+      <c r="H100">
+        <v>167.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>5.29</v>
+      </c>
+      <c r="K100">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L100">
+        <v>5.15</v>
+      </c>
+      <c r="M100">
+        <v>31.57734636</v>
+      </c>
+      <c r="N100">
+        <v>-26.42734636</v>
+      </c>
+      <c r="O100">
+        <v>-5.8140161992</v>
+      </c>
+      <c r="P100">
+        <v>-20.6133301608</v>
+      </c>
+      <c r="Q100">
+        <v>-20.4733301608</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.487180227075229</v>
+      </c>
+      <c r="T100">
+        <v>46.72415803092397</v>
+      </c>
+      <c r="U100">
+        <v>0.1902</v>
+      </c>
+      <c r="V100">
+        <v>0.03588015240682815</v>
+      </c>
+      <c r="W100">
+        <v>0.1833755950122213</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1630916018492188</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2711956876534815</v>
+      </c>
+      <c r="C101">
+        <v>-105.7318111825547</v>
+      </c>
+      <c r="D101">
+        <v>61.60408881744532</v>
+      </c>
+      <c r="E101">
+        <v>165.5059</v>
+      </c>
+      <c r="F101">
+        <v>167.7159</v>
+      </c>
+      <c r="G101">
+        <v>0.38</v>
+      </c>
+      <c r="H101">
+        <v>167.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>5.29</v>
+      </c>
+      <c r="K101">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="L101">
+        <v>5.15</v>
+      </c>
+      <c r="M101">
+        <v>31.89956418</v>
+      </c>
+      <c r="N101">
+        <v>-26.74956418</v>
+      </c>
+      <c r="O101">
+        <v>-5.8849041196</v>
+      </c>
+      <c r="P101">
+        <v>-20.8646600604</v>
+      </c>
+      <c r="Q101">
+        <v>-20.7246600604</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.95856045415046</v>
+      </c>
+      <c r="T101">
+        <v>93.44831606184795</v>
+      </c>
+      <c r="U101">
+        <v>0.1902</v>
+      </c>
+      <c r="V101">
+        <v>0.03551772662494099</v>
+      </c>
+      <c r="W101">
+        <v>0.1834445283959362</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.16144421193155</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_drugs_biotechnology.xlsx
@@ -647,10 +647,10 @@
         <v>0.462043795620438</v>
       </c>
       <c r="X2">
-        <v>0.1094422875883839</v>
+        <v>0.1076392072738052</v>
       </c>
       <c r="Y2">
-        <v>0.352601508032054</v>
+        <v>0.3544045883466328</v>
       </c>
       <c r="Z2">
         <v>1.216186334488096</v>
@@ -659,10 +659,10 @@
         <v>0.3342592034777871</v>
       </c>
       <c r="AB2">
-        <v>0.1088806284434573</v>
+        <v>0.1070349302639074</v>
       </c>
       <c r="AC2">
-        <v>0.2253785750343298</v>
+        <v>0.2272242732138798</v>
       </c>
       <c r="AD2">
         <v>2.21</v>
@@ -778,10 +778,10 @@
         <v>0.462043795620438</v>
       </c>
       <c r="X3">
-        <v>0.1094422875883839</v>
+        <v>0.1076392072738052</v>
       </c>
       <c r="Y3">
-        <v>0.352601508032054</v>
+        <v>0.3544045883466328</v>
       </c>
       <c r="Z3">
         <v>1.216186334488096</v>
@@ -790,10 +790,10 @@
         <v>0.3342592034777871</v>
       </c>
       <c r="AB3">
-        <v>0.1088806284434573</v>
+        <v>0.1070349302639074</v>
       </c>
       <c r="AC3">
-        <v>0.2253785750343298</v>
+        <v>0.2272242732138798</v>
       </c>
       <c r="AD3">
         <v>2.21</v>
@@ -1093,37 +1093,37 @@
         <v>0.0130452747771678</v>
       </c>
       <c r="F2">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="G2">
         <v>167.2</v>
       </c>
       <c r="H2">
-        <v>137.044628150278</v>
+        <v>127.859977563699</v>
       </c>
       <c r="I2">
         <v>169.03</v>
       </c>
       <c r="J2">
-        <v>175.628928150278</v>
+        <v>176.608877563699</v>
       </c>
       <c r="K2">
         <v>2.21</v>
       </c>
       <c r="L2">
-        <v>38.9643</v>
+        <v>49.1289</v>
       </c>
       <c r="M2">
-        <v>0.108880628443457</v>
+        <v>0.107034930263907</v>
       </c>
       <c r="N2">
-        <v>0.105383298101866</v>
+        <v>0.102840797554471</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.109442287588384</v>
+        <v>0.107639207273805</v>
       </c>
       <c r="T2">
-        <v>0.130081504028398</v>
+        <v>0.137646024724607</v>
       </c>
       <c r="U2">
         <v>0.978524934462762</v>
       </c>
       <c r="V2">
-        <v>1.19419659770855</v>
+        <v>1.27710797060346</v>
       </c>
       <c r="W2">
-        <v>4.542002423171523</v>
+        <v>4.638331128820111</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>167.2</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1084867053948454</v>
+        <v>0.1066356948883474</v>
       </c>
       <c r="C2">
-        <v>170.1283857989473</v>
+        <v>170.1032991602752</v>
       </c>
       <c r="D2">
-        <v>169.7483857989473</v>
+        <v>169.7232991602752</v>
       </c>
       <c r="E2">
         <v>-2.21</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1084867053948454</v>
+        <v>0.1066356948883474</v>
       </c>
       <c r="T2">
         <v>0.9685394778129184</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1443,13 +1443,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1083018546429768</v>
+        <v>0.1064549163595931</v>
       </c>
       <c r="C3">
-        <v>168.7735018813117</v>
+        <v>168.7250074535372</v>
       </c>
       <c r="D3">
-        <v>170.0876018813117</v>
+        <v>170.0391074535372</v>
       </c>
       <c r="E3">
         <v>-0.5159</v>
@@ -1476,37 +1476,37 @@
         <v>5.15</v>
       </c>
       <c r="M3">
-        <v>0.03845607</v>
+        <v>0.02744442</v>
       </c>
       <c r="N3">
-        <v>5.111543930000001</v>
+        <v>5.12255558</v>
       </c>
       <c r="O3">
-        <v>1.1245396646</v>
+        <v>1.1269622276</v>
       </c>
       <c r="P3">
-        <v>3.9870042654</v>
+        <v>3.9955933524</v>
       </c>
       <c r="Q3">
-        <v>4.1270042654</v>
+        <v>4.1355933524</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1092169642858351</v>
+        <v>0.1074025821814071</v>
       </c>
       <c r="T3">
         <v>0.9761703949108382</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>133.9190406091938</v>
+        <v>187.6519890017716</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1081170038911081</v>
+        <v>0.1062741378308387</v>
       </c>
       <c r="C4">
-        <v>167.4199764208448</v>
+        <v>167.3478932021476</v>
       </c>
       <c r="D4">
-        <v>170.4281764208449</v>
+        <v>170.3560932021476</v>
       </c>
       <c r="E4">
         <v>1.1782</v>
@@ -1558,37 +1558,37 @@
         <v>5.15</v>
       </c>
       <c r="M4">
-        <v>0.07691214</v>
+        <v>0.05488883999999999</v>
       </c>
       <c r="N4">
-        <v>5.07308786</v>
+        <v>5.09511116</v>
       </c>
       <c r="O4">
-        <v>1.1160793292</v>
+        <v>1.1209244552</v>
       </c>
       <c r="P4">
-        <v>3.9570085308</v>
+        <v>3.9741867048</v>
       </c>
       <c r="Q4">
-        <v>4.0970085308</v>
+        <v>4.1141867048</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1099621264194981</v>
+        <v>0.1081851202355497</v>
       </c>
       <c r="T4">
         <v>0.9839570450107566</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>66.95952030459691</v>
+        <v>93.8259945008858</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1079321531392394</v>
+        <v>0.1060933593020843</v>
       </c>
       <c r="C5">
-        <v>166.0678175942307</v>
+        <v>165.9719630034178</v>
       </c>
       <c r="D5">
-        <v>170.7701175942308</v>
+        <v>170.6742630034178</v>
       </c>
       <c r="E5">
         <v>2.8723</v>
@@ -1640,37 +1640,37 @@
         <v>5.15</v>
       </c>
       <c r="M5">
-        <v>0.11536821</v>
+        <v>0.08233325999999999</v>
       </c>
       <c r="N5">
-        <v>5.034631790000001</v>
+        <v>5.06766674</v>
       </c>
       <c r="O5">
-        <v>1.1076189938</v>
+        <v>1.1148866828</v>
       </c>
       <c r="P5">
-        <v>3.927012796200001</v>
+        <v>3.9527800572</v>
       </c>
       <c r="Q5">
-        <v>4.0670127962</v>
+        <v>4.0927800572</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1107226527208654</v>
+        <v>0.1089837930949323</v>
       </c>
       <c r="T5">
         <v>0.9919042445972712</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>44.63968020306461</v>
+        <v>62.55066300059053</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1077473023873708</v>
+        <v>0.10591258077333</v>
       </c>
       <c r="C6">
-        <v>164.7170336439067</v>
+        <v>164.5972235040382</v>
       </c>
       <c r="D6">
-        <v>171.1134336439067</v>
+        <v>170.9936235040382</v>
       </c>
       <c r="E6">
         <v>4.5664</v>
@@ -1722,37 +1722,37 @@
         <v>5.15</v>
       </c>
       <c r="M6">
-        <v>0.15382428</v>
+        <v>0.10977768</v>
       </c>
       <c r="N6">
-        <v>4.99617572</v>
+        <v>5.040222320000001</v>
       </c>
       <c r="O6">
-        <v>1.0991586584</v>
+        <v>1.1088489104</v>
       </c>
       <c r="P6">
-        <v>3.8970170616</v>
+        <v>3.931373409600001</v>
       </c>
       <c r="Q6">
-        <v>4.0370170616</v>
+        <v>4.0713734096</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1114990233201779</v>
+        <v>0.1097991049722187</v>
       </c>
       <c r="T6">
         <v>1.000017010841838</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>33.47976015229845</v>
+        <v>46.91299725044291</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1075624516355021</v>
+        <v>0.1057318022445756</v>
       </c>
       <c r="C7">
-        <v>163.367632878726</v>
+        <v>163.2236814005404</v>
       </c>
       <c r="D7">
-        <v>171.458132878726</v>
+        <v>171.3141814005404</v>
       </c>
       <c r="E7">
         <v>6.2605</v>
@@ -1804,37 +1804,37 @@
         <v>5.15</v>
       </c>
       <c r="M7">
-        <v>0.19228035</v>
+        <v>0.1372221</v>
       </c>
       <c r="N7">
-        <v>4.95771965</v>
+        <v>5.012777900000001</v>
       </c>
       <c r="O7">
-        <v>1.090698323</v>
+        <v>1.102811138</v>
       </c>
       <c r="P7">
-        <v>3.867021327000001</v>
+        <v>3.909966762000001</v>
       </c>
       <c r="Q7">
-        <v>4.007021327</v>
+        <v>4.049966762</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1122917385636865</v>
+        <v>0.1106315813100796</v>
       </c>
       <c r="T7">
         <v>1.008300572165238</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>26.78380812183877</v>
+        <v>37.53039780035432</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1073776008836335</v>
+        <v>0.1055510237158212</v>
       </c>
       <c r="C8">
-        <v>162.0196236746282</v>
+        <v>161.8513434397659</v>
       </c>
       <c r="D8">
-        <v>171.8042236746282</v>
+        <v>171.6359434397659</v>
       </c>
       <c r="E8">
         <v>7.9546</v>
@@ -1886,37 +1886,37 @@
         <v>5.15</v>
       </c>
       <c r="M8">
-        <v>0.23073642</v>
+        <v>0.16466652</v>
       </c>
       <c r="N8">
-        <v>4.91926358</v>
+        <v>4.98533348</v>
       </c>
       <c r="O8">
-        <v>1.0822379876</v>
+        <v>1.0967733656</v>
       </c>
       <c r="P8">
-        <v>3.8370255924</v>
+        <v>3.888560114400001</v>
       </c>
       <c r="Q8">
-        <v>3.9770255924</v>
+        <v>4.0285601144</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1131013200889718</v>
+        <v>0.1114817699104481</v>
       </c>
       <c r="T8">
         <v>1.016760379474242</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>22.3198401015323</v>
+        <v>31.27533150029527</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1071927501317648</v>
+        <v>0.1053702451870669</v>
       </c>
       <c r="C9">
-        <v>160.6730144753173</v>
+        <v>160.4802164193392</v>
       </c>
       <c r="D9">
-        <v>172.1517144753173</v>
+        <v>171.9589164193392</v>
       </c>
       <c r="E9">
         <v>9.648700000000002</v>
@@ -1968,37 +1968,37 @@
         <v>5.15</v>
       </c>
       <c r="M9">
-        <v>0.26919249</v>
+        <v>0.19211094</v>
       </c>
       <c r="N9">
-        <v>4.88080751</v>
+        <v>4.95788906</v>
       </c>
       <c r="O9">
-        <v>1.0737776522</v>
+        <v>1.0907355932</v>
       </c>
       <c r="P9">
-        <v>3.8070298578</v>
+        <v>3.8671534668</v>
       </c>
       <c r="Q9">
-        <v>3.9470298578</v>
+        <v>4.0071534668</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1139283119696396</v>
+        <v>0.1123502421366311</v>
       </c>
       <c r="T9">
         <v>1.025402118123225</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>19.13129151559912</v>
+        <v>26.80742700025308</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1070078993798962</v>
+        <v>0.1051894666583125</v>
       </c>
       <c r="C10">
-        <v>159.3278137929487</v>
+        <v>159.1103071881465</v>
       </c>
       <c r="D10">
-        <v>172.5006137929487</v>
+        <v>172.2831071881465</v>
       </c>
       <c r="E10">
         <v>11.3428</v>
@@ -2050,37 +2050,37 @@
         <v>5.15</v>
       </c>
       <c r="M10">
-        <v>0.30764856</v>
+        <v>0.21955536</v>
       </c>
       <c r="N10">
-        <v>4.842351440000001</v>
+        <v>4.93044464</v>
       </c>
       <c r="O10">
-        <v>1.0653173168</v>
+        <v>1.0846978208</v>
       </c>
       <c r="P10">
-        <v>3.777034123200001</v>
+        <v>3.8457468192</v>
       </c>
       <c r="Q10">
-        <v>3.917034123200001</v>
+        <v>3.9857468192</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1147732819346697</v>
+        <v>0.113237594193818</v>
       </c>
       <c r="T10">
         <v>1.034231720655882</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>16.73988007614923</v>
+        <v>23.45649862522145</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1068230486280275</v>
+        <v>0.1050086881295582</v>
       </c>
       <c r="C11">
-        <v>157.9840302088242</v>
+        <v>157.7416226468199</v>
       </c>
       <c r="D11">
-        <v>172.8509302088242</v>
+        <v>172.6085226468199</v>
       </c>
       <c r="E11">
         <v>13.0369</v>
@@ -2132,37 +2132,37 @@
         <v>5.15</v>
       </c>
       <c r="M11">
-        <v>0.34610463</v>
+        <v>0.2469997799999999</v>
       </c>
       <c r="N11">
-        <v>4.80389537</v>
+        <v>4.90300022</v>
       </c>
       <c r="O11">
-        <v>1.0568569814</v>
+        <v>1.0786600484</v>
       </c>
       <c r="P11">
-        <v>3.7470383886</v>
+        <v>3.8243401716</v>
       </c>
       <c r="Q11">
-        <v>3.8870383886</v>
+        <v>3.9643401716</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1156368226681621</v>
+        <v>0.11414444849402</v>
       </c>
       <c r="T11">
         <v>1.043255380387058</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>14.87989340102154</v>
+        <v>20.85022100019685</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1066381978761588</v>
+        <v>0.1048279096008038</v>
       </c>
       <c r="C12">
-        <v>156.6416723740955</v>
+        <v>156.3741697482267</v>
       </c>
       <c r="D12">
-        <v>173.2026723740955</v>
+        <v>172.9351697482267</v>
       </c>
       <c r="E12">
         <v>14.731</v>
@@ -2214,37 +2214,37 @@
         <v>5.15</v>
       </c>
       <c r="M12">
-        <v>0.3845607</v>
+        <v>0.2744442</v>
       </c>
       <c r="N12">
-        <v>4.765439300000001</v>
+        <v>4.875555800000001</v>
       </c>
       <c r="O12">
-        <v>1.048396646</v>
+        <v>1.072622276</v>
       </c>
       <c r="P12">
-        <v>3.717042654000001</v>
+        <v>3.802933524000001</v>
       </c>
       <c r="Q12">
-        <v>3.857042654</v>
+        <v>3.942933524</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.116519553195732</v>
+        <v>0.1150714551120042</v>
       </c>
       <c r="T12">
         <v>1.052479565890038</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>13.39190406091938</v>
+        <v>18.76519890017716</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2263,13 +2263,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1065906271242902</v>
+        <v>0.1046471310720494</v>
       </c>
       <c r="C13">
-        <v>155.0383238273179</v>
+        <v>155.0079554979652</v>
       </c>
       <c r="D13">
-        <v>173.2934238273179</v>
+        <v>173.2630554979652</v>
       </c>
       <c r="E13">
         <v>16.4251</v>
@@ -2296,45 +2296,45 @@
         <v>5.15</v>
       </c>
       <c r="M13">
-        <v>0.4528329300000001</v>
+        <v>0.30188862</v>
       </c>
       <c r="N13">
-        <v>4.69716707</v>
+        <v>4.848111380000001</v>
       </c>
       <c r="O13">
-        <v>1.0333767554</v>
+        <v>1.0665845036</v>
       </c>
       <c r="P13">
-        <v>3.6637903146</v>
+        <v>3.781526876400001</v>
       </c>
       <c r="Q13">
-        <v>3.8037903146</v>
+        <v>3.9215268764</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.117422120364371</v>
+        <v>0.1160192933393814</v>
       </c>
       <c r="T13">
         <v>1.061911036460501</v>
       </c>
       <c r="U13">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y13">
-        <v>11.37284781828918</v>
+        <v>17.05927172743378</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1064182563724215</v>
+        <v>0.1044663525432951</v>
       </c>
       <c r="C14">
-        <v>153.6738562761728</v>
+        <v>153.6429869548649</v>
       </c>
       <c r="D14">
-        <v>173.6230562761729</v>
+        <v>173.5921869548649</v>
       </c>
       <c r="E14">
         <v>18.1192</v>
@@ -2378,45 +2378,45 @@
         <v>5.15</v>
       </c>
       <c r="M14">
-        <v>0.4939995600000001</v>
+        <v>0.32933304</v>
       </c>
       <c r="N14">
-        <v>4.656000440000001</v>
+        <v>4.820666960000001</v>
       </c>
       <c r="O14">
-        <v>1.0243200968</v>
+        <v>1.0605467312</v>
       </c>
       <c r="P14">
-        <v>3.6316803432</v>
+        <v>3.7601202288</v>
       </c>
       <c r="Q14">
-        <v>3.7716803432</v>
+        <v>3.9001202288</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1183452004232063</v>
+        <v>0.1169886733446535</v>
       </c>
       <c r="T14">
         <v>1.071556858634838</v>
       </c>
       <c r="U14">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y14">
-        <v>10.42511050009842</v>
+        <v>15.63766575014763</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1064689656205528</v>
+        <v>0.1042855740145407</v>
       </c>
       <c r="C15">
-        <v>151.8826525474408</v>
+        <v>152.2792712314936</v>
       </c>
       <c r="D15">
-        <v>173.5259525474409</v>
+        <v>173.9225712314936</v>
       </c>
       <c r="E15">
         <v>19.8133</v>
@@ -2460,45 +2460,45 @@
         <v>5.15</v>
       </c>
       <c r="M15">
-        <v>0.58361745</v>
+        <v>0.35677746</v>
       </c>
       <c r="N15">
-        <v>4.56638255</v>
+        <v>4.79322254</v>
       </c>
       <c r="O15">
-        <v>1.004604161</v>
+        <v>1.0545089588</v>
       </c>
       <c r="P15">
-        <v>3.561778389</v>
+        <v>3.7387135812</v>
       </c>
       <c r="Q15">
-        <v>3.701778389</v>
+        <v>3.8787135812</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1192895007132791</v>
+        <v>0.1179803379477479</v>
       </c>
       <c r="T15">
         <v>1.081424423847665</v>
       </c>
       <c r="U15">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y15">
-        <v>8.824273503131204</v>
+        <v>14.43476838475166</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1063137548686842</v>
+        <v>0.1042795154857863</v>
       </c>
       <c r="C16">
-        <v>150.4861105661385</v>
+        <v>150.5962653594585</v>
       </c>
       <c r="D16">
-        <v>173.8235105661385</v>
+        <v>173.9336653594585</v>
       </c>
       <c r="E16">
         <v>21.5074</v>
@@ -2542,45 +2542,45 @@
         <v>5.15</v>
       </c>
       <c r="M16">
-        <v>0.6285111000000001</v>
+        <v>0.42216972</v>
       </c>
       <c r="N16">
-        <v>4.5214889</v>
+        <v>4.72783028</v>
       </c>
       <c r="O16">
-        <v>0.9947275580000001</v>
+        <v>1.0401226616</v>
       </c>
       <c r="P16">
-        <v>3.526761342</v>
+        <v>3.6877076184</v>
       </c>
       <c r="Q16">
-        <v>3.666761342</v>
+        <v>3.8277076184</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1202557614752142</v>
+        <v>0.1189950645183562</v>
       </c>
       <c r="T16">
         <v>1.091521467321256</v>
       </c>
       <c r="U16">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>8.193968252907545</v>
+        <v>12.19888532033989</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1062872441168155</v>
+        <v>0.104111216957032</v>
       </c>
       <c r="C17">
-        <v>148.8429369923164</v>
+        <v>149.2109134266214</v>
       </c>
       <c r="D17">
-        <v>173.8744369923164</v>
+        <v>174.2424134266214</v>
       </c>
       <c r="E17">
         <v>23.2015</v>
@@ -2624,45 +2624,45 @@
         <v>5.15</v>
       </c>
       <c r="M17">
-        <v>0.7013574</v>
+        <v>0.4523247</v>
       </c>
       <c r="N17">
-        <v>4.4486426</v>
+        <v>4.6976753</v>
       </c>
       <c r="O17">
-        <v>0.9787013720000001</v>
+        <v>1.033488566</v>
       </c>
       <c r="P17">
-        <v>3.469941228</v>
+        <v>3.664186734</v>
       </c>
       <c r="Q17">
-        <v>3.609941228</v>
+        <v>3.804186734</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1212447577844889</v>
+        <v>0.1200336670082729</v>
       </c>
       <c r="T17">
         <v>1.101856088288344</v>
       </c>
       <c r="U17">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>7.342903917460627</v>
+        <v>11.38562629898389</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2673,13 +2673,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1061406133649468</v>
+        <v>0.1042174784282776</v>
       </c>
       <c r="C18">
-        <v>147.4310504783366</v>
+        <v>147.3217465589518</v>
       </c>
       <c r="D18">
-        <v>174.1566504783366</v>
+        <v>174.0473465589518</v>
       </c>
       <c r="E18">
         <v>24.8956</v>
@@ -2706,45 +2706,45 @@
         <v>5.15</v>
       </c>
       <c r="M18">
-        <v>0.74811456</v>
+        <v>0.5421119999999999</v>
       </c>
       <c r="N18">
-        <v>4.40188544</v>
+        <v>4.607888000000001</v>
       </c>
       <c r="O18">
-        <v>0.9684147968</v>
+        <v>1.01373536</v>
       </c>
       <c r="P18">
-        <v>3.4334706432</v>
+        <v>3.594152640000001</v>
       </c>
       <c r="Q18">
-        <v>3.5734706432</v>
+        <v>3.73415264</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1222573016249367</v>
+        <v>0.1210969981289019</v>
       </c>
       <c r="T18">
         <v>1.112436771659409</v>
       </c>
       <c r="U18">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y18">
-        <v>6.883972422619338</v>
+        <v>9.499881943214689</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1059939826130782</v>
+        <v>0.1040663398995232</v>
       </c>
       <c r="C19">
-        <v>146.0200815682688</v>
+        <v>145.9052267622224</v>
       </c>
       <c r="D19">
-        <v>174.4397815682688</v>
+        <v>174.3249267622224</v>
       </c>
       <c r="E19">
         <v>26.5897</v>
@@ -2788,45 +2788,45 @@
         <v>5.15</v>
       </c>
       <c r="M19">
-        <v>0.7948717200000001</v>
+        <v>0.5759939999999999</v>
       </c>
       <c r="N19">
-        <v>4.355128280000001</v>
+        <v>4.574006000000001</v>
       </c>
       <c r="O19">
-        <v>0.9581282216000001</v>
+        <v>1.00628132</v>
       </c>
       <c r="P19">
-        <v>3.397000058400001</v>
+        <v>3.56772468</v>
       </c>
       <c r="Q19">
-        <v>3.5370000584</v>
+        <v>3.70772468</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1232942441121424</v>
+        <v>0.1221859516861726</v>
       </c>
       <c r="T19">
         <v>1.123272411256284</v>
       </c>
       <c r="U19">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y19">
-        <v>6.479032868347613</v>
+        <v>8.941065358319708</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1060579518612096</v>
+        <v>0.1039152013707689</v>
       </c>
       <c r="C20">
-        <v>144.2023494511975</v>
+        <v>144.4895937799356</v>
       </c>
       <c r="D20">
-        <v>174.3161494511975</v>
+        <v>174.6033937799356</v>
       </c>
       <c r="E20">
         <v>28.2838</v>
@@ -2870,45 +2870,45 @@
         <v>5.15</v>
       </c>
       <c r="M20">
-        <v>0.8873695799999999</v>
+        <v>0.6098759999999999</v>
       </c>
       <c r="N20">
-        <v>4.262630420000001</v>
+        <v>4.540124</v>
       </c>
       <c r="O20">
-        <v>0.9377786924000001</v>
+        <v>0.9988272800000001</v>
       </c>
       <c r="P20">
-        <v>3.3248517276</v>
+        <v>3.541296720000001</v>
       </c>
       <c r="Q20">
-        <v>3.4648517276</v>
+        <v>3.68129672</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1243564778795238</v>
+        <v>0.1233014650863035</v>
       </c>
       <c r="T20">
         <v>1.134372334745764</v>
       </c>
       <c r="U20">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y20">
-        <v>5.80366976294139</v>
+        <v>8.444339505079723</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1059230211093409</v>
+        <v>0.1037640628420145</v>
       </c>
       <c r="C21">
-        <v>142.7692328139253</v>
+        <v>143.0748518686889</v>
       </c>
       <c r="D21">
-        <v>174.5771328139253</v>
+        <v>174.8827518686889</v>
       </c>
       <c r="E21">
         <v>29.9779</v>
@@ -2952,45 +2952,45 @@
         <v>5.15</v>
       </c>
       <c r="M21">
-        <v>0.9366678899999999</v>
+        <v>0.6437579999999998</v>
       </c>
       <c r="N21">
-        <v>4.213332110000001</v>
+        <v>4.506242</v>
       </c>
       <c r="O21">
-        <v>0.9269330642000001</v>
+        <v>0.99137324</v>
       </c>
       <c r="P21">
-        <v>3.286399045800001</v>
+        <v>3.51486876</v>
       </c>
       <c r="Q21">
-        <v>3.4263990458</v>
+        <v>3.65486876</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1254449396411616</v>
+        <v>0.1244445220271784</v>
       </c>
       <c r="T21">
         <v>1.145746330420171</v>
       </c>
       <c r="U21">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y21">
-        <v>5.498213459628685</v>
+        <v>7.999900583759739</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1057880903574722</v>
+        <v>0.1037845243132602</v>
       </c>
       <c r="C22">
-        <v>141.3368988286954</v>
+        <v>141.3428794401115</v>
       </c>
       <c r="D22">
-        <v>174.8388988286954</v>
+        <v>174.8448794401115</v>
       </c>
       <c r="E22">
         <v>31.672</v>
@@ -3034,45 +3034,45 @@
         <v>5.15</v>
       </c>
       <c r="M22">
-        <v>0.9859662</v>
+        <v>0.7149101999999999</v>
       </c>
       <c r="N22">
-        <v>4.1640338</v>
+        <v>4.4350898</v>
       </c>
       <c r="O22">
-        <v>0.9160874360000001</v>
+        <v>0.975719756</v>
       </c>
       <c r="P22">
-        <v>3.247946364</v>
+        <v>3.459370044</v>
       </c>
       <c r="Q22">
-        <v>3.387946364</v>
+        <v>3.599370044</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1265606129468403</v>
+        <v>0.1256161553915752</v>
       </c>
       <c r="T22">
         <v>1.157404675986438</v>
       </c>
       <c r="U22">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y22">
-        <v>5.223302786647251</v>
+        <v>7.203701947461374</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1056531596056036</v>
+        <v>0.1036419657845058</v>
       </c>
       <c r="C23">
-        <v>139.9053510213885</v>
+        <v>139.9129845429621</v>
       </c>
       <c r="D23">
-        <v>175.1014510213885</v>
+        <v>175.1090845429621</v>
       </c>
       <c r="E23">
         <v>33.3661</v>
@@ -3116,45 +3116,45 @@
         <v>5.15</v>
       </c>
       <c r="M23">
-        <v>1.03526451</v>
+        <v>0.75065571</v>
       </c>
       <c r="N23">
-        <v>4.11473549</v>
+        <v>4.39934429</v>
       </c>
       <c r="O23">
-        <v>0.9052418078000001</v>
+        <v>0.9678557438000001</v>
       </c>
       <c r="P23">
-        <v>3.2094936822</v>
+        <v>3.4314885462</v>
       </c>
       <c r="Q23">
-        <v>3.3494936822</v>
+        <v>3.5714885462</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1277045311463336</v>
+        <v>0.1268174503601339</v>
       </c>
       <c r="T23">
         <v>1.169358169541723</v>
       </c>
       <c r="U23">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y23">
-        <v>4.97457408252119</v>
+        <v>6.860668521391784</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1055182288537349</v>
+        <v>0.1034994072557514</v>
       </c>
       <c r="C24">
-        <v>138.4745929390954</v>
+        <v>138.4838893258075</v>
       </c>
       <c r="D24">
-        <v>175.3647929390954</v>
+        <v>175.3740893258075</v>
       </c>
       <c r="E24">
         <v>35.0602</v>
@@ -3198,45 +3198,45 @@
         <v>5.15</v>
       </c>
       <c r="M24">
-        <v>1.08456282</v>
+        <v>0.7864012200000001</v>
       </c>
       <c r="N24">
-        <v>4.06543718</v>
+        <v>4.36359878</v>
       </c>
       <c r="O24">
-        <v>0.8943961796</v>
+        <v>0.9599917316000001</v>
       </c>
       <c r="P24">
-        <v>3.1710410004</v>
+        <v>3.4036070484</v>
       </c>
       <c r="Q24">
-        <v>3.311041000399999</v>
+        <v>3.5436070484</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1288777805817114</v>
+        <v>0.1280495477637839</v>
       </c>
       <c r="T24">
         <v>1.18161816293176</v>
       </c>
       <c r="U24">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y24">
-        <v>4.748457078770227</v>
+        <v>6.548819952237611</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1053832981018662</v>
+        <v>0.103625948726997</v>
       </c>
       <c r="C25">
-        <v>137.0446281502779</v>
+        <v>136.5545190149211</v>
       </c>
       <c r="D25">
-        <v>175.6289281502779</v>
+        <v>175.1388190149211</v>
       </c>
       <c r="E25">
         <v>36.7543</v>
@@ -3280,37 +3280,37 @@
         <v>5.15</v>
       </c>
       <c r="M25">
-        <v>1.13386113</v>
+        <v>0.88059318</v>
       </c>
       <c r="N25">
-        <v>4.016138870000001</v>
+        <v>4.26940682</v>
       </c>
       <c r="O25">
-        <v>0.8835505514000002</v>
+        <v>0.9392695004000001</v>
       </c>
       <c r="P25">
-        <v>3.132588318600001</v>
+        <v>3.3301373196</v>
       </c>
       <c r="Q25">
-        <v>3.2725883186</v>
+        <v>3.4701373196</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1300815040283977</v>
+        <v>0.1293136476973988</v>
       </c>
       <c r="T25">
         <v>1.194196597708552</v>
       </c>
       <c r="U25">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>4.542002423171523</v>
+        <v>5.848330553729704</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1138782873499976</v>
+        <v>0.1034950901982427</v>
       </c>
       <c r="C26">
-        <v>120.1385388648892</v>
+        <v>135.1037269000331</v>
       </c>
       <c r="D26">
-        <v>160.4169388648892</v>
+        <v>175.3821269000331</v>
       </c>
       <c r="E26">
         <v>38.4484</v>
@@ -3362,45 +3362,45 @@
         <v>5.15</v>
       </c>
       <c r="M26">
-        <v>3.05751168</v>
+        <v>0.91887984</v>
       </c>
       <c r="N26">
-        <v>2.09248832</v>
+        <v>4.231120160000001</v>
       </c>
       <c r="O26">
-        <v>0.4603474304</v>
+        <v>0.9308464352000001</v>
       </c>
       <c r="P26">
-        <v>1.6321408896</v>
+        <v>3.3002737248</v>
       </c>
       <c r="Q26">
-        <v>1.7721408896</v>
+        <v>3.4402737248</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1313169044078916</v>
+        <v>0.1306110134187404</v>
       </c>
       <c r="T26">
         <v>1.207106043926837</v>
       </c>
       <c r="U26">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y26">
-        <v>1.684376231066434</v>
+        <v>5.604650113990966</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1141029365981289</v>
+        <v>0.1033642316694883</v>
       </c>
       <c r="C27">
-        <v>118.0778420372598</v>
+        <v>133.6536117462241</v>
       </c>
       <c r="D27">
-        <v>160.0503420372598</v>
+        <v>175.6261117462241</v>
       </c>
       <c r="E27">
         <v>40.1425</v>
@@ -3444,45 +3444,45 @@
         <v>5.15</v>
       </c>
       <c r="M27">
-        <v>3.184908</v>
+        <v>0.9571664999999999</v>
       </c>
       <c r="N27">
-        <v>1.965092</v>
+        <v>4.192833500000001</v>
       </c>
       <c r="O27">
-        <v>0.4323202400000001</v>
+        <v>0.9224233700000002</v>
       </c>
       <c r="P27">
-        <v>1.53277176</v>
+        <v>3.270410130000001</v>
       </c>
       <c r="Q27">
-        <v>1.67277176</v>
+        <v>3.41041013</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1325852487975052</v>
+        <v>0.1319429755593177</v>
       </c>
       <c r="T27">
         <v>1.220359742044277</v>
       </c>
       <c r="U27">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y27">
-        <v>1.617001181823777</v>
+        <v>5.380464109431328</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1143275858462603</v>
+        <v>0.103233373140734</v>
       </c>
       <c r="C28">
-        <v>116.0188169384358</v>
+        <v>132.2041763827162</v>
       </c>
       <c r="D28">
-        <v>159.6854169384358</v>
+        <v>175.8707763827162</v>
       </c>
       <c r="E28">
         <v>41.8366</v>
@@ -3526,45 +3526,45 @@
         <v>5.15</v>
       </c>
       <c r="M28">
-        <v>3.31230432</v>
+        <v>0.9954531599999998</v>
       </c>
       <c r="N28">
-        <v>1.83769568</v>
+        <v>4.15454684</v>
       </c>
       <c r="O28">
-        <v>0.4042930496000001</v>
+        <v>0.9140003048000001</v>
       </c>
       <c r="P28">
-        <v>1.4334026304</v>
+        <v>3.2405465352</v>
       </c>
       <c r="Q28">
-        <v>1.5734026304</v>
+        <v>3.3805465352</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1338878727652166</v>
+        <v>0.1333109366766675</v>
       </c>
       <c r="T28">
         <v>1.233971648218945</v>
       </c>
       <c r="U28">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y28">
-        <v>1.554808828676708</v>
+        <v>5.173523182145507</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3575,13 +3575,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1233508535950871</v>
+        <v>0.1031025146119796</v>
       </c>
       <c r="C29">
-        <v>100.9274799621188</v>
+        <v>130.7554236545194</v>
       </c>
       <c r="D29">
-        <v>146.2881799621188</v>
+        <v>176.1161236545194</v>
       </c>
       <c r="E29">
         <v>43.5307</v>
@@ -3608,45 +3608,45 @@
         <v>5.15</v>
       </c>
       <c r="M29">
-        <v>5.28305085</v>
+        <v>1.03373982</v>
       </c>
       <c r="N29">
-        <v>-0.1330508500000001</v>
+        <v>4.11626018</v>
       </c>
       <c r="O29">
-        <v>-0.02927118700000001</v>
+        <v>0.9055772396</v>
       </c>
       <c r="P29">
-        <v>-0.103779663</v>
+        <v>3.2106829404</v>
       </c>
       <c r="Q29">
-        <v>0.03622033699999963</v>
+        <v>3.3506829404</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1354161239494661</v>
+        <v>0.134716376180794</v>
       </c>
       <c r="T29">
-        <v>1.249941269726738</v>
+        <v>1.247956483329905</v>
       </c>
       <c r="U29">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V29">
-        <v>0.2144594160020247</v>
+        <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.09072993745176615</v>
+        <v>0.017628</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y29">
-        <v>0.9748155272819303</v>
+        <v>4.981911212436414</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1243478535950871</v>
+        <v>0.1029716560832252</v>
       </c>
       <c r="C30">
-        <v>97.8897392489059</v>
+        <v>129.3073564225413</v>
       </c>
       <c r="D30">
-        <v>144.9445392489059</v>
+        <v>176.3621564225413</v>
       </c>
       <c r="E30">
         <v>45.2248</v>
@@ -3690,45 +3690,45 @@
         <v>5.15</v>
       </c>
       <c r="M30">
-        <v>5.4787194</v>
+        <v>1.07202648</v>
       </c>
       <c r="N30">
-        <v>-0.3287193999999998</v>
+        <v>4.07797352</v>
       </c>
       <c r="O30">
-        <v>-0.07231826799999995</v>
+        <v>0.8971541744000001</v>
       </c>
       <c r="P30">
-        <v>-0.2564011319999998</v>
+        <v>3.1808193456</v>
       </c>
       <c r="Q30">
-        <v>-0.1164011320000001</v>
+        <v>3.3208193456</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1370774590043198</v>
+        <v>0.1361608556711462</v>
       </c>
       <c r="T30">
-        <v>1.26730156513961</v>
+        <v>1.262329786082837</v>
       </c>
       <c r="U30">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V30">
-        <v>0.2068001511448095</v>
+        <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.09161458254277451</v>
+        <v>0.017628</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y30">
-        <v>0.9400006870218613</v>
+        <v>4.803985811992257</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1253448535950871</v>
+        <v>0.1028407975544709</v>
       </c>
       <c r="C31">
-        <v>94.8764562760087</v>
+        <v>127.8599775636986</v>
       </c>
       <c r="D31">
-        <v>143.6253562760087</v>
+        <v>176.6088775636986</v>
       </c>
       <c r="E31">
         <v>46.91889999999999</v>
@@ -3772,45 +3772,45 @@
         <v>5.15</v>
       </c>
       <c r="M31">
-        <v>5.674387949999999</v>
+        <v>1.11031314</v>
       </c>
       <c r="N31">
-        <v>-0.5243879499999986</v>
+        <v>4.039686860000001</v>
       </c>
       <c r="O31">
-        <v>-0.1153653489999997</v>
+        <v>0.8887311092000002</v>
       </c>
       <c r="P31">
-        <v>-0.4090226009999989</v>
+        <v>3.150955750800001</v>
       </c>
       <c r="Q31">
-        <v>-0.2690226009999993</v>
+        <v>3.2909557508</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1387855922297327</v>
+        <v>0.1376460247246069</v>
       </c>
       <c r="T31">
-        <v>1.285150882958477</v>
+        <v>1.277107970603457</v>
       </c>
       <c r="U31">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V31">
-        <v>0.1996691114501609</v>
+        <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.0924382176275064</v>
+        <v>0.017628</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y31">
-        <v>0.9075868702280043</v>
+        <v>4.638331128820111</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1263418535950871</v>
+        <v>0.1238855482971018</v>
       </c>
       <c r="C32">
-        <v>91.88696927506604</v>
+        <v>93.72993897895583</v>
       </c>
       <c r="D32">
-        <v>142.329969275066</v>
+        <v>144.1729389789558</v>
       </c>
       <c r="E32">
         <v>48.613</v>
@@ -3854,37 +3854,37 @@
         <v>5.15</v>
       </c>
       <c r="M32">
-        <v>5.8700565</v>
+        <v>5.539707</v>
       </c>
       <c r="N32">
-        <v>-0.7200564999999992</v>
+        <v>-0.3897069999999996</v>
       </c>
       <c r="O32">
-        <v>-0.1584124299999998</v>
+        <v>-0.0857355399999999</v>
       </c>
       <c r="P32">
-        <v>-0.5616440699999994</v>
+        <v>-0.3039714599999997</v>
       </c>
       <c r="Q32">
-        <v>-0.4216440699999997</v>
+        <v>-0.16397146</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1405425292615861</v>
+        <v>0.13981923597875</v>
       </c>
       <c r="T32">
-        <v>1.303510181286456</v>
+        <v>1.298732523607156</v>
       </c>
       <c r="U32">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V32">
-        <v>0.1930134744018222</v>
+        <v>0.2045234522331235</v>
       </c>
       <c r="W32">
-        <v>0.09320694370658952</v>
+        <v>0.08670694370658953</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.8773339745537374</v>
+        <v>0.929652055605107</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1273388535950871</v>
+        <v>0.1248825482971019</v>
       </c>
       <c r="C33">
-        <v>88.92064013881921</v>
+        <v>90.79222199456009</v>
       </c>
       <c r="D33">
-        <v>141.0577401388192</v>
+        <v>142.9293219945601</v>
       </c>
       <c r="E33">
         <v>50.3071</v>
@@ -3936,37 +3936,37 @@
         <v>5.15</v>
       </c>
       <c r="M33">
-        <v>6.065725049999999</v>
+        <v>5.7243639</v>
       </c>
       <c r="N33">
-        <v>-0.9157250499999989</v>
+        <v>-0.5743638999999998</v>
       </c>
       <c r="O33">
-        <v>-0.2014595109999998</v>
+        <v>-0.126360058</v>
       </c>
       <c r="P33">
-        <v>-0.7142655389999992</v>
+        <v>-0.4480038419999999</v>
       </c>
       <c r="Q33">
-        <v>-0.5742655389999995</v>
+        <v>-0.3080038420000002</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1423503920045076</v>
+        <v>0.1417108191088768</v>
       </c>
       <c r="T33">
-        <v>1.322401633189158</v>
+        <v>1.317554734094216</v>
       </c>
       <c r="U33">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V33">
-        <v>0.186787233292086</v>
+        <v>0.197925921515926</v>
       </c>
       <c r="W33">
-        <v>0.09392607455476405</v>
+        <v>0.08742607455476406</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.8490328786003911</v>
+        <v>0.8996632796178454</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1283358535950871</v>
+        <v>0.1258795482971019</v>
       </c>
       <c r="C34">
-        <v>85.97685337299592</v>
+        <v>87.87577608474911</v>
       </c>
       <c r="D34">
-        <v>139.8080533729959</v>
+        <v>141.7069760847491</v>
       </c>
       <c r="E34">
         <v>52.0012</v>
@@ -4018,37 +4018,37 @@
         <v>5.15</v>
       </c>
       <c r="M34">
-        <v>6.261393599999999</v>
+        <v>5.9090208</v>
       </c>
       <c r="N34">
-        <v>-1.111393599999999</v>
+        <v>-0.7590207999999992</v>
       </c>
       <c r="O34">
-        <v>-0.2445065919999997</v>
+        <v>-0.1669845759999998</v>
       </c>
       <c r="P34">
-        <v>-0.866887007999999</v>
+        <v>-0.5920362239999993</v>
       </c>
       <c r="Q34">
-        <v>-0.7268870079999993</v>
+        <v>-0.4520362239999997</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1442114271810445</v>
+        <v>0.1436580370369485</v>
       </c>
       <c r="T34">
-        <v>1.341848716030175</v>
+        <v>1.336930539007366</v>
       </c>
       <c r="U34">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V34">
-        <v>0.1809501322517083</v>
+        <v>0.1917407364685533</v>
       </c>
       <c r="W34">
-        <v>0.09460025972492768</v>
+        <v>0.08810025972492769</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.8225006011441289</v>
+        <v>0.8715488021297879</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1407702876049449</v>
+        <v>0.1268765482971018</v>
       </c>
       <c r="C35">
-        <v>70.37197468287465</v>
+        <v>84.98006014004986</v>
       </c>
       <c r="D35">
-        <v>125.8972746828747</v>
+        <v>140.5053601400499</v>
       </c>
       <c r="E35">
         <v>53.6953</v>
@@ -4100,45 +4100,45 @@
         <v>5.15</v>
       </c>
       <c r="M35">
-        <v>8.201307510000001</v>
+        <v>6.093677700000001</v>
       </c>
       <c r="N35">
-        <v>-3.051307510000001</v>
+        <v>-0.9436777000000003</v>
       </c>
       <c r="O35">
-        <v>-0.6712876522000002</v>
+        <v>-0.2076090940000001</v>
       </c>
       <c r="P35">
-        <v>-2.380019857800001</v>
+        <v>-0.7360686060000002</v>
       </c>
       <c r="Q35">
-        <v>-2.240019857800001</v>
+        <v>-0.5960686060000006</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1478316484969673</v>
+        <v>0.1456633808733209</v>
       </c>
       <c r="T35">
-        <v>1.379678599484917</v>
+        <v>1.35688472615673</v>
       </c>
       <c r="U35">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V35">
-        <v>0.1381487035595864</v>
+        <v>0.1859304111210214</v>
       </c>
       <c r="W35">
-        <v>0.1264335851878087</v>
+        <v>0.08873358518780868</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y35">
-        <v>0.6279486525435747</v>
+        <v>0.845138232368279</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1420792876049449</v>
+        <v>0.1278735482971018</v>
       </c>
       <c r="C36">
-        <v>67.37283459525989</v>
+        <v>82.10455125019672</v>
       </c>
       <c r="D36">
-        <v>124.5922345952599</v>
+        <v>139.3239512501967</v>
       </c>
       <c r="E36">
         <v>55.3894</v>
@@ -4182,45 +4182,45 @@
         <v>5.15</v>
       </c>
       <c r="M36">
-        <v>8.449831980000001</v>
+        <v>6.2783346</v>
       </c>
       <c r="N36">
-        <v>-3.29983198</v>
+        <v>-1.1283346</v>
       </c>
       <c r="O36">
-        <v>-0.7259630356000001</v>
+        <v>-0.2482336119999999</v>
       </c>
       <c r="P36">
-        <v>-2.5738689444</v>
+        <v>-0.8801009879999997</v>
       </c>
       <c r="Q36">
-        <v>-2.433868944400001</v>
+        <v>-0.740100988</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1498321280196486</v>
+        <v>0.1477294927047348</v>
       </c>
       <c r="T36">
-        <v>1.400582820689234</v>
+        <v>1.377443585643953</v>
       </c>
       <c r="U36">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V36">
-        <v>0.1340855063960692</v>
+        <v>0.1804618696174619</v>
       </c>
       <c r="W36">
-        <v>0.1270296562116967</v>
+        <v>0.08932965621169665</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y36">
-        <v>0.6094795745275872</v>
+        <v>0.8202812255339179</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4231,13 +4231,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1433882876049449</v>
+        <v>0.1411196036946806</v>
       </c>
       <c r="C37">
-        <v>64.40047278810894</v>
+        <v>66.41031223639587</v>
       </c>
       <c r="D37">
-        <v>123.313972788109</v>
+        <v>125.3238122363959</v>
       </c>
       <c r="E37">
         <v>57.0835</v>
@@ -4264,37 +4264,37 @@
         <v>5.15</v>
       </c>
       <c r="M37">
-        <v>8.69835645</v>
+        <v>8.3129487</v>
       </c>
       <c r="N37">
-        <v>-3.54835645</v>
+        <v>-3.162948699999999</v>
       </c>
       <c r="O37">
-        <v>-0.780638419</v>
+        <v>-0.6958487139999999</v>
       </c>
       <c r="P37">
-        <v>-2.767718031</v>
+        <v>-2.467099986</v>
       </c>
       <c r="Q37">
-        <v>-2.627718031000001</v>
+        <v>-2.327099986</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1518941607584124</v>
+        <v>0.1519038778195442</v>
       </c>
       <c r="T37">
-        <v>1.422130248699838</v>
+        <v>1.418980832426084</v>
       </c>
       <c r="U37">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V37">
-        <v>0.1302544919276101</v>
+        <v>0.136293394905709</v>
       </c>
       <c r="W37">
-        <v>0.1275916660342196</v>
+        <v>0.1210916660342196</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.5920658723982276</v>
+        <v>0.6195154313895863</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1446972876049449</v>
+        <v>0.1424286036946806</v>
       </c>
       <c r="C38">
-        <v>61.45407343116391</v>
+        <v>63.48395361079144</v>
       </c>
       <c r="D38">
-        <v>122.0616734311639</v>
+        <v>124.0915536107914</v>
       </c>
       <c r="E38">
         <v>58.77759999999999</v>
@@ -4346,37 +4346,37 @@
         <v>5.15</v>
       </c>
       <c r="M38">
-        <v>8.946880919999998</v>
+        <v>8.550461519999999</v>
       </c>
       <c r="N38">
-        <v>-3.796880919999998</v>
+        <v>-3.400461519999999</v>
       </c>
       <c r="O38">
-        <v>-0.8353138023999995</v>
+        <v>-0.7481015343999997</v>
       </c>
       <c r="P38">
-        <v>-2.961567117599998</v>
+        <v>-2.652359985599999</v>
       </c>
       <c r="Q38">
-        <v>-2.821567117599999</v>
+        <v>-2.512359985599999</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1540206320202626</v>
+        <v>0.1541320634104746</v>
       </c>
       <c r="T38">
-        <v>1.444351033835772</v>
+        <v>1.441152407932741</v>
       </c>
       <c r="U38">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V38">
-        <v>0.1266363115962876</v>
+        <v>0.1325074672694393</v>
       </c>
       <c r="W38">
-        <v>0.1281224530888246</v>
+        <v>0.1216224530888246</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.5756195981649437</v>
+        <v>0.6023066694065422</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4395,13 +4395,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1460062876049449</v>
+        <v>0.1437376036946806</v>
       </c>
       <c r="C39">
-        <v>58.53285350124026</v>
+        <v>60.58159164232141</v>
       </c>
       <c r="D39">
-        <v>120.8345535012403</v>
+        <v>122.8832916423214</v>
       </c>
       <c r="E39">
         <v>60.4717</v>
@@ -4428,37 +4428,37 @@
         <v>5.15</v>
       </c>
       <c r="M39">
-        <v>9.195405389999999</v>
+        <v>8.78797434</v>
       </c>
       <c r="N39">
-        <v>-4.045405389999999</v>
+        <v>-3.63797434</v>
       </c>
       <c r="O39">
-        <v>-0.8899891857999999</v>
+        <v>-0.8003543547999999</v>
       </c>
       <c r="P39">
-        <v>-3.155416204199999</v>
+        <v>-2.837619985199999</v>
       </c>
       <c r="Q39">
-        <v>-3.0154162042</v>
+        <v>-2.6976199852</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1562146103062985</v>
+        <v>0.1564309850519107</v>
       </c>
       <c r="T39">
-        <v>1.467277240722054</v>
+        <v>1.464027842979293</v>
       </c>
       <c r="U39">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V39">
-        <v>0.1232137085801717</v>
+        <v>0.1289261843702652</v>
       </c>
       <c r="W39">
-        <v>0.1286245489512888</v>
+        <v>0.1221245489512888</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.5600623117280532</v>
+        <v>0.5860281107739329</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1473152876049449</v>
+        <v>0.1450466036946806</v>
       </c>
       <c r="C40">
-        <v>55.63606114954764</v>
+        <v>57.70253213407774</v>
       </c>
       <c r="D40">
-        <v>119.6318611495476</v>
+        <v>121.6983321340777</v>
       </c>
       <c r="E40">
         <v>62.1658</v>
@@ -4510,37 +4510,37 @@
         <v>5.15</v>
       </c>
       <c r="M40">
-        <v>9.443929859999999</v>
+        <v>9.025487159999999</v>
       </c>
       <c r="N40">
-        <v>-4.293929859999999</v>
+        <v>-3.875487159999999</v>
       </c>
       <c r="O40">
-        <v>-0.9446645691999997</v>
+        <v>-0.8526071751999997</v>
       </c>
       <c r="P40">
-        <v>-3.349265290799999</v>
+        <v>-3.022879984799999</v>
       </c>
       <c r="Q40">
-        <v>-3.209265290799999</v>
+        <v>-2.882879984799999</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1584793620854323</v>
+        <v>0.1588040654559738</v>
       </c>
       <c r="T40">
-        <v>1.490943002669185</v>
+        <v>1.487641195285411</v>
       </c>
       <c r="U40">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V40">
-        <v>0.119971242564904</v>
+        <v>0.125533390044732</v>
       </c>
       <c r="W40">
-        <v>0.1291002187157286</v>
+        <v>0.1226002187157286</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.5453238298404729</v>
+        <v>0.5706063183851453</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1486242876049449</v>
+        <v>0.1463556036946806</v>
       </c>
       <c r="C41">
-        <v>52.76297416555175</v>
+        <v>54.84610740988485</v>
       </c>
       <c r="D41">
-        <v>118.4528741655518</v>
+        <v>120.5360074098849</v>
       </c>
       <c r="E41">
         <v>63.8599</v>
@@ -4592,37 +4592,37 @@
         <v>5.15</v>
       </c>
       <c r="M41">
-        <v>9.69245433</v>
+        <v>9.26299998</v>
       </c>
       <c r="N41">
-        <v>-4.54245433</v>
+        <v>-4.11299998</v>
       </c>
       <c r="O41">
-        <v>-0.9993399526</v>
+        <v>-0.9048599956</v>
       </c>
       <c r="P41">
-        <v>-3.5431143774</v>
+        <v>-3.2081399844</v>
       </c>
       <c r="Q41">
-        <v>-3.403114377400001</v>
+        <v>-3.0681399844</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1608183680212591</v>
+        <v>0.1612549517749242</v>
       </c>
       <c r="T41">
-        <v>1.515384691237532</v>
+        <v>1.51202875586386</v>
       </c>
       <c r="U41">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V41">
-        <v>0.1168950568581116</v>
+        <v>0.1223145851717901</v>
       </c>
       <c r="W41">
-        <v>0.129551495158915</v>
+        <v>0.123051495158915</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.5313411675368709</v>
+        <v>0.5559753871445006</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4641,13 +4641,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1499332876049449</v>
+        <v>0.1476646036946806</v>
       </c>
       <c r="C42">
-        <v>49.91289853078331</v>
+        <v>52.01167505980126</v>
       </c>
       <c r="D42">
-        <v>117.2968985307833</v>
+        <v>119.3956750598013</v>
       </c>
       <c r="E42">
         <v>65.554</v>
@@ -4674,37 +4674,37 @@
         <v>5.15</v>
       </c>
       <c r="M42">
-        <v>9.9409788</v>
+        <v>9.500512799999999</v>
       </c>
       <c r="N42">
-        <v>-4.7909788</v>
+        <v>-4.350512799999999</v>
       </c>
       <c r="O42">
-        <v>-1.054015336</v>
+        <v>-0.9571128159999998</v>
       </c>
       <c r="P42">
-        <v>-3.736963464</v>
+        <v>-3.393399983999999</v>
       </c>
       <c r="Q42">
-        <v>-3.596963464</v>
+        <v>-3.253399984</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1632353408216134</v>
+        <v>0.1637875343045062</v>
       </c>
       <c r="T42">
-        <v>1.540641102758157</v>
+        <v>1.537229235128258</v>
       </c>
       <c r="U42">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V42">
-        <v>0.1139726804366588</v>
+        <v>0.1192567205424954</v>
       </c>
       <c r="W42">
-        <v>0.1299802077799422</v>
+        <v>0.1234802077799421</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.5180576383484492</v>
+        <v>0.5420760024658881</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4723,13 +4723,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1512422876049449</v>
+        <v>0.1489736036946806</v>
       </c>
       <c r="C43">
-        <v>47.08516705650813</v>
+        <v>49.19861675616272</v>
       </c>
       <c r="D43">
-        <v>116.1632670565081</v>
+        <v>118.2767167561627</v>
       </c>
       <c r="E43">
         <v>67.24810000000001</v>
@@ -4756,37 +4756,37 @@
         <v>5.15</v>
       </c>
       <c r="M43">
-        <v>10.18950327</v>
+        <v>9.73802562</v>
       </c>
       <c r="N43">
-        <v>-5.039503269999999</v>
+        <v>-4.58802562</v>
       </c>
       <c r="O43">
-        <v>-1.1086907194</v>
+        <v>-1.0093656364</v>
       </c>
       <c r="P43">
-        <v>-3.930812550599999</v>
+        <v>-3.5786599836</v>
       </c>
       <c r="Q43">
-        <v>-3.7908125506</v>
+        <v>-3.4386599836</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1657342449033357</v>
+        <v>0.1664059670893284</v>
       </c>
       <c r="T43">
-        <v>1.566753663821855</v>
+        <v>1.563283967927042</v>
       </c>
       <c r="U43">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V43">
-        <v>0.111192858962594</v>
+        <v>0.1163480200414589</v>
       </c>
       <c r="W43">
-        <v>0.1303880075901875</v>
+        <v>0.1238880075901875</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.505422086193609</v>
+        <v>0.5288546365520859</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4805,13 +4805,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1717876876534815</v>
+        <v>0.1502826036946806</v>
       </c>
       <c r="C44">
-        <v>30.0910082600555</v>
+        <v>46.40633713558265</v>
       </c>
       <c r="D44">
-        <v>100.8632082600555</v>
+        <v>117.1785371355826</v>
       </c>
       <c r="E44">
         <v>68.9422</v>
@@ -4838,45 +4838,45 @@
         <v>5.15</v>
       </c>
       <c r="M44">
-        <v>13.53314844</v>
+        <v>9.975538439999999</v>
       </c>
       <c r="N44">
-        <v>-8.383148439999999</v>
+        <v>-4.825538439999999</v>
       </c>
       <c r="O44">
-        <v>-1.8442926568</v>
+        <v>-1.0616184568</v>
       </c>
       <c r="P44">
-        <v>-6.5388557832</v>
+        <v>-3.763919983199999</v>
       </c>
       <c r="Q44">
-        <v>-6.3988557832</v>
+        <v>-3.6239199832</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1699855250715598</v>
+        <v>0.169114690659834</v>
       </c>
       <c r="T44">
-        <v>1.611177863135311</v>
+        <v>1.590237139787853</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V44">
-        <v>0.08372035561593236</v>
+        <v>0.1135778290880908</v>
       </c>
       <c r="W44">
-        <v>0.1742763883618497</v>
+        <v>0.1242763883618497</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y44">
-        <v>0.3805470709815106</v>
+        <v>0.5162628594913219</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1735316876534815</v>
+        <v>0.1515916036946806</v>
       </c>
       <c r="C45">
-        <v>27.28168887818987</v>
+        <v>43.634262742662</v>
       </c>
       <c r="D45">
-        <v>99.74798887818987</v>
+        <v>116.100562742662</v>
       </c>
       <c r="E45">
         <v>70.63630000000001</v>
@@ -4920,45 +4920,45 @@
         <v>5.15</v>
       </c>
       <c r="M45">
-        <v>13.85536626</v>
+        <v>10.21305126</v>
       </c>
       <c r="N45">
-        <v>-8.70536626</v>
+        <v>-5.063051259999998</v>
       </c>
       <c r="O45">
-        <v>-1.9151805772</v>
+        <v>-1.1138712772</v>
       </c>
       <c r="P45">
-        <v>-6.7901856828</v>
+        <v>-3.949179982799999</v>
       </c>
       <c r="Q45">
-        <v>-6.6501856828</v>
+        <v>-3.809179982799999</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1726905342833415</v>
+        <v>0.1719184571626381</v>
       </c>
       <c r="T45">
-        <v>1.63944414143593</v>
+        <v>1.618136036977113</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V45">
-        <v>0.08177337060160834</v>
+        <v>0.1109364842255771</v>
       </c>
       <c r="W45">
-        <v>0.1746467049115741</v>
+        <v>0.1246467049115741</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y45">
-        <v>0.3716971390982197</v>
+        <v>0.5042567464798959</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1752756876534816</v>
+        <v>0.1731401033261205</v>
       </c>
       <c r="C46">
-        <v>24.49676120932564</v>
+        <v>26.67044011260211</v>
       </c>
       <c r="D46">
-        <v>98.65716120932565</v>
+        <v>100.8308401126021</v>
       </c>
       <c r="E46">
         <v>72.33040000000001</v>
@@ -5002,37 +5002,37 @@
         <v>5.15</v>
       </c>
       <c r="M46">
-        <v>14.17758408</v>
+        <v>13.69307148</v>
       </c>
       <c r="N46">
-        <v>-9.02758408</v>
+        <v>-8.54307148</v>
       </c>
       <c r="O46">
-        <v>-1.9860684976</v>
+        <v>-1.8794757256</v>
       </c>
       <c r="P46">
-        <v>-7.041515582400001</v>
+        <v>-6.6635957544</v>
       </c>
       <c r="Q46">
-        <v>-6.901515582400001</v>
+        <v>-6.523595754400001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1754921509669726</v>
+        <v>0.1767857503823993</v>
       </c>
       <c r="T46">
-        <v>1.668719929675858</v>
+        <v>1.666568070455041</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.07991488490611723</v>
+        <v>0.08274257544443929</v>
       </c>
       <c r="W46">
-        <v>0.1750001888908565</v>
+        <v>0.1685001888908565</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.3632494768459874</v>
+        <v>0.3761026156565422</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5051,13 +5051,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1770196876534816</v>
+        <v>0.1748841033261204</v>
       </c>
       <c r="C47">
-        <v>21.7354336786603</v>
+        <v>23.91434816033095</v>
       </c>
       <c r="D47">
-        <v>97.5899336786603</v>
+        <v>99.76884816033095</v>
       </c>
       <c r="E47">
         <v>74.0245</v>
@@ -5084,37 +5084,37 @@
         <v>5.15</v>
       </c>
       <c r="M47">
-        <v>14.4998019</v>
+        <v>14.00427765</v>
       </c>
       <c r="N47">
-        <v>-9.349801899999999</v>
+        <v>-8.854277649999998</v>
       </c>
       <c r="O47">
-        <v>-2.056956418</v>
+        <v>-1.947941083</v>
       </c>
       <c r="P47">
-        <v>-7.292845481999999</v>
+        <v>-6.906336566999999</v>
       </c>
       <c r="Q47">
-        <v>-7.152845481999999</v>
+        <v>-6.766336566999999</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1783956446209176</v>
+        <v>0.1798309458438974</v>
       </c>
       <c r="T47">
-        <v>1.6990602920336</v>
+        <v>1.696869308099678</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.07813899857487019</v>
+        <v>0.08090385154567399</v>
       </c>
       <c r="W47">
-        <v>0.1753379624710597</v>
+        <v>0.1688379624710597</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.3551772662494099</v>
+        <v>0.3677447797530636</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5133,13 +5133,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1787636876534816</v>
+        <v>0.1766281033261205</v>
       </c>
       <c r="C48">
-        <v>18.99694859639904</v>
+        <v>21.18039372026416</v>
       </c>
       <c r="D48">
-        <v>96.54554859639904</v>
+        <v>98.72899372026417</v>
       </c>
       <c r="E48">
         <v>75.71860000000001</v>
@@ -5166,37 +5166,37 @@
         <v>5.15</v>
       </c>
       <c r="M48">
-        <v>14.82201972</v>
+        <v>14.31548382</v>
       </c>
       <c r="N48">
-        <v>-9.672019720000002</v>
+        <v>-9.16548382</v>
       </c>
       <c r="O48">
-        <v>-2.127844338400001</v>
+        <v>-2.0164064404</v>
       </c>
       <c r="P48">
-        <v>-7.544175381600001</v>
+        <v>-7.1490773796</v>
       </c>
       <c r="Q48">
-        <v>-7.404175381600001</v>
+        <v>-7.009077379600001</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1814066750768605</v>
+        <v>0.1829889263224881</v>
       </c>
       <c r="T48">
-        <v>1.730524371515704</v>
+        <v>1.728292813805228</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.07644032469280779</v>
+        <v>0.07914507216424628</v>
       </c>
       <c r="W48">
-        <v>0.175661050243428</v>
+        <v>0.169161050243428</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.3474560213309444</v>
+        <v>0.3597503280193013</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5215,13 +5215,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1805076876534815</v>
+        <v>0.1783721033261205</v>
       </c>
       <c r="C49">
-        <v>16.28058036380531</v>
+        <v>18.46789173873786</v>
       </c>
       <c r="D49">
-        <v>95.52328036380533</v>
+        <v>97.71059173873788</v>
       </c>
       <c r="E49">
         <v>77.41270000000002</v>
@@ -5248,37 +5248,37 @@
         <v>5.15</v>
       </c>
       <c r="M49">
-        <v>15.14423754</v>
+        <v>14.62668999</v>
       </c>
       <c r="N49">
-        <v>-9.994237540000002</v>
+        <v>-9.476689990000002</v>
       </c>
       <c r="O49">
-        <v>-2.198732258800001</v>
+        <v>-2.0848717978</v>
       </c>
       <c r="P49">
-        <v>-7.795505281200001</v>
+        <v>-7.391818192200002</v>
       </c>
       <c r="Q49">
-        <v>-7.655505281200002</v>
+        <v>-7.251818192200003</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1845313293235937</v>
+        <v>0.1862660758757426</v>
       </c>
       <c r="T49">
-        <v>1.76317577475185</v>
+        <v>1.760902112178911</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.07481393480572678</v>
+        <v>0.077461134458624</v>
       </c>
       <c r="W49">
-        <v>0.1759703895999508</v>
+        <v>0.1694703895999508</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.3400633400260308</v>
+        <v>0.3520960657210183</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1822516876534815</v>
+        <v>0.1801161033261204</v>
       </c>
       <c r="C50">
-        <v>13.58563379202836</v>
+        <v>15.77618513915975</v>
       </c>
       <c r="D50">
-        <v>94.52243379202837</v>
+        <v>96.71298513915976</v>
       </c>
       <c r="E50">
         <v>79.10680000000001</v>
@@ -5330,37 +5330,37 @@
         <v>5.15</v>
       </c>
       <c r="M50">
-        <v>15.46645536</v>
+        <v>14.93789616</v>
       </c>
       <c r="N50">
-        <v>-10.31645536</v>
+        <v>-9.787896160000001</v>
       </c>
       <c r="O50">
-        <v>-2.2696201792</v>
+        <v>-2.1533371552</v>
       </c>
       <c r="P50">
-        <v>-8.0468351808</v>
+        <v>-7.634559004800001</v>
       </c>
       <c r="Q50">
-        <v>-7.906835180800001</v>
+        <v>-7.494559004800001</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1877761625798167</v>
+        <v>0.1896692696425838</v>
       </c>
       <c r="T50">
-        <v>1.797083001189385</v>
+        <v>1.794765614336198</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.0732553111639408</v>
+        <v>0.07584736082406934</v>
       </c>
       <c r="W50">
-        <v>0.1762668398166185</v>
+        <v>0.1697668398166185</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.3329786871088218</v>
+        <v>0.344760731018497</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1839956876534815</v>
+        <v>0.1818601033261205</v>
       </c>
       <c r="C51">
-        <v>10.91144252552149</v>
+        <v>13.10464340824046</v>
       </c>
       <c r="D51">
-        <v>93.54234252552149</v>
+        <v>95.73554340824046</v>
       </c>
       <c r="E51">
         <v>80.8009</v>
@@ -5412,37 +5412,37 @@
         <v>5.15</v>
       </c>
       <c r="M51">
-        <v>15.78867318</v>
+        <v>15.24910233</v>
       </c>
       <c r="N51">
-        <v>-10.63867318</v>
+        <v>-10.09910233</v>
       </c>
       <c r="O51">
-        <v>-2.3405080996</v>
+        <v>-2.2218025126</v>
       </c>
       <c r="P51">
-        <v>-8.2981650804</v>
+        <v>-7.877299817399999</v>
       </c>
       <c r="Q51">
-        <v>-8.1581650804</v>
+        <v>-7.737299817399999</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1911482441990287</v>
+        <v>0.1932059219885169</v>
       </c>
       <c r="T51">
-        <v>1.832319922781334</v>
+        <v>1.829957096970241</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.07176030481365631</v>
+        <v>0.07429945550112917</v>
       </c>
       <c r="W51">
-        <v>0.1765511900244426</v>
+        <v>0.1700511900244426</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.3261832036984377</v>
+        <v>0.3377247977324053</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5461,13 +5461,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1857396876534815</v>
+        <v>0.1836041033261204</v>
       </c>
       <c r="C52">
-        <v>8.257367562538391</v>
+        <v>10.45266126709782</v>
       </c>
       <c r="D52">
-        <v>92.58236756253839</v>
+        <v>94.77766126709783</v>
       </c>
       <c r="E52">
         <v>82.495</v>
@@ -5494,37 +5494,37 @@
         <v>5.15</v>
       </c>
       <c r="M52">
-        <v>16.110891</v>
+        <v>15.5603085</v>
       </c>
       <c r="N52">
-        <v>-10.960891</v>
+        <v>-10.4103085</v>
       </c>
       <c r="O52">
-        <v>-2.41139602</v>
+        <v>-2.29026787</v>
       </c>
       <c r="P52">
-        <v>-8.549494979999999</v>
+        <v>-8.12004063</v>
       </c>
       <c r="Q52">
-        <v>-8.409494979999998</v>
+        <v>-7.98004063</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1946552090830093</v>
+        <v>0.1968840404282872</v>
       </c>
       <c r="T52">
-        <v>1.86896632123696</v>
+        <v>1.866556238909646</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.07032509871738317</v>
+        <v>0.07281346639110658</v>
       </c>
       <c r="W52">
-        <v>0.1768241662239537</v>
+        <v>0.1703241662239537</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.319659539624469</v>
+        <v>0.3309703017777572</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5543,13 +5543,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1874836876534816</v>
+        <v>0.1853481033261205</v>
       </c>
       <c r="C53">
-        <v>5.622795865804079</v>
+        <v>7.819657421348197</v>
       </c>
       <c r="D53">
-        <v>91.64189586580409</v>
+        <v>93.83875742134821</v>
       </c>
       <c r="E53">
         <v>84.18910000000001</v>
@@ -5576,37 +5576,37 @@
         <v>5.15</v>
       </c>
       <c r="M53">
-        <v>16.43310882</v>
+        <v>15.87151467</v>
       </c>
       <c r="N53">
-        <v>-11.28310882</v>
+        <v>-10.72151467</v>
       </c>
       <c r="O53">
-        <v>-2.4822839404</v>
+        <v>-2.3587332274</v>
       </c>
       <c r="P53">
-        <v>-8.8008248796</v>
+        <v>-8.362781442600001</v>
       </c>
       <c r="Q53">
-        <v>-8.6608248796</v>
+        <v>-8.222781442600002</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1983053153908259</v>
+        <v>0.2007122861513135</v>
       </c>
       <c r="T53">
-        <v>1.907108491058123</v>
+        <v>1.90464922337719</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.06894617521312074</v>
+        <v>0.07138575136382998</v>
       </c>
       <c r="W53">
-        <v>0.1770864374744645</v>
+        <v>0.1705864374744644</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.3133917055141853</v>
+        <v>0.3244806880174089</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1892276876534815</v>
+        <v>0.1870921033261204</v>
       </c>
       <c r="C54">
-        <v>3.007139057013021</v>
+        <v>5.205073384761732</v>
       </c>
       <c r="D54">
-        <v>90.72033905701302</v>
+        <v>92.91827338476173</v>
       </c>
       <c r="E54">
         <v>85.8832</v>
@@ -5658,37 +5658,37 @@
         <v>5.15</v>
       </c>
       <c r="M54">
-        <v>16.75532664</v>
+        <v>16.18272084</v>
       </c>
       <c r="N54">
-        <v>-11.60532664</v>
+        <v>-11.03272084</v>
       </c>
       <c r="O54">
-        <v>-2.5531718608</v>
+        <v>-2.4271985848</v>
       </c>
       <c r="P54">
-        <v>-9.052154779199999</v>
+        <v>-8.605522255199999</v>
       </c>
       <c r="Q54">
-        <v>-8.912154779199998</v>
+        <v>-8.4655222552</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.202107509461468</v>
+        <v>0.2047000421127992</v>
       </c>
       <c r="T54">
-        <v>1.946839917955167</v>
+        <v>1.944329415530881</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.06762028722825306</v>
+        <v>0.07001294845298711</v>
       </c>
       <c r="W54">
-        <v>0.1773386213691863</v>
+        <v>0.1708386213691863</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.3073649419466048</v>
+        <v>0.318240674786305</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5707,13 +5707,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1909716876534815</v>
+        <v>0.1888361033261204</v>
       </c>
       <c r="C55">
-        <v>0.4098321893118282</v>
+        <v>2.608372371478779</v>
       </c>
       <c r="D55">
-        <v>89.81713218931183</v>
+        <v>92.01567237147879</v>
       </c>
       <c r="E55">
         <v>87.57730000000001</v>
@@ -5740,37 +5740,37 @@
         <v>5.15</v>
       </c>
       <c r="M55">
-        <v>17.07754446</v>
+        <v>16.49392701</v>
       </c>
       <c r="N55">
-        <v>-11.92754446</v>
+        <v>-11.34392701</v>
       </c>
       <c r="O55">
-        <v>-2.624059781200001</v>
+        <v>-2.4956639422</v>
       </c>
       <c r="P55">
-        <v>-9.3034846788</v>
+        <v>-8.8482630678</v>
       </c>
       <c r="Q55">
-        <v>-9.1634846788</v>
+        <v>-8.708263067800001</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.206071499024478</v>
+        <v>0.2088574898173268</v>
       </c>
       <c r="T55">
-        <v>1.988262043869107</v>
+        <v>1.985698126499623</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.06634443275224827</v>
+        <v>0.06869194942557225</v>
       </c>
       <c r="W55">
-        <v>0.1775812888905224</v>
+        <v>0.1710812888905224</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.3015656034193103</v>
+        <v>0.3122361337526012</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5789,13 +5789,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1927156876534815</v>
+        <v>0.1905801033261204</v>
       </c>
       <c r="C56">
-        <v>-2.169667407613517</v>
+        <v>0.02903825217134681</v>
       </c>
       <c r="D56">
-        <v>88.9317325923865</v>
+        <v>91.13043825217136</v>
       </c>
       <c r="E56">
         <v>89.27140000000001</v>
@@ -5822,37 +5822,37 @@
         <v>5.15</v>
       </c>
       <c r="M56">
-        <v>17.39976228</v>
+        <v>16.80513318</v>
       </c>
       <c r="N56">
-        <v>-12.24976228</v>
+        <v>-11.65513318</v>
       </c>
       <c r="O56">
-        <v>-2.6949477016</v>
+        <v>-2.5641292996</v>
       </c>
       <c r="P56">
-        <v>-9.5548145784</v>
+        <v>-9.091003880400002</v>
       </c>
       <c r="Q56">
-        <v>-9.414814578400001</v>
+        <v>-8.951003880400002</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2102078359597928</v>
+        <v>0.2131956961177034</v>
       </c>
       <c r="T56">
-        <v>2.031485131779305</v>
+        <v>2.028865477075702</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.06511583214572515</v>
+        <v>0.06741987628806163</v>
       </c>
       <c r="W56">
-        <v>0.1778149687258831</v>
+        <v>0.1713149687258831</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.2959810552078416</v>
+        <v>0.3064539831275529</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1944596876534815</v>
+        <v>0.1923241033261205</v>
       </c>
       <c r="C57">
-        <v>-4.731881214808439</v>
+        <v>-2.533425430116978</v>
       </c>
       <c r="D57">
-        <v>88.06361878519157</v>
+        <v>90.26207456988303</v>
       </c>
       <c r="E57">
         <v>90.96550000000001</v>
@@ -5904,37 +5904,37 @@
         <v>5.15</v>
       </c>
       <c r="M57">
-        <v>17.7219801</v>
+        <v>17.11633935</v>
       </c>
       <c r="N57">
-        <v>-12.5719801</v>
+        <v>-11.96633935</v>
       </c>
       <c r="O57">
-        <v>-2.765835622</v>
+        <v>-2.632594657</v>
       </c>
       <c r="P57">
-        <v>-9.806144478</v>
+        <v>-9.333744693</v>
       </c>
       <c r="Q57">
-        <v>-9.666144478</v>
+        <v>-9.193744692999999</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2145280100922326</v>
+        <v>0.2177267115869858</v>
       </c>
       <c r="T57">
-        <v>2.076629245818845</v>
+        <v>2.073951376566274</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.0639319079248938</v>
+        <v>0.06619406035555143</v>
       </c>
       <c r="W57">
-        <v>0.1780401511126852</v>
+        <v>0.1715401511126852</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.29059958147679</v>
+        <v>0.3008820925252338</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5953,13 +5953,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1962036876534815</v>
+        <v>0.1940681033261205</v>
       </c>
       <c r="C58">
-        <v>-7.277310548255187</v>
+        <v>-5.079496388394517</v>
       </c>
       <c r="D58">
-        <v>87.21228945174482</v>
+        <v>89.41010361160549</v>
       </c>
       <c r="E58">
         <v>92.65960000000001</v>
@@ -5986,37 +5986,37 @@
         <v>5.15</v>
       </c>
       <c r="M58">
-        <v>18.04419792</v>
+        <v>17.42754552</v>
       </c>
       <c r="N58">
-        <v>-12.89419792</v>
+        <v>-12.27754552</v>
       </c>
       <c r="O58">
-        <v>-2.836723542400001</v>
+        <v>-2.7010600144</v>
       </c>
       <c r="P58">
-        <v>-10.0574743776</v>
+        <v>-9.576485505600001</v>
       </c>
       <c r="Q58">
-        <v>-9.917474377600001</v>
+        <v>-9.4364855056</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.219044555776147</v>
+        <v>0.2224636823048718</v>
       </c>
       <c r="T58">
-        <v>2.123825365042001</v>
+        <v>2.121086635124598</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.06279026671194926</v>
+        <v>0.06501202356348801</v>
       </c>
       <c r="W58">
-        <v>0.1782572912713873</v>
+        <v>0.1717572912713873</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.2854103032361329</v>
+        <v>0.2955091980158546</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6035,13 +6035,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1979476876534815</v>
+        <v>0.1958121033261205</v>
       </c>
       <c r="C59">
-        <v>-9.806437524239641</v>
+        <v>-7.609634468057322</v>
       </c>
       <c r="D59">
-        <v>86.37726247576038</v>
+        <v>88.57406553194269</v>
       </c>
       <c r="E59">
         <v>94.35370000000002</v>
@@ -6068,37 +6068,37 @@
         <v>5.15</v>
       </c>
       <c r="M59">
-        <v>18.36641574</v>
+        <v>17.73875169</v>
       </c>
       <c r="N59">
-        <v>-13.21641574</v>
+        <v>-12.58875169</v>
       </c>
       <c r="O59">
-        <v>-2.907611462800001</v>
+        <v>-2.7695253718</v>
       </c>
       <c r="P59">
-        <v>-10.3088042772</v>
+        <v>-9.8192263182</v>
       </c>
       <c r="Q59">
-        <v>-10.1688042772</v>
+        <v>-9.679226318200001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2237711733523365</v>
+        <v>0.2274209772421944</v>
       </c>
       <c r="T59">
-        <v>2.173216652601117</v>
+        <v>2.170414231290286</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.06168868308542382</v>
+        <v>0.06387146174658473</v>
       </c>
       <c r="W59">
-        <v>0.1784668124771524</v>
+        <v>0.1719668124771524</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.2804031049337447</v>
+        <v>0.2903248261208397</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6117,13 +6117,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1996916876534816</v>
+        <v>0.1975561033261204</v>
       </c>
       <c r="C60">
-        <v>-12.31972596978584</v>
+        <v>-10.1242824745148</v>
       </c>
       <c r="D60">
-        <v>85.55807403021416</v>
+        <v>87.75351752548519</v>
       </c>
       <c r="E60">
         <v>96.0478</v>
@@ -6150,37 +6150,37 @@
         <v>5.15</v>
       </c>
       <c r="M60">
-        <v>18.68863356</v>
+        <v>18.04995786</v>
       </c>
       <c r="N60">
-        <v>-13.53863356</v>
+        <v>-12.89995786</v>
       </c>
       <c r="O60">
-        <v>-2.9784993832</v>
+        <v>-2.8379907292</v>
       </c>
       <c r="P60">
-        <v>-10.5601341768</v>
+        <v>-10.0619671308</v>
       </c>
       <c r="Q60">
-        <v>-10.4201341768</v>
+        <v>-9.921967130799999</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2287228679559635</v>
+        <v>0.232614333843199</v>
       </c>
       <c r="T60">
-        <v>2.224959906234477</v>
+        <v>2.222090760606721</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.06062508510119239</v>
+        <v>0.06277022964750567</v>
       </c>
       <c r="W60">
-        <v>0.1786691088137532</v>
+        <v>0.1721691088137532</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.2755685686417836</v>
+        <v>0.2853192256704804</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6199,13 +6199,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.2014356876534815</v>
+        <v>0.1993001033261204</v>
       </c>
       <c r="C61">
-        <v>-14.81762228177097</v>
+        <v>-12.62386695523512</v>
       </c>
       <c r="D61">
-        <v>84.75427771822903</v>
+        <v>86.94803304476488</v>
       </c>
       <c r="E61">
         <v>97.7419</v>
@@ -6232,37 +6232,37 @@
         <v>5.15</v>
       </c>
       <c r="M61">
-        <v>19.01085138</v>
+        <v>18.36116403</v>
       </c>
       <c r="N61">
-        <v>-13.86085138</v>
+        <v>-13.21116403</v>
       </c>
       <c r="O61">
-        <v>-3.0493873036</v>
+        <v>-2.9064560866</v>
       </c>
       <c r="P61">
-        <v>-10.8114640764</v>
+        <v>-10.3047079434</v>
       </c>
       <c r="Q61">
-        <v>-10.6714640764</v>
+        <v>-10.1647079434</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2339161086378162</v>
+        <v>0.2380610249125453</v>
       </c>
       <c r="T61">
-        <v>2.279227221020683</v>
+        <v>2.276288096231275</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.05959754128591795</v>
+        <v>0.06170632745009034</v>
       </c>
       <c r="W61">
-        <v>0.1788645476474184</v>
+        <v>0.1723645476474184</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.2708979149359907</v>
+        <v>0.2804833065913197</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.2031796876534815</v>
+        <v>0.2010441033261204</v>
       </c>
       <c r="C62">
-        <v>-17.30055623806371</v>
+        <v>-15.10879893911191</v>
       </c>
       <c r="D62">
-        <v>83.9654437619363</v>
+        <v>86.1572010608881</v>
       </c>
       <c r="E62">
         <v>99.43600000000001</v>
@@ -6314,37 +6314,37 @@
         <v>5.15</v>
       </c>
       <c r="M62">
-        <v>19.3330692</v>
+        <v>18.6723702</v>
       </c>
       <c r="N62">
-        <v>-14.1830692</v>
+        <v>-13.5223702</v>
       </c>
       <c r="O62">
-        <v>-3.120275224</v>
+        <v>-2.974921444</v>
       </c>
       <c r="P62">
-        <v>-11.062793976</v>
+        <v>-10.547448756</v>
       </c>
       <c r="Q62">
-        <v>-10.922793976</v>
+        <v>-10.407448756</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2393690113537617</v>
+        <v>0.2437800505353589</v>
       </c>
       <c r="T62">
-        <v>2.336207901546201</v>
+        <v>2.333195298637057</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.05860424893115264</v>
+        <v>0.06067788865925548</v>
       </c>
       <c r="W62">
-        <v>0.1790534718532948</v>
+        <v>0.1725534718532948</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.2663829496870574</v>
+        <v>0.2758085848147976</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6363,13 +6363,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2049236876534815</v>
+        <v>0.2027881033261205</v>
       </c>
       <c r="C63">
-        <v>-19.76894176378335</v>
+        <v>-17.57947463584573</v>
       </c>
       <c r="D63">
-        <v>83.19115823621665</v>
+        <v>85.38062536415427</v>
       </c>
       <c r="E63">
         <v>101.1301</v>
@@ -6396,37 +6396,37 @@
         <v>5.15</v>
       </c>
       <c r="M63">
-        <v>19.65528702</v>
+        <v>18.98357637</v>
       </c>
       <c r="N63">
-        <v>-14.50528702</v>
+        <v>-13.83357637</v>
       </c>
       <c r="O63">
-        <v>-3.1911631444</v>
+        <v>-3.0433868014</v>
       </c>
       <c r="P63">
-        <v>-11.3141238756</v>
+        <v>-10.7901895686</v>
       </c>
       <c r="Q63">
-        <v>-11.1741238756</v>
+        <v>-10.6501895686</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2451015501064222</v>
+        <v>0.2497923595234451</v>
       </c>
       <c r="T63">
-        <v>2.396110668252514</v>
+        <v>2.393020819114931</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.05764352353883866</v>
+        <v>0.05968316917303819</v>
       </c>
       <c r="W63">
-        <v>0.1792362018229129</v>
+        <v>0.1727362018229129</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.2620160160856303</v>
+        <v>0.271287132604719</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2066676876534815</v>
+        <v>0.2045321033261204</v>
       </c>
       <c r="C64">
-        <v>-22.22317765555024</v>
+        <v>-20.03627609784019</v>
       </c>
       <c r="D64">
-        <v>82.43102234444976</v>
+        <v>84.61792390215982</v>
       </c>
       <c r="E64">
         <v>102.8242</v>
@@ -6478,37 +6478,37 @@
         <v>5.15</v>
       </c>
       <c r="M64">
-        <v>19.97750484</v>
+        <v>19.29478254</v>
       </c>
       <c r="N64">
-        <v>-14.82750484</v>
+        <v>-14.14478254</v>
       </c>
       <c r="O64">
-        <v>-3.262051064800001</v>
+        <v>-3.1118521588</v>
       </c>
       <c r="P64">
-        <v>-11.5654537752</v>
+        <v>-11.0329303812</v>
       </c>
       <c r="Q64">
-        <v>-11.4254537752</v>
+        <v>-10.8929303812</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2511358014250123</v>
+        <v>0.2561211058266936</v>
       </c>
       <c r="T64">
-        <v>2.459166212153896</v>
+        <v>2.455995051196902</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.05671378928821223</v>
+        <v>0.05872053741218274</v>
       </c>
       <c r="W64">
-        <v>0.179413037277382</v>
+        <v>0.172913037277382</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.2577899513100556</v>
+        <v>0.2669115336917397</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6527,13 +6527,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2084116876534815</v>
+        <v>0.2062761033261204</v>
       </c>
       <c r="C65">
-        <v>-24.66364826638957</v>
+        <v>-22.47957184693588</v>
       </c>
       <c r="D65">
-        <v>81.68465173361044</v>
+        <v>83.86872815306413</v>
       </c>
       <c r="E65">
         <v>104.5183</v>
@@ -6560,37 +6560,37 @@
         <v>5.15</v>
       </c>
       <c r="M65">
-        <v>20.29972266</v>
+        <v>19.60598871</v>
       </c>
       <c r="N65">
-        <v>-15.14972266</v>
+        <v>-14.45598871</v>
       </c>
       <c r="O65">
-        <v>-3.3329389852</v>
+        <v>-3.1803175162</v>
       </c>
       <c r="P65">
-        <v>-11.8167836748</v>
+        <v>-11.2756711938</v>
       </c>
       <c r="Q65">
-        <v>-11.6767836748</v>
+        <v>-11.1356711938</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2574962284905531</v>
+        <v>0.2627919465247123</v>
       </c>
       <c r="T65">
-        <v>2.525630163833731</v>
+        <v>2.522373295823845</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.05581357041062156</v>
+        <v>0.05778846538976712</v>
       </c>
       <c r="W65">
-        <v>0.1795842589078998</v>
+        <v>0.1730842589078998</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.2536980473210071</v>
+        <v>0.2626748426807597</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6609,13 +6609,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2101556876534815</v>
+        <v>0.2080201033261204</v>
       </c>
       <c r="C66">
-        <v>-27.09072415376058</v>
+        <v>-24.90971746814262</v>
       </c>
       <c r="D66">
-        <v>80.95167584623943</v>
+        <v>83.13268253185738</v>
       </c>
       <c r="E66">
         <v>106.2124</v>
@@ -6642,37 +6642,37 @@
         <v>5.15</v>
       </c>
       <c r="M66">
-        <v>20.62194048</v>
+        <v>19.91719488</v>
       </c>
       <c r="N66">
-        <v>-15.47194048</v>
+        <v>-14.76719488</v>
       </c>
       <c r="O66">
-        <v>-3.4038269056</v>
+        <v>-3.2487828736</v>
       </c>
       <c r="P66">
-        <v>-12.0681135744</v>
+        <v>-11.5184120064</v>
       </c>
       <c r="Q66">
-        <v>-11.9281135744</v>
+        <v>-11.3784120064</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2642100126152908</v>
+        <v>0.2698333894837321</v>
       </c>
       <c r="T66">
-        <v>2.595786557273557</v>
+        <v>2.592439220707841</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.0549414833729556</v>
+        <v>0.05688552061805202</v>
       </c>
       <c r="W66">
-        <v>0.1797501298624639</v>
+        <v>0.1732501298624638</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.2497340153316164</v>
+        <v>0.2585705482638728</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6691,13 +6691,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2118996876534815</v>
+        <v>0.2097641033261204</v>
       </c>
       <c r="C67">
-        <v>-29.50476269300655</v>
+        <v>-27.32705617237936</v>
       </c>
       <c r="D67">
-        <v>80.23173730699345</v>
+        <v>82.40944382762065</v>
       </c>
       <c r="E67">
         <v>107.9065</v>
@@ -6724,37 +6724,37 @@
         <v>5.15</v>
       </c>
       <c r="M67">
-        <v>20.9441583</v>
+        <v>20.22840105</v>
       </c>
       <c r="N67">
-        <v>-15.7941583</v>
+        <v>-15.07840105</v>
       </c>
       <c r="O67">
-        <v>-3.474714826</v>
+        <v>-3.317248231</v>
       </c>
       <c r="P67">
-        <v>-12.319443474</v>
+        <v>-11.761152819</v>
       </c>
       <c r="Q67">
-        <v>-12.179443474</v>
+        <v>-11.621152819</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2713074415471561</v>
+        <v>0.2772772006118388</v>
       </c>
       <c r="T67">
-        <v>2.669951887481372</v>
+        <v>2.666508912728066</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.05409622978260244</v>
+        <v>0.05601035876238967</v>
       </c>
       <c r="W67">
-        <v>0.179910897095349</v>
+        <v>0.173410897095349</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.2458919535572838</v>
+        <v>0.254592539829044</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6773,13 +6773,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2136436876534815</v>
+        <v>0.2115081033261204</v>
       </c>
       <c r="C68">
-        <v>-31.90610865835913</v>
+        <v>-29.73191933009305</v>
       </c>
       <c r="D68">
-        <v>79.52449134164088</v>
+        <v>81.69868066990696</v>
       </c>
       <c r="E68">
         <v>109.6006</v>
@@ -6806,37 +6806,37 @@
         <v>5.15</v>
       </c>
       <c r="M68">
-        <v>21.26637612</v>
+        <v>20.53960722</v>
       </c>
       <c r="N68">
-        <v>-16.11637612000001</v>
+        <v>-15.38960722</v>
       </c>
       <c r="O68">
-        <v>-3.545602746400001</v>
+        <v>-3.3857135884</v>
       </c>
       <c r="P68">
-        <v>-12.57077337360001</v>
+        <v>-12.0038936316</v>
       </c>
       <c r="Q68">
-        <v>-12.4307733736</v>
+        <v>-11.8638936316</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2788223662985431</v>
+        <v>0.2851588829827752</v>
       </c>
       <c r="T68">
-        <v>2.748479884172001</v>
+        <v>2.744935645455362</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.05327658993741149</v>
+        <v>0.05516171696295953</v>
       </c>
       <c r="W68">
-        <v>0.1800667925939043</v>
+        <v>0.1735667925939043</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.2421663178973248</v>
+        <v>0.2507350771043615</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6855,13 +6855,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2153876876534815</v>
+        <v>0.2132521033261205</v>
       </c>
       <c r="C69">
-        <v>-34.29509477348168</v>
+        <v>-32.12462697749982</v>
       </c>
       <c r="D69">
-        <v>78.82960522651832</v>
+        <v>81.00007302250019</v>
       </c>
       <c r="E69">
         <v>111.2947</v>
@@ -6888,37 +6888,37 @@
         <v>5.15</v>
       </c>
       <c r="M69">
-        <v>21.58859394</v>
+        <v>20.85081339</v>
       </c>
       <c r="N69">
-        <v>-16.43859394</v>
+        <v>-15.70081339</v>
       </c>
       <c r="O69">
-        <v>-3.616490666799999</v>
+        <v>-3.4541789458</v>
       </c>
       <c r="P69">
-        <v>-12.8221032732</v>
+        <v>-12.2466344442</v>
       </c>
       <c r="Q69">
-        <v>-12.6821032732</v>
+        <v>-12.1066344442</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2867927410348627</v>
+        <v>0.2935182430731624</v>
       </c>
       <c r="T69">
-        <v>2.831767153389335</v>
+        <v>2.828115513499464</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.05248141695327102</v>
+        <v>0.05433840775455715</v>
       </c>
       <c r="W69">
-        <v>0.1802180344954879</v>
+        <v>0.1737180344954879</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.2385518952421412</v>
+        <v>0.2469927625207143</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2171316876534815</v>
+        <v>0.2149961033261205</v>
       </c>
       <c r="C70">
-        <v>-36.67204223339901</v>
+        <v>-34.50548829707266</v>
       </c>
       <c r="D70">
-        <v>78.146757766601</v>
+        <v>80.31331170292735</v>
       </c>
       <c r="E70">
         <v>112.9888</v>
@@ -6970,37 +6970,37 @@
         <v>5.15</v>
       </c>
       <c r="M70">
-        <v>21.91081176</v>
+        <v>21.16201956</v>
       </c>
       <c r="N70">
-        <v>-16.76081176</v>
+        <v>-16.01201956</v>
       </c>
       <c r="O70">
-        <v>-3.6873785872</v>
+        <v>-3.5226443032</v>
       </c>
       <c r="P70">
-        <v>-13.0734331728</v>
+        <v>-12.4893752568</v>
       </c>
       <c r="Q70">
-        <v>-12.9334331728</v>
+        <v>-12.3493752568</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2952612641922021</v>
+        <v>0.3024000631691987</v>
       </c>
       <c r="T70">
-        <v>2.920259876932751</v>
+        <v>2.916494123296322</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.05170963140984056</v>
+        <v>0.05353931352287249</v>
       </c>
       <c r="W70">
-        <v>0.1803648281058483</v>
+        <v>0.1738648281058483</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.2350437791356389</v>
+        <v>0.2433605160130569</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7019,13 +7019,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2188756876534815</v>
+        <v>0.2167401033261204</v>
       </c>
       <c r="C71">
-        <v>-39.03726119953299</v>
+        <v>-36.87480207379211</v>
       </c>
       <c r="D71">
-        <v>77.47563880046702</v>
+        <v>79.63809792620791</v>
       </c>
       <c r="E71">
         <v>114.6829</v>
@@ -7052,37 +7052,37 @@
         <v>5.15</v>
       </c>
       <c r="M71">
-        <v>22.23302958</v>
+        <v>21.47322573</v>
       </c>
       <c r="N71">
-        <v>-17.08302958</v>
+        <v>-16.32322573</v>
       </c>
       <c r="O71">
-        <v>-3.758266507600001</v>
+        <v>-3.591109660600001</v>
       </c>
       <c r="P71">
-        <v>-13.3247630724</v>
+        <v>-12.7321160694</v>
       </c>
       <c r="Q71">
-        <v>-13.1847630724</v>
+        <v>-12.5921160694</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.3042761436822731</v>
+        <v>0.3118549039165922</v>
       </c>
       <c r="T71">
-        <v>3.014461808446711</v>
+        <v>3.010574578886526</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.05096021646187186</v>
+        <v>0.05276338144283085</v>
       </c>
       <c r="W71">
-        <v>0.180507366828952</v>
+        <v>0.174007366828952</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.231637347553963</v>
+        <v>0.2398335520128674</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2206196876534816</v>
+        <v>0.2184841033261204</v>
       </c>
       <c r="C72">
-        <v>-41.39105126944762</v>
+        <v>-39.23285712857358</v>
       </c>
       <c r="D72">
-        <v>76.81594873055239</v>
+        <v>78.97414287142642</v>
       </c>
       <c r="E72">
         <v>116.377</v>
@@ -7134,37 +7134,37 @@
         <v>5.15</v>
       </c>
       <c r="M72">
-        <v>22.5552474</v>
+        <v>21.7844319</v>
       </c>
       <c r="N72">
-        <v>-17.4052474</v>
+        <v>-16.6344319</v>
       </c>
       <c r="O72">
-        <v>-3.829154428</v>
+        <v>-3.659575018</v>
       </c>
       <c r="P72">
-        <v>-13.576092972</v>
+        <v>-12.974856882</v>
       </c>
       <c r="Q72">
-        <v>-13.436092972</v>
+        <v>-12.834856882</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.3138920151383489</v>
+        <v>0.3219400673804786</v>
       </c>
       <c r="T72">
-        <v>3.114943868728268</v>
+        <v>3.110927064849411</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.0502322133695594</v>
+        <v>0.05200961885079042</v>
       </c>
       <c r="W72">
-        <v>0.1806458330171098</v>
+        <v>0.1741458330171098</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.2283282425889065</v>
+        <v>0.2364073584126836</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2223636876534815</v>
+        <v>0.2202281033261204</v>
       </c>
       <c r="C73">
-        <v>-43.73370192279775</v>
+        <v>-41.57993273019277</v>
       </c>
       <c r="D73">
-        <v>76.16739807720225</v>
+        <v>78.32116726980723</v>
       </c>
       <c r="E73">
         <v>118.0711</v>
@@ -7216,37 +7216,37 @@
         <v>5.15</v>
       </c>
       <c r="M73">
-        <v>22.87746522</v>
+        <v>22.09563807</v>
       </c>
       <c r="N73">
-        <v>-17.72746522</v>
+        <v>-16.94563807</v>
       </c>
       <c r="O73">
-        <v>-3.9000423484</v>
+        <v>-3.7280403754</v>
       </c>
       <c r="P73">
-        <v>-13.8274228716</v>
+        <v>-13.2175976946</v>
       </c>
       <c r="Q73">
-        <v>-13.6874228716</v>
+        <v>-13.0775976946</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3241710501431195</v>
+        <v>0.3327207593591158</v>
       </c>
       <c r="T73">
-        <v>3.222355726270621</v>
+        <v>3.218200411913183</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.04952471740660787</v>
+        <v>0.05127708900782154</v>
       </c>
       <c r="W73">
-        <v>0.1807803987492632</v>
+        <v>0.1742803987492632</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.2251123518482177</v>
+        <v>0.2330776773082797</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7265,13 +7265,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2241076876534815</v>
+        <v>0.2219721033261205</v>
       </c>
       <c r="C74">
-        <v>-46.06549294487665</v>
+        <v>-43.91629898694336</v>
       </c>
       <c r="D74">
-        <v>75.52970705512334</v>
+        <v>77.67890101305663</v>
       </c>
       <c r="E74">
         <v>119.7652</v>
@@ -7298,37 +7298,37 @@
         <v>5.15</v>
       </c>
       <c r="M74">
-        <v>23.19968304</v>
+        <v>22.40684424</v>
       </c>
       <c r="N74">
-        <v>-18.04968304</v>
+        <v>-17.25684424</v>
       </c>
       <c r="O74">
-        <v>-3.9709302688</v>
+        <v>-3.7965057328</v>
       </c>
       <c r="P74">
-        <v>-14.0787527712</v>
+        <v>-13.4603385072</v>
       </c>
       <c r="Q74">
-        <v>-13.9387527712</v>
+        <v>-13.3203385072</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3351843019339452</v>
+        <v>0.3442715007647985</v>
       </c>
       <c r="T74">
-        <v>3.337439859351715</v>
+        <v>3.333136140910082</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.04883687410929387</v>
+        <v>0.05056490721604624</v>
       </c>
       <c r="W74">
-        <v>0.1809112265444123</v>
+        <v>0.1744112265444123</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.2219857914058813</v>
+        <v>0.2298404873456646</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7347,13 +7347,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2258516876534815</v>
+        <v>0.2237161033261204</v>
       </c>
       <c r="C75">
-        <v>-48.38669482906354</v>
+        <v>-46.2422172191809</v>
       </c>
       <c r="D75">
-        <v>74.90260517093645</v>
+        <v>77.0470827808191</v>
       </c>
       <c r="E75">
         <v>121.4593</v>
@@ -7380,37 +7380,37 @@
         <v>5.15</v>
       </c>
       <c r="M75">
-        <v>23.52190086</v>
+        <v>22.71805041</v>
       </c>
       <c r="N75">
-        <v>-18.37190086</v>
+        <v>-17.56805041</v>
       </c>
       <c r="O75">
-        <v>-4.041818189199999</v>
+        <v>-3.8649710902</v>
       </c>
       <c r="P75">
-        <v>-14.3300826708</v>
+        <v>-13.7030793198</v>
       </c>
       <c r="Q75">
-        <v>-14.1900826708</v>
+        <v>-13.5630793198</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3470133501537209</v>
+        <v>0.3566778526449762</v>
       </c>
       <c r="T75">
-        <v>3.461048743031408</v>
+        <v>3.456585627610455</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.04816787583382409</v>
+        <v>0.04987223725418258</v>
       </c>
       <c r="W75">
-        <v>0.1810384700164067</v>
+        <v>0.1745384700164067</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.218944890153746</v>
+        <v>0.2266919875190119</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2275956876534815</v>
+        <v>0.2254601033261204</v>
       </c>
       <c r="C76">
-        <v>-50.69756915938814</v>
+        <v>-48.5579403138323</v>
       </c>
       <c r="D76">
-        <v>74.28583084061187</v>
+        <v>76.4254596861677</v>
       </c>
       <c r="E76">
         <v>123.1534</v>
@@ -7462,37 +7462,37 @@
         <v>5.15</v>
       </c>
       <c r="M76">
-        <v>23.84411868</v>
+        <v>23.02925658</v>
       </c>
       <c r="N76">
-        <v>-18.69411868</v>
+        <v>-17.87925658</v>
       </c>
       <c r="O76">
-        <v>-4.1127061096</v>
+        <v>-3.933436447599999</v>
       </c>
       <c r="P76">
-        <v>-14.5814125704</v>
+        <v>-13.9458201324</v>
       </c>
       <c r="Q76">
-        <v>-14.4414125704</v>
+        <v>-13.8058201324</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3597523251596333</v>
+        <v>0.3700385392851676</v>
       </c>
       <c r="T76">
-        <v>3.59416600237877</v>
+        <v>3.589531228672396</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.04751695859282647</v>
+        <v>0.04919828810209904</v>
       </c>
       <c r="W76">
-        <v>0.1811622744756444</v>
+        <v>0.1746622744756444</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.2159861754219384</v>
+        <v>0.2236285822822685</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7511,13 +7511,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2293396876534816</v>
+        <v>0.2272041033261205</v>
       </c>
       <c r="C77">
-        <v>-52.99836897434837</v>
+        <v>-50.86371306188147</v>
       </c>
       <c r="D77">
-        <v>73.67913102565164</v>
+        <v>75.81378693811854</v>
       </c>
       <c r="E77">
         <v>124.8475</v>
@@ -7544,37 +7544,37 @@
         <v>5.15</v>
       </c>
       <c r="M77">
-        <v>24.1663365</v>
+        <v>23.34046275</v>
       </c>
       <c r="N77">
-        <v>-19.0163365</v>
+        <v>-18.19046275</v>
       </c>
       <c r="O77">
-        <v>-4.18359403</v>
+        <v>-4.001901805</v>
       </c>
       <c r="P77">
-        <v>-14.83274247</v>
+        <v>-14.188560945</v>
       </c>
       <c r="Q77">
-        <v>-14.69274247</v>
+        <v>-14.048560945</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3735104181660187</v>
+        <v>0.3844680808565743</v>
       </c>
       <c r="T77">
-        <v>3.737932642473921</v>
+        <v>3.733112477819292</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.04688339914492211</v>
+        <v>0.04854231092740439</v>
       </c>
       <c r="W77">
-        <v>0.1812827774826358</v>
+        <v>0.1747827774826358</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.213106359749646</v>
+        <v>0.2206468678518381</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2310836876534815</v>
+        <v>0.2289481033261205</v>
       </c>
       <c r="C78">
-        <v>-55.28933911304442</v>
+        <v>-53.15977247977713</v>
       </c>
       <c r="D78">
-        <v>73.08226088695558</v>
+        <v>75.21182752022287</v>
       </c>
       <c r="E78">
         <v>126.5416</v>
@@ -7626,37 +7626,37 @@
         <v>5.15</v>
       </c>
       <c r="M78">
-        <v>24.48855432</v>
+        <v>23.65166892</v>
       </c>
       <c r="N78">
-        <v>-19.33855432</v>
+        <v>-18.50166892</v>
       </c>
       <c r="O78">
-        <v>-4.2544819504</v>
+        <v>-4.0703671624</v>
       </c>
       <c r="P78">
-        <v>-15.0840723696</v>
+        <v>-14.4313017576</v>
       </c>
       <c r="Q78">
-        <v>-14.9440723696</v>
+        <v>-14.2913017576</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3884150189229361</v>
+        <v>0.4001000842255983</v>
       </c>
       <c r="T78">
-        <v>3.893679835910334</v>
+        <v>3.888658831061763</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.04626651231406788</v>
+        <v>0.04790359630993854</v>
       </c>
       <c r="W78">
-        <v>0.1814001093578643</v>
+        <v>0.1749001093578643</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.2103023287003085</v>
+        <v>0.2177436195906297</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7675,13 +7675,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2328276876534815</v>
+        <v>0.2306921033261205</v>
       </c>
       <c r="C79">
-        <v>-57.57071654462426</v>
+        <v>-55.44634811564951</v>
       </c>
       <c r="D79">
-        <v>72.49498345537573</v>
+        <v>74.61935188435048</v>
       </c>
       <c r="E79">
         <v>128.2357</v>
@@ -7708,37 +7708,37 @@
         <v>5.15</v>
       </c>
       <c r="M79">
-        <v>24.81077214</v>
+        <v>23.96287509</v>
       </c>
       <c r="N79">
-        <v>-19.66077214</v>
+        <v>-18.81287509</v>
       </c>
       <c r="O79">
-        <v>-4.325369870799999</v>
+        <v>-4.138832519799999</v>
       </c>
       <c r="P79">
-        <v>-15.3354022692</v>
+        <v>-14.6740425702</v>
       </c>
       <c r="Q79">
-        <v>-15.1954022692</v>
+        <v>-14.5340425702</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.4046156719195855</v>
+        <v>0.417091392235407</v>
       </c>
       <c r="T79">
-        <v>4.06297026355861</v>
+        <v>4.057730954151405</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.04566564851778129</v>
+        <v>0.04728147168253675</v>
       </c>
       <c r="W79">
-        <v>0.181514393651918</v>
+        <v>0.175014393651918</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.2075711296262785</v>
+        <v>0.214915780375167</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7757,13 +7757,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2345716876534815</v>
+        <v>0.2324361033261204</v>
       </c>
       <c r="C80">
-        <v>-59.84273068197112</v>
+        <v>-57.7236623411669</v>
       </c>
       <c r="D80">
-        <v>71.91706931802889</v>
+        <v>74.03613765883311</v>
       </c>
       <c r="E80">
         <v>129.9298</v>
@@ -7790,37 +7790,37 @@
         <v>5.15</v>
       </c>
       <c r="M80">
-        <v>25.13298996</v>
+        <v>24.27408126</v>
       </c>
       <c r="N80">
-        <v>-19.98298996</v>
+        <v>-19.12408126</v>
       </c>
       <c r="O80">
-        <v>-4.396257791200001</v>
+        <v>-4.207297877200001</v>
       </c>
       <c r="P80">
-        <v>-15.5867321688</v>
+        <v>-14.9167833828</v>
       </c>
       <c r="Q80">
-        <v>-15.4467321688</v>
+        <v>-14.7767833828</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4222891115522939</v>
+        <v>0.4356273646097436</v>
       </c>
       <c r="T80">
-        <v>4.247650730084001</v>
+        <v>4.242173270249196</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.04508019148550203</v>
+        <v>0.04667529896865806</v>
       </c>
       <c r="W80">
-        <v>0.1816257475794575</v>
+        <v>0.1751257475794575</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.2049099612977364</v>
+        <v>0.2121604498575366</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7839,13 +7839,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2363156876534815</v>
+        <v>0.2341801033261204</v>
       </c>
       <c r="C81">
-        <v>-62.10560368050594</v>
+        <v>-59.99193062981161</v>
       </c>
       <c r="D81">
-        <v>71.34829631949407</v>
+        <v>73.4619693701884</v>
       </c>
       <c r="E81">
         <v>131.6239</v>
@@ -7872,37 +7872,37 @@
         <v>5.15</v>
       </c>
       <c r="M81">
-        <v>25.45520778</v>
+        <v>24.58528743</v>
       </c>
       <c r="N81">
-        <v>-20.30520778</v>
+        <v>-19.43528743</v>
       </c>
       <c r="O81">
-        <v>-4.467145711600001</v>
+        <v>-4.2757632346</v>
       </c>
       <c r="P81">
-        <v>-15.8380620684</v>
+        <v>-15.1595241954</v>
       </c>
       <c r="Q81">
-        <v>-15.6980620684</v>
+        <v>-15.0195241954</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.441645735911927</v>
+        <v>0.4559286676863981</v>
       </c>
       <c r="T81">
-        <v>4.449919812468954</v>
+        <v>4.444181521213443</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.04450955615024251</v>
+        <v>0.04608447239943455</v>
       </c>
       <c r="W81">
-        <v>0.1817342824202239</v>
+        <v>0.1752342824202239</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.2023161643192841</v>
+        <v>0.2094748745428843</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7921,13 +7921,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2380596876534815</v>
+        <v>0.2359241033261205</v>
       </c>
       <c r="C82">
-        <v>-64.35955072292238</v>
+        <v>-62.25136182230723</v>
       </c>
       <c r="D82">
-        <v>70.78844927707762</v>
+        <v>72.89663817769276</v>
       </c>
       <c r="E82">
         <v>133.318</v>
@@ -7954,37 +7954,37 @@
         <v>5.15</v>
       </c>
       <c r="M82">
-        <v>25.7774256</v>
+        <v>24.8964936</v>
       </c>
       <c r="N82">
-        <v>-20.6274256</v>
+        <v>-19.7464936</v>
       </c>
       <c r="O82">
-        <v>-4.538033632</v>
+        <v>-4.344228592</v>
       </c>
       <c r="P82">
-        <v>-16.089391968</v>
+        <v>-15.402265008</v>
       </c>
       <c r="Q82">
-        <v>-15.949391968</v>
+        <v>-15.262265008</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4629380227075234</v>
+        <v>0.478260101070718</v>
       </c>
       <c r="T82">
-        <v>4.672415803092402</v>
+        <v>4.666390597274115</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.04395318669836448</v>
+        <v>0.04550841649444162</v>
       </c>
       <c r="W82">
-        <v>0.1818401038899711</v>
+        <v>0.1753401038899711</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1997872122652931</v>
+        <v>0.2068564386110981</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8003,13 +8003,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2398036876534816</v>
+        <v>0.2376681033261204</v>
       </c>
       <c r="C83">
-        <v>-66.60478029062043</v>
+        <v>-64.50215837988361</v>
       </c>
       <c r="D83">
-        <v>70.23731970937959</v>
+        <v>72.33994162011641</v>
       </c>
       <c r="E83">
         <v>135.0121</v>
@@ -8036,37 +8036,37 @@
         <v>5.15</v>
       </c>
       <c r="M83">
-        <v>26.09964342</v>
+        <v>25.20769977</v>
       </c>
       <c r="N83">
-        <v>-20.94964342</v>
+        <v>-20.05769977</v>
       </c>
       <c r="O83">
-        <v>-4.6089215524</v>
+        <v>-4.412693949399999</v>
       </c>
       <c r="P83">
-        <v>-16.3407218676</v>
+        <v>-15.6450058206</v>
       </c>
       <c r="Q83">
-        <v>-16.2007218676</v>
+        <v>-15.5050058206</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4864716028500247</v>
+        <v>0.5029422116533874</v>
       </c>
       <c r="T83">
-        <v>4.918332424307793</v>
+        <v>4.911990102393806</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.04341055476381677</v>
+        <v>0.0449465841920411</v>
       </c>
       <c r="W83">
-        <v>0.1819433124839221</v>
+        <v>0.1754433124839221</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.1973207034718945</v>
+        <v>0.2043026554183687</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8085,13 +8085,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2415476876534815</v>
+        <v>0.2394121033261205</v>
       </c>
       <c r="C84">
-        <v>-68.84149442255863</v>
+        <v>-66.74451662602499</v>
       </c>
       <c r="D84">
-        <v>69.69470557744138</v>
+        <v>71.79168337397502</v>
       </c>
       <c r="E84">
         <v>136.7062</v>
@@ -8118,37 +8118,37 @@
         <v>5.15</v>
       </c>
       <c r="M84">
-        <v>26.42186124</v>
+        <v>25.51890594</v>
       </c>
       <c r="N84">
-        <v>-21.27186124</v>
+        <v>-20.36890594</v>
       </c>
       <c r="O84">
-        <v>-4.6798094728</v>
+        <v>-4.4811593068</v>
       </c>
       <c r="P84">
-        <v>-16.5920517672</v>
+        <v>-15.8877466332</v>
       </c>
       <c r="Q84">
-        <v>-16.4520517672</v>
+        <v>-15.7477466332</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.5126200252305816</v>
+        <v>0.5303667789674644</v>
       </c>
       <c r="T84">
-        <v>5.191573114547114</v>
+        <v>5.184878441415684</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.04288115775450193</v>
+        <v>0.04439845511652841</v>
       </c>
       <c r="W84">
-        <v>0.1820440037950937</v>
+        <v>0.1755440037950937</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.1949143534295543</v>
+        <v>0.2018111596205837</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8167,13 +8167,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2432916876534815</v>
+        <v>0.2411561033261204</v>
       </c>
       <c r="C85">
-        <v>-71.06988896219998</v>
+        <v>-68.97862697730784</v>
       </c>
       <c r="D85">
-        <v>69.16041103780002</v>
+        <v>71.25167302269216</v>
       </c>
       <c r="E85">
         <v>138.4003</v>
@@ -8200,37 +8200,37 @@
         <v>5.15</v>
       </c>
       <c r="M85">
-        <v>26.74407906</v>
+        <v>25.83011211</v>
       </c>
       <c r="N85">
-        <v>-21.59407906</v>
+        <v>-20.68011211</v>
       </c>
       <c r="O85">
-        <v>-4.750697393199999</v>
+        <v>-4.5496246642</v>
       </c>
       <c r="P85">
-        <v>-16.8433816668</v>
+        <v>-16.1304874458</v>
       </c>
       <c r="Q85">
-        <v>-16.7033816668</v>
+        <v>-15.9904874458</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5418447325970864</v>
+        <v>0.5610177659655506</v>
       </c>
       <c r="T85">
-        <v>5.496959768344003</v>
+        <v>5.489871290910725</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.04236451729962842</v>
+        <v>0.04386353397054614</v>
       </c>
       <c r="W85">
-        <v>0.1821422688096107</v>
+        <v>0.1756422688096107</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1925659877255838</v>
+        <v>0.1993796998661189</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8249,13 +8249,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2450356876534815</v>
+        <v>0.2429001033261204</v>
       </c>
       <c r="C86">
-        <v>-73.29015379318498</v>
+        <v>-71.20467416389832</v>
       </c>
       <c r="D86">
-        <v>68.63424620681501</v>
+        <v>70.71972583610167</v>
       </c>
       <c r="E86">
         <v>140.0944</v>
@@ -8282,37 +8282,37 @@
         <v>5.15</v>
       </c>
       <c r="M86">
-        <v>27.06629688</v>
+        <v>26.14131828</v>
       </c>
       <c r="N86">
-        <v>-21.91629688</v>
+        <v>-20.99131827999999</v>
       </c>
       <c r="O86">
-        <v>-4.821585313599999</v>
+        <v>-4.618090021599999</v>
       </c>
       <c r="P86">
-        <v>-17.0947115664</v>
+        <v>-16.3732282584</v>
       </c>
       <c r="Q86">
-        <v>-16.9547115664</v>
+        <v>-16.2332282584</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5747225283844042</v>
+        <v>0.5955001263383973</v>
       </c>
       <c r="T86">
-        <v>5.840519753865501</v>
+        <v>5.832988246592643</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.04186017780796618</v>
+        <v>0.04334134904232535</v>
       </c>
       <c r="W86">
-        <v>0.1822381941809249</v>
+        <v>0.1757381941809248</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1902735354907554</v>
+        <v>0.1970061320105698</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8331,13 +8331,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2467796876534815</v>
+        <v>0.2446441033261205</v>
       </c>
       <c r="C87">
-        <v>-75.50247306432827</v>
+        <v>-73.42283744024589</v>
       </c>
       <c r="D87">
-        <v>68.11602693567174</v>
+        <v>70.19566255975413</v>
       </c>
       <c r="E87">
         <v>141.7885</v>
@@ -8364,37 +8364,37 @@
         <v>5.15</v>
       </c>
       <c r="M87">
-        <v>27.3885147</v>
+        <v>26.45252445</v>
       </c>
       <c r="N87">
-        <v>-22.2385147</v>
+        <v>-21.30252445</v>
       </c>
       <c r="O87">
-        <v>-4.892473234000001</v>
+        <v>-4.686555379</v>
       </c>
       <c r="P87">
-        <v>-17.346041466</v>
+        <v>-16.615969071</v>
       </c>
       <c r="Q87">
-        <v>-17.206041466</v>
+        <v>-16.475969071</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.6119840302766978</v>
+        <v>0.6345801347609572</v>
       </c>
       <c r="T87">
-        <v>6.229887737456535</v>
+        <v>6.221854129698819</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.04136770512787245</v>
+        <v>0.04283145081829799</v>
       </c>
       <c r="W87">
-        <v>0.1823318624846787</v>
+        <v>0.1758318624846787</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1880350233085111</v>
+        <v>0.1946884128104455</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8413,13 +8413,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2485236876534815</v>
+        <v>0.2463881033261204</v>
       </c>
       <c r="C88">
-        <v>-77.70702540449867</v>
+        <v>-75.63329078647773</v>
       </c>
       <c r="D88">
-        <v>67.60557459550134</v>
+        <v>69.67930921352227</v>
       </c>
       <c r="E88">
         <v>143.4826</v>
@@ -8446,37 +8446,37 @@
         <v>5.15</v>
       </c>
       <c r="M88">
-        <v>27.71073252</v>
+        <v>26.76373062</v>
       </c>
       <c r="N88">
-        <v>-22.56073252</v>
+        <v>-21.61373062</v>
       </c>
       <c r="O88">
-        <v>-4.9633611544</v>
+        <v>-4.7550207364</v>
       </c>
       <c r="P88">
-        <v>-17.5973713656</v>
+        <v>-16.8587098836</v>
       </c>
       <c r="Q88">
-        <v>-17.4573713656</v>
+        <v>-16.7187098836</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6545686038678904</v>
+        <v>0.6792430015295969</v>
       </c>
       <c r="T88">
-        <v>6.67487971870343</v>
+        <v>6.666272281820163</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.04088668530080417</v>
+        <v>0.04233341069250383</v>
       </c>
       <c r="W88">
-        <v>0.1824233524557871</v>
+        <v>0.1759233524557871</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1858485695491098</v>
+        <v>0.1924245940568357</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8495,13 +8495,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2502676876534815</v>
+        <v>0.2481321033261204</v>
       </c>
       <c r="C89">
-        <v>-79.90398412790965</v>
+        <v>-77.83620310096983</v>
       </c>
       <c r="D89">
-        <v>67.10271587209034</v>
+        <v>69.17049689903017</v>
       </c>
       <c r="E89">
         <v>145.1767</v>
@@ -8528,37 +8528,37 @@
         <v>5.15</v>
       </c>
       <c r="M89">
-        <v>28.03295034</v>
+        <v>27.07493679</v>
       </c>
       <c r="N89">
-        <v>-22.88295034</v>
+        <v>-21.92493679</v>
       </c>
       <c r="O89">
-        <v>-5.0342490748</v>
+        <v>-4.8234860938</v>
       </c>
       <c r="P89">
-        <v>-17.8487012652</v>
+        <v>-17.1014506962</v>
       </c>
       <c r="Q89">
-        <v>-17.7087012652</v>
+        <v>-16.9614506962</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.7037046503192667</v>
+        <v>0.7307770785703351</v>
       </c>
       <c r="T89">
-        <v>7.18833200475754</v>
+        <v>7.179062457344791</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.04041672340079493</v>
+        <v>0.04184681976500378</v>
       </c>
       <c r="W89">
-        <v>0.1825127392091688</v>
+        <v>0.1760127392091688</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.1837123790945223</v>
+        <v>0.1902128171136537</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8577,13 +8577,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2520116876534815</v>
+        <v>0.2498761033261205</v>
       </c>
       <c r="C90">
-        <v>-82.09351743031512</v>
+        <v>-80.03173838454157</v>
       </c>
       <c r="D90">
-        <v>66.6072825696849</v>
+        <v>68.66906161545845</v>
       </c>
       <c r="E90">
         <v>146.8708</v>
@@ -8610,37 +8610,37 @@
         <v>5.15</v>
       </c>
       <c r="M90">
-        <v>28.35516816</v>
+        <v>27.38614296</v>
       </c>
       <c r="N90">
-        <v>-23.20516816</v>
+        <v>-22.23614296</v>
       </c>
       <c r="O90">
-        <v>-5.1051369952</v>
+        <v>-4.891951451200001</v>
       </c>
       <c r="P90">
-        <v>-18.1000311648</v>
+        <v>-17.3441915088</v>
       </c>
       <c r="Q90">
-        <v>-17.9600311648</v>
+        <v>-17.2041915088</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.7610300378458722</v>
+        <v>0.7909001684511966</v>
       </c>
       <c r="T90">
-        <v>7.787359671820669</v>
+        <v>7.777317662123526</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.03995744245305861</v>
+        <v>0.04137128772221964</v>
       </c>
       <c r="W90">
-        <v>0.1826000944454282</v>
+        <v>0.1761000944454283</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1816247384229938</v>
+        <v>0.1880513078282711</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8659,13 +8659,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2537556876534815</v>
+        <v>0.2516201033261204</v>
       </c>
       <c r="C91">
-        <v>-84.27578857657778</v>
+        <v>-82.22005591669647</v>
       </c>
       <c r="D91">
-        <v>66.11911142342223</v>
+        <v>68.17484408330354</v>
       </c>
       <c r="E91">
         <v>148.5649</v>
@@ -8692,37 +8692,37 @@
         <v>5.15</v>
       </c>
       <c r="M91">
-        <v>28.67738598</v>
+        <v>27.69734913</v>
       </c>
       <c r="N91">
-        <v>-23.52738598</v>
+        <v>-22.54734913</v>
       </c>
       <c r="O91">
-        <v>-5.176024915599999</v>
+        <v>-4.9604168086</v>
       </c>
       <c r="P91">
-        <v>-18.3513610644</v>
+        <v>-17.5869323214</v>
       </c>
       <c r="Q91">
-        <v>-18.2113610644</v>
+        <v>-17.4469323214</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.8287782231045879</v>
+        <v>0.8619547292194872</v>
       </c>
       <c r="T91">
-        <v>8.495301460168003</v>
+        <v>8.484346540498391</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.03950848242549616</v>
+        <v>0.04090644179275651</v>
       </c>
       <c r="W91">
-        <v>0.1826854866426706</v>
+        <v>0.1761854866426706</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1795840110249827</v>
+        <v>0.1859383717852567</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8741,13 +8741,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2554996876534815</v>
+        <v>0.2533641033261205</v>
       </c>
       <c r="C92">
-        <v>-86.45095608004966</v>
+        <v>-84.40131042430716</v>
       </c>
       <c r="D92">
-        <v>65.63804391995033</v>
+        <v>67.68768957569284</v>
       </c>
       <c r="E92">
         <v>150.259</v>
@@ -8774,37 +8774,37 @@
         <v>5.15</v>
       </c>
       <c r="M92">
-        <v>28.9996038</v>
+        <v>28.0085553</v>
       </c>
       <c r="N92">
-        <v>-23.8496038</v>
+        <v>-22.8585553</v>
       </c>
       <c r="O92">
-        <v>-5.246912835999999</v>
+        <v>-5.028882166</v>
       </c>
       <c r="P92">
-        <v>-18.602690964</v>
+        <v>-17.829673134</v>
       </c>
       <c r="Q92">
-        <v>-18.462690964</v>
+        <v>-17.689673134</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.9100760454150469</v>
+        <v>0.9472202021414361</v>
       </c>
       <c r="T92">
-        <v>9.344831606184805</v>
+        <v>9.332781194548232</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.0390694992874351</v>
+        <v>0.040451925772837</v>
       </c>
       <c r="W92">
-        <v>0.1827689812355298</v>
+        <v>0.1762689812355299</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1775886331247051</v>
+        <v>0.1838723898765318</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8823,13 +8823,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2572436876534815</v>
+        <v>0.2551081033261204</v>
       </c>
       <c r="C93">
-        <v>-88.61917387417766</v>
+        <v>-86.57565224311894</v>
       </c>
       <c r="D93">
-        <v>65.16392612582236</v>
+        <v>67.20744775688108</v>
       </c>
       <c r="E93">
         <v>151.9531</v>
@@ -8856,37 +8856,37 @@
         <v>5.15</v>
       </c>
       <c r="M93">
-        <v>29.32182162000001</v>
+        <v>28.31976147</v>
       </c>
       <c r="N93">
-        <v>-24.17182162</v>
+        <v>-23.16976147</v>
       </c>
       <c r="O93">
-        <v>-5.3178007564</v>
+        <v>-5.097347523400001</v>
       </c>
       <c r="P93">
-        <v>-18.8540208636</v>
+        <v>-18.0724139466</v>
       </c>
       <c r="Q93">
-        <v>-18.7140208636</v>
+        <v>-17.9324139466</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>1.009440050461163</v>
+        <v>1.051433557934929</v>
       </c>
       <c r="T93">
-        <v>10.38314622909423</v>
+        <v>10.36975688283137</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.03864016413043031</v>
+        <v>0.04000739911599262</v>
       </c>
       <c r="W93">
-        <v>0.1828506407823922</v>
+        <v>0.1763506407823922</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1756371096837742</v>
+        <v>0.1818518141636027</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8905,13 +8905,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2589876876534816</v>
+        <v>0.2568521033261205</v>
       </c>
       <c r="C94">
-        <v>-90.78059147672573</v>
+        <v>-88.7432274724269</v>
       </c>
       <c r="D94">
-        <v>64.69660852327428</v>
+        <v>66.73397252757312</v>
       </c>
       <c r="E94">
         <v>153.6472</v>
@@ -8938,37 +8938,37 @@
         <v>5.15</v>
       </c>
       <c r="M94">
-        <v>29.64403944</v>
+        <v>28.63096764</v>
       </c>
       <c r="N94">
-        <v>-24.49403944</v>
+        <v>-23.48096764</v>
       </c>
       <c r="O94">
-        <v>-5.3886886768</v>
+        <v>-5.165812880800001</v>
       </c>
       <c r="P94">
-        <v>-19.1053507632</v>
+        <v>-18.3151547592</v>
       </c>
       <c r="Q94">
-        <v>-18.9653507632</v>
+        <v>-18.1751547592</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.133645056768809</v>
+        <v>1.181700252676796</v>
       </c>
       <c r="T94">
-        <v>11.68103950773101</v>
+        <v>11.66597649318529</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.03822016234640389</v>
+        <v>0.03957253608212314</v>
       </c>
       <c r="W94">
-        <v>0.182930525121714</v>
+        <v>0.176430525121714</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.1737280106654723</v>
+        <v>0.1798751640096505</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8987,13 +8987,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2607316876534815</v>
+        <v>0.2585961033261205</v>
       </c>
       <c r="C95">
-        <v>-92.93535414698103</v>
+        <v>-90.90417812326052</v>
       </c>
       <c r="D95">
-        <v>64.23594585301898</v>
+        <v>66.26712187673948</v>
       </c>
       <c r="E95">
         <v>155.3413</v>
@@ -9020,37 +9020,37 @@
         <v>5.15</v>
       </c>
       <c r="M95">
-        <v>29.96625726</v>
+        <v>28.94217381</v>
       </c>
       <c r="N95">
-        <v>-24.81625726</v>
+        <v>-23.79217381</v>
       </c>
       <c r="O95">
-        <v>-5.4595765972</v>
+        <v>-5.2342782382</v>
       </c>
       <c r="P95">
-        <v>-19.3566806628</v>
+        <v>-18.5578955718</v>
       </c>
       <c r="Q95">
-        <v>-19.2166806628</v>
+        <v>-18.4178955718</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.293337207735782</v>
+        <v>1.349186003059195</v>
       </c>
       <c r="T95">
-        <v>13.34975943740687</v>
+        <v>13.33254456364034</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.03780919285880815</v>
+        <v>0.03914702494145515</v>
       </c>
       <c r="W95">
-        <v>0.1830086915182547</v>
+        <v>0.1765086915182547</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.1718599675400371</v>
+        <v>0.1779410224611597</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9069,13 +9069,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2624756876534816</v>
+        <v>0.2603401033261205</v>
       </c>
       <c r="C96">
-        <v>-95.08360303629127</v>
+        <v>-93.05864226039164</v>
       </c>
       <c r="D96">
-        <v>63.78179696370875</v>
+        <v>65.80675773960839</v>
       </c>
       <c r="E96">
         <v>157.0354</v>
@@ -9102,37 +9102,37 @@
         <v>5.15</v>
       </c>
       <c r="M96">
-        <v>30.28847508</v>
+        <v>29.25337998000001</v>
       </c>
       <c r="N96">
-        <v>-25.13847508000001</v>
+        <v>-24.10337998000001</v>
       </c>
       <c r="O96">
-        <v>-5.530464517600001</v>
+        <v>-5.302743595600002</v>
       </c>
       <c r="P96">
-        <v>-19.6080105624</v>
+        <v>-18.8006363844</v>
       </c>
       <c r="Q96">
-        <v>-19.4680105624</v>
+        <v>-18.6606363844</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.506260075691746</v>
+        <v>1.572500336902395</v>
       </c>
       <c r="T96">
-        <v>15.57471934364135</v>
+        <v>15.55463532424706</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.03740696740286339</v>
+        <v>0.038730567229312</v>
       </c>
       <c r="W96">
-        <v>0.1830851947999754</v>
+        <v>0.1765851947999754</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1700316700130153</v>
+        <v>0.1760480328605091</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9151,13 +9151,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2642196876534815</v>
+        <v>0.2620841033261205</v>
       </c>
       <c r="C97">
-        <v>-97.22547533226108</v>
+        <v>-95.20675413846378</v>
       </c>
       <c r="D97">
-        <v>63.33402466773892</v>
+        <v>65.35274586153623</v>
       </c>
       <c r="E97">
         <v>158.7295</v>
@@ -9184,37 +9184,37 @@
         <v>5.15</v>
       </c>
       <c r="M97">
-        <v>30.6106929</v>
+        <v>29.56458615</v>
       </c>
       <c r="N97">
-        <v>-25.46069290000001</v>
+        <v>-24.41458615000001</v>
       </c>
       <c r="O97">
-        <v>-5.601352438000001</v>
+        <v>-5.371208953000001</v>
       </c>
       <c r="P97">
-        <v>-19.85934046200001</v>
+        <v>-19.04337719700001</v>
       </c>
       <c r="Q97">
-        <v>-19.71934046200001</v>
+        <v>-18.903377197</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.804352090830096</v>
+        <v>1.885140404282875</v>
       </c>
       <c r="T97">
-        <v>18.68966321236963</v>
+        <v>18.66556238909649</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.03701320985125429</v>
+        <v>0.03832287704795083</v>
       </c>
       <c r="W97">
-        <v>0.1831600874862914</v>
+        <v>0.1766600874862914</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.1682418629602468</v>
+        <v>0.1741948956725037</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2659636876534815</v>
+        <v>0.2638281033261204</v>
       </c>
       <c r="C98">
-        <v>-99.36110439691706</v>
+        <v>-97.34864433252531</v>
       </c>
       <c r="D98">
-        <v>62.89249560308295</v>
+        <v>64.9049556674747</v>
       </c>
       <c r="E98">
         <v>160.4236</v>
@@ -9266,37 +9266,37 @@
         <v>5.15</v>
       </c>
       <c r="M98">
-        <v>30.93291072</v>
+        <v>29.87579232</v>
       </c>
       <c r="N98">
-        <v>-25.78291072</v>
+        <v>-24.72579232</v>
       </c>
       <c r="O98">
-        <v>-5.672240358400001</v>
+        <v>-5.439674310400001</v>
       </c>
       <c r="P98">
-        <v>-20.1106703616</v>
+        <v>-19.2861180096</v>
       </c>
       <c r="Q98">
-        <v>-19.9706703616</v>
+        <v>-19.1461180096</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.251490113537615</v>
+        <v>2.354100505353588</v>
       </c>
       <c r="T98">
-        <v>23.36207901546199</v>
+        <v>23.33195298637056</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.0366276555819704</v>
+        <v>0.03792368041203467</v>
       </c>
       <c r="W98">
-        <v>0.1832334199083092</v>
+        <v>0.1767334199083092</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.1664893435544108</v>
+        <v>0.1723803655092485</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9315,13 +9315,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2677076876534815</v>
+        <v>0.2655721033261205</v>
       </c>
       <c r="C99">
-        <v>-101.4906198991333</v>
+        <v>-99.4844398632325</v>
       </c>
       <c r="D99">
-        <v>62.45708010086668</v>
+        <v>64.4632601367675</v>
       </c>
       <c r="E99">
         <v>162.1177</v>
@@ -9348,37 +9348,37 @@
         <v>5.15</v>
       </c>
       <c r="M99">
-        <v>31.25512854</v>
+        <v>30.18699849</v>
       </c>
       <c r="N99">
-        <v>-26.10512854</v>
+        <v>-25.03699849</v>
       </c>
       <c r="O99">
-        <v>-5.7431282788</v>
+        <v>-5.5081396678</v>
       </c>
       <c r="P99">
-        <v>-20.3620002612</v>
+        <v>-19.5288588222</v>
       </c>
       <c r="Q99">
-        <v>-20.2220002612</v>
+        <v>-19.3888588222</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.996720151383486</v>
+        <v>3.135700673804784</v>
       </c>
       <c r="T99">
-        <v>31.14943868728265</v>
+        <v>31.10927064849407</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.03625005088524906</v>
+        <v>0.03753271463459102</v>
       </c>
       <c r="W99">
-        <v>0.1833052403216257</v>
+        <v>0.1768052403216256</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.1647729585693138</v>
+        <v>0.1706032483390501</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9397,13 +9397,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2694516876534815</v>
+        <v>0.2673161033261204</v>
       </c>
       <c r="C100">
-        <v>-103.6141479415941</v>
+        <v>-101.6142643169749</v>
       </c>
       <c r="D100">
-        <v>62.02765205840588</v>
+        <v>64.02753568302509</v>
       </c>
       <c r="E100">
         <v>163.8118</v>
@@ -9430,37 +9430,37 @@
         <v>5.15</v>
       </c>
       <c r="M100">
-        <v>31.57734636</v>
+        <v>30.49820466</v>
       </c>
       <c r="N100">
-        <v>-26.42734636</v>
+        <v>-25.34820466</v>
       </c>
       <c r="O100">
-        <v>-5.8140161992</v>
+        <v>-5.5766050252</v>
       </c>
       <c r="P100">
-        <v>-20.6133301608</v>
+        <v>-19.7715996348</v>
       </c>
       <c r="Q100">
-        <v>-20.4733301608</v>
+        <v>-19.6315996348</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.487180227075229</v>
+        <v>4.698901010707175</v>
       </c>
       <c r="T100">
-        <v>46.72415803092397</v>
+        <v>46.66390597274111</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.03588015240682815</v>
+        <v>0.03714972775056458</v>
       </c>
       <c r="W100">
-        <v>0.1833755950122213</v>
+        <v>0.1768755950122213</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.1630916018492188</v>
+        <v>0.1688623988662026</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2711956876534815</v>
+        <v>0.2690601033261205</v>
       </c>
       <c r="C101">
-        <v>-105.7318111825547</v>
+        <v>-103.7382379611619</v>
       </c>
       <c r="D101">
-        <v>61.60408881744532</v>
+        <v>63.59766203883807</v>
       </c>
       <c r="E101">
         <v>165.5059</v>
@@ -9512,37 +9512,37 @@
         <v>5.15</v>
       </c>
       <c r="M101">
-        <v>31.89956418</v>
+        <v>30.80941083</v>
       </c>
       <c r="N101">
-        <v>-26.74956418</v>
+        <v>-25.65941083</v>
       </c>
       <c r="O101">
-        <v>-5.8849041196</v>
+        <v>-5.6450703826</v>
       </c>
       <c r="P101">
-        <v>-20.8646600604</v>
+        <v>-20.0143404474</v>
       </c>
       <c r="Q101">
-        <v>-20.7246600604</v>
+        <v>-19.8743404474</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.95856045415046</v>
+        <v>9.38850202141435</v>
       </c>
       <c r="T101">
-        <v>93.44831606184795</v>
+        <v>93.32781194548222</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.03551772662494099</v>
+        <v>0.03677447797530635</v>
       </c>
       <c r="W101">
-        <v>0.1834445283959362</v>
+        <v>0.1769445283959362</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.16144421193155</v>
+        <v>0.1671567180695744</v>
       </c>
       <c r="Z101">
         <v>0</v>
